--- a/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC503C7-94BC-4AC7-9118-FECF9F804BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64412C9-E0F1-4535-974E-D734795C0D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64412C9-E0F1-4535-974E-D734795C0D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18752591-A23E-42CA-9377-D36B4EF1983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1537,29 +1537,29 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>24</v>
       </c>
       <c r="AA11" s="11">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AB11" s="11">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="AC11" s="11">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AD11" s="11">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="AE11" s="11">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AF11" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AG11" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
@@ -1568,37 +1568,37 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK11" s="11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AL11" s="11">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AM11" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="AN11" s="11">
-        <v>208</v>
+        <v>617</v>
       </c>
       <c r="AO11" s="11">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="AP11" s="11">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="AQ11" s="11">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="AR11" s="11">
-        <v>122</v>
-      </c>
-      <c r="AS11" s="11">
         <v>56</v>
       </c>
-      <c r="AT11" s="11">
-        <v>47</v>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>58</v>
@@ -1696,35 +1696,35 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>11481</v>
       </c>
       <c r="AA12" s="13">
-        <v>11481</v>
+        <v>21747</v>
       </c>
       <c r="AB12" s="13">
-        <v>21747</v>
+        <v>18525</v>
       </c>
       <c r="AC12" s="13">
-        <v>18525</v>
+        <v>20495</v>
       </c>
       <c r="AD12" s="13">
-        <v>20495</v>
+        <v>19273</v>
       </c>
       <c r="AE12" s="13">
-        <v>19273</v>
+        <v>19556</v>
       </c>
       <c r="AF12" s="13">
-        <v>19556</v>
+        <v>12956</v>
       </c>
       <c r="AG12" s="13">
-        <v>12956</v>
+        <v>22372</v>
       </c>
       <c r="AH12" s="13">
-        <v>22372</v>
-      </c>
-      <c r="AI12" s="13">
         <v>18466</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ12" s="13" t="s">
         <v>58</v>
@@ -1882,65 +1882,65 @@
       <c r="AH13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>58</v>
+      <c r="AI13" s="11">
+        <v>5876</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5876</v>
+        <v>5313</v>
       </c>
       <c r="AK13" s="11">
-        <v>5313</v>
+        <v>10291</v>
       </c>
       <c r="AL13" s="11">
-        <v>10291</v>
+        <v>8840</v>
       </c>
       <c r="AM13" s="11">
-        <v>8840</v>
+        <v>9104</v>
       </c>
       <c r="AN13" s="11">
-        <v>9104</v>
+        <v>2955</v>
       </c>
       <c r="AO13" s="11">
-        <v>2955</v>
+        <v>7012</v>
       </c>
       <c r="AP13" s="11">
-        <v>7012</v>
+        <v>9615</v>
       </c>
       <c r="AQ13" s="11">
-        <v>9615</v>
+        <v>7033</v>
       </c>
       <c r="AR13" s="11">
-        <v>7033</v>
+        <v>6602</v>
       </c>
       <c r="AS13" s="11">
-        <v>6602</v>
+        <v>9863</v>
       </c>
       <c r="AT13" s="11">
-        <v>8751</v>
+        <v>2252</v>
       </c>
       <c r="AU13" s="11">
-        <v>2252</v>
+        <v>6552</v>
       </c>
       <c r="AV13" s="11">
-        <v>6552</v>
+        <v>4786</v>
       </c>
       <c r="AW13" s="11">
-        <v>4786</v>
+        <v>2048</v>
       </c>
       <c r="AX13" s="11">
-        <v>2048</v>
+        <v>4375</v>
       </c>
       <c r="AY13" s="11">
-        <v>4375</v>
+        <v>5149</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5149</v>
+        <v>5378</v>
       </c>
       <c r="BA13" s="11">
-        <v>5378</v>
+        <v>7176</v>
       </c>
       <c r="BB13" s="11">
-        <v>7176</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2041,65 +2041,65 @@
       <c r="AH14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>58</v>
+      <c r="AI14" s="13">
+        <v>2332</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2332</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="13">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="AL14" s="13">
-        <v>873</v>
+        <v>1769</v>
       </c>
       <c r="AM14" s="13">
-        <v>1769</v>
+        <v>1047</v>
       </c>
       <c r="AN14" s="13">
-        <v>1047</v>
-      </c>
-      <c r="AO14" s="13">
         <v>1285</v>
       </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
+      <c r="AO14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>868</v>
       </c>
       <c r="AQ14" s="13">
-        <v>868</v>
+        <v>1108</v>
       </c>
       <c r="AR14" s="13">
-        <v>1108</v>
+        <v>80</v>
       </c>
       <c r="AS14" s="13">
-        <v>80</v>
-      </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+        <v>-231</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>483</v>
       </c>
       <c r="AU14" s="13">
-        <v>483</v>
+        <v>361</v>
       </c>
       <c r="AV14" s="13">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="AW14" s="13">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="AX14" s="13">
-        <v>530</v>
+        <v>719</v>
       </c>
       <c r="AY14" s="13">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="AZ14" s="13">
-        <v>686</v>
+        <v>1693</v>
       </c>
       <c r="BA14" s="13">
-        <v>1693</v>
+        <v>2046</v>
       </c>
       <c r="BB14" s="13">
-        <v>2046</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2173,47 +2173,47 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>0</v>
       </c>
       <c r="AA15" s="11">
         <v>0</v>
       </c>
       <c r="AB15" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AC15" s="11">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="11">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AG15" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="11">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AI15" s="11">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="AJ15" s="11">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="AK15" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AL15" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AM15" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2225,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AR15" s="11">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AS15" s="11">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="AT15" s="11">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="AU15" s="11">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB15" s="11">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2389,35 +2389,35 @@
       <c r="AR16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
+      <c r="AS16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>22</v>
       </c>
       <c r="AV16" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="13">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AX16" s="13">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AY16" s="13">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AZ16" s="13">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="BB16" s="13">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2518,65 +2518,65 @@
       <c r="AH17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
+      <c r="AI17" s="11">
+        <v>941</v>
       </c>
       <c r="AJ17" s="11">
-        <v>941</v>
+        <v>1316</v>
       </c>
       <c r="AK17" s="11">
-        <v>1316</v>
+        <v>2081</v>
       </c>
       <c r="AL17" s="11">
-        <v>2081</v>
+        <v>1526</v>
       </c>
       <c r="AM17" s="11">
-        <v>1526</v>
+        <v>1196</v>
       </c>
       <c r="AN17" s="11">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="11">
-        <v>0</v>
+        <v>1442</v>
       </c>
       <c r="AP17" s="11">
-        <v>1442</v>
+        <v>1024</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1024</v>
+        <v>879</v>
       </c>
       <c r="AR17" s="11">
-        <v>879</v>
+        <v>2494</v>
       </c>
       <c r="AS17" s="11">
-        <v>2494</v>
+        <v>1972</v>
       </c>
       <c r="AT17" s="11">
-        <v>1741</v>
+        <v>1769</v>
       </c>
       <c r="AU17" s="11">
-        <v>1769</v>
+        <v>1811</v>
       </c>
       <c r="AV17" s="11">
-        <v>1811</v>
+        <v>2836</v>
       </c>
       <c r="AW17" s="11">
-        <v>2836</v>
+        <v>3838</v>
       </c>
       <c r="AX17" s="11">
-        <v>3838</v>
+        <v>1004</v>
       </c>
       <c r="AY17" s="11">
-        <v>1004</v>
+        <v>367</v>
       </c>
       <c r="AZ17" s="11">
-        <v>367</v>
+        <v>519</v>
       </c>
       <c r="BA17" s="11">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2650,35 +2650,35 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>3534</v>
       </c>
       <c r="AA18" s="13">
-        <v>3534</v>
+        <v>1287</v>
       </c>
       <c r="AB18" s="13">
-        <v>1287</v>
+        <v>1365</v>
       </c>
       <c r="AC18" s="13">
-        <v>1365</v>
+        <v>1885</v>
       </c>
       <c r="AD18" s="13">
-        <v>1885</v>
+        <v>2134</v>
       </c>
       <c r="AE18" s="13">
-        <v>2134</v>
+        <v>1401</v>
       </c>
       <c r="AF18" s="13">
-        <v>1401</v>
+        <v>2278</v>
       </c>
       <c r="AG18" s="13">
-        <v>2278</v>
+        <v>773</v>
       </c>
       <c r="AH18" s="13">
-        <v>773</v>
-      </c>
-      <c r="AI18" s="13">
         <v>2224</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2836,65 +2836,65 @@
       <c r="AH19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" s="11" t="s">
-        <v>58</v>
+      <c r="AI19" s="11">
+        <v>6493</v>
       </c>
       <c r="AJ19" s="11">
-        <v>6493</v>
+        <v>3941</v>
       </c>
       <c r="AK19" s="11">
-        <v>3941</v>
+        <v>7096</v>
       </c>
       <c r="AL19" s="11">
-        <v>7096</v>
+        <v>10541</v>
       </c>
       <c r="AM19" s="11">
-        <v>10541</v>
+        <v>7682</v>
       </c>
       <c r="AN19" s="11">
-        <v>7682</v>
+        <v>5556</v>
       </c>
       <c r="AO19" s="11">
-        <v>5556</v>
+        <v>5091</v>
       </c>
       <c r="AP19" s="11">
-        <v>5091</v>
+        <v>5811</v>
       </c>
       <c r="AQ19" s="11">
-        <v>5811</v>
+        <v>6272</v>
       </c>
       <c r="AR19" s="11">
-        <v>6272</v>
+        <v>3833</v>
       </c>
       <c r="AS19" s="11">
-        <v>3833</v>
+        <v>3498</v>
       </c>
       <c r="AT19" s="11">
-        <v>3498</v>
+        <v>3355</v>
       </c>
       <c r="AU19" s="11">
-        <v>3355</v>
+        <v>3455</v>
       </c>
       <c r="AV19" s="11">
-        <v>3455</v>
+        <v>2390</v>
       </c>
       <c r="AW19" s="11">
-        <v>2390</v>
+        <v>6031</v>
       </c>
       <c r="AX19" s="11">
-        <v>6031</v>
+        <v>4791</v>
       </c>
       <c r="AY19" s="11">
-        <v>4791</v>
+        <v>6852</v>
       </c>
       <c r="AZ19" s="11">
-        <v>6852</v>
+        <v>9144</v>
       </c>
       <c r="BA19" s="11">
-        <v>9144</v>
+        <v>3913</v>
       </c>
       <c r="BB19" s="11">
-        <v>3913</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2995,65 +2995,65 @@
       <c r="AH20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>58</v>
+      <c r="AI20" s="13">
+        <v>7297</v>
       </c>
       <c r="AJ20" s="13">
-        <v>7297</v>
+        <v>2089</v>
       </c>
       <c r="AK20" s="13">
-        <v>2089</v>
+        <v>4251</v>
       </c>
       <c r="AL20" s="13">
-        <v>4251</v>
+        <v>5638</v>
       </c>
       <c r="AM20" s="13">
-        <v>5638</v>
+        <v>6138</v>
       </c>
       <c r="AN20" s="13">
-        <v>6138</v>
+        <v>2178</v>
       </c>
       <c r="AO20" s="13">
-        <v>2178</v>
+        <v>5149</v>
       </c>
       <c r="AP20" s="13">
-        <v>5149</v>
+        <v>4125</v>
       </c>
       <c r="AQ20" s="13">
-        <v>4125</v>
+        <v>2818</v>
       </c>
       <c r="AR20" s="13">
-        <v>2818</v>
+        <v>5802</v>
       </c>
       <c r="AS20" s="13">
-        <v>5802</v>
+        <v>4307</v>
       </c>
       <c r="AT20" s="13">
-        <v>4307</v>
+        <v>3568</v>
       </c>
       <c r="AU20" s="13">
-        <v>3568</v>
+        <v>2446</v>
       </c>
       <c r="AV20" s="13">
-        <v>2446</v>
+        <v>4193</v>
       </c>
       <c r="AW20" s="13">
-        <v>4193</v>
+        <v>3176</v>
       </c>
       <c r="AX20" s="13">
-        <v>3176</v>
+        <v>2642</v>
       </c>
       <c r="AY20" s="13">
-        <v>2642</v>
+        <v>6646</v>
       </c>
       <c r="AZ20" s="13">
-        <v>6646</v>
+        <v>6497</v>
       </c>
       <c r="BA20" s="13">
-        <v>6497</v>
+        <v>6651</v>
       </c>
       <c r="BB20" s="13">
-        <v>6651</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3154,65 +3154,65 @@
       <c r="AH21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>58</v>
+      <c r="AI21" s="11">
+        <v>2541</v>
       </c>
       <c r="AJ21" s="11">
-        <v>2541</v>
+        <v>2391</v>
       </c>
       <c r="AK21" s="11">
-        <v>2391</v>
+        <v>1973</v>
       </c>
       <c r="AL21" s="11">
-        <v>1973</v>
+        <v>3224</v>
       </c>
       <c r="AM21" s="11">
-        <v>3224</v>
+        <v>2955</v>
       </c>
       <c r="AN21" s="11">
-        <v>2955</v>
+        <v>2096</v>
       </c>
       <c r="AO21" s="11">
-        <v>2096</v>
+        <v>2824</v>
       </c>
       <c r="AP21" s="11">
-        <v>2824</v>
+        <v>1762</v>
       </c>
       <c r="AQ21" s="11">
-        <v>1762</v>
+        <v>1838</v>
       </c>
       <c r="AR21" s="11">
-        <v>1838</v>
+        <v>1222</v>
       </c>
       <c r="AS21" s="11">
-        <v>1222</v>
+        <v>2695</v>
       </c>
       <c r="AT21" s="11">
-        <v>2695</v>
+        <v>810</v>
       </c>
       <c r="AU21" s="11">
-        <v>810</v>
+        <v>1503</v>
       </c>
       <c r="AV21" s="11">
-        <v>1503</v>
+        <v>2330</v>
       </c>
       <c r="AW21" s="11">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="AX21" s="11">
-        <v>2315</v>
+        <v>1504</v>
       </c>
       <c r="AY21" s="11">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="AZ21" s="11">
-        <v>1543</v>
+        <v>1818</v>
       </c>
       <c r="BA21" s="11">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="BB21" s="11">
-        <v>1796</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3313,65 +3313,65 @@
       <c r="AH22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="13" t="s">
-        <v>58</v>
+      <c r="AI22" s="13">
+        <v>1048</v>
       </c>
       <c r="AJ22" s="13">
-        <v>1048</v>
+        <v>490</v>
       </c>
       <c r="AK22" s="13">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AL22" s="13">
-        <v>461</v>
+        <v>1127</v>
       </c>
       <c r="AM22" s="13">
-        <v>1127</v>
+        <v>1322</v>
       </c>
       <c r="AN22" s="13">
-        <v>1322</v>
+        <v>572</v>
       </c>
       <c r="AO22" s="13">
-        <v>572</v>
+        <v>351</v>
       </c>
       <c r="AP22" s="13">
-        <v>351</v>
+        <v>693</v>
       </c>
       <c r="AQ22" s="13">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AR22" s="13">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="AS22" s="13">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="AT22" s="13">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="AU22" s="13">
-        <v>397</v>
+        <v>778</v>
       </c>
       <c r="AV22" s="13">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="AW22" s="13">
-        <v>888</v>
+        <v>1604</v>
       </c>
       <c r="AX22" s="13">
-        <v>1604</v>
+        <v>204</v>
       </c>
       <c r="AY22" s="13">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AZ22" s="13">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="BA22" s="13">
-        <v>178</v>
+        <v>1466</v>
       </c>
       <c r="BB22" s="13">
-        <v>1466</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3472,65 +3472,65 @@
       <c r="AH23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" s="11" t="s">
-        <v>58</v>
+      <c r="AI23" s="11">
+        <v>2602</v>
       </c>
       <c r="AJ23" s="11">
-        <v>2602</v>
+        <v>1136</v>
       </c>
       <c r="AK23" s="11">
-        <v>1136</v>
+        <v>2223</v>
       </c>
       <c r="AL23" s="11">
-        <v>2223</v>
+        <v>2885</v>
       </c>
       <c r="AM23" s="11">
-        <v>2885</v>
+        <v>2196</v>
       </c>
       <c r="AN23" s="11">
-        <v>2196</v>
+        <v>1212</v>
       </c>
       <c r="AO23" s="11">
-        <v>1212</v>
+        <v>1271</v>
       </c>
       <c r="AP23" s="11">
-        <v>1271</v>
+        <v>1446</v>
       </c>
       <c r="AQ23" s="11">
-        <v>1446</v>
+        <v>1308</v>
       </c>
       <c r="AR23" s="11">
-        <v>1308</v>
+        <v>1448</v>
       </c>
       <c r="AS23" s="11">
-        <v>1448</v>
+        <v>402</v>
       </c>
       <c r="AT23" s="11">
-        <v>402</v>
+        <v>1855</v>
       </c>
       <c r="AU23" s="11">
-        <v>1855</v>
+        <v>718</v>
       </c>
       <c r="AV23" s="11">
-        <v>718</v>
+        <v>1104</v>
       </c>
       <c r="AW23" s="11">
-        <v>1104</v>
+        <v>1894</v>
       </c>
       <c r="AX23" s="11">
-        <v>1894</v>
+        <v>744</v>
       </c>
       <c r="AY23" s="11">
-        <v>744</v>
+        <v>1108</v>
       </c>
       <c r="AZ23" s="11">
-        <v>1108</v>
+        <v>2967</v>
       </c>
       <c r="BA23" s="11">
-        <v>2967</v>
+        <v>4555</v>
       </c>
       <c r="BB23" s="11">
-        <v>4555</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3631,38 +3631,38 @@
       <c r="AH24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="13" t="s">
-        <v>58</v>
+      <c r="AI24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK24" s="13">
+        <v>800</v>
       </c>
       <c r="AL24" s="13">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="13">
         <v>1034</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>58</v>
+      <c r="AN24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO24" s="13">
+        <v>475</v>
       </c>
       <c r="AP24" s="13">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="13">
         <v>494</v>
       </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>0</v>
       </c>
       <c r="AT24" s="13">
         <v>0</v>
@@ -3762,91 +3762,91 @@
         <v>0</v>
       </c>
       <c r="Z25" s="15">
-        <v>0</v>
+        <v>15039</v>
       </c>
       <c r="AA25" s="15">
-        <v>15039</v>
+        <v>23224</v>
       </c>
       <c r="AB25" s="15">
-        <v>23224</v>
+        <v>20498</v>
       </c>
       <c r="AC25" s="15">
-        <v>20498</v>
+        <v>22774</v>
       </c>
       <c r="AD25" s="15">
-        <v>22774</v>
+        <v>21948</v>
       </c>
       <c r="AE25" s="15">
-        <v>21948</v>
+        <v>21137</v>
       </c>
       <c r="AF25" s="15">
-        <v>21137</v>
+        <v>15411</v>
       </c>
       <c r="AG25" s="15">
-        <v>15411</v>
+        <v>23145</v>
       </c>
       <c r="AH25" s="15">
-        <v>23145</v>
+        <v>20826</v>
       </c>
       <c r="AI25" s="15">
-        <v>20826</v>
+        <v>29182</v>
       </c>
       <c r="AJ25" s="15">
-        <v>29182</v>
+        <v>16827</v>
       </c>
       <c r="AK25" s="15">
-        <v>16827</v>
+        <v>30225</v>
       </c>
       <c r="AL25" s="15">
-        <v>30225</v>
+        <v>35703</v>
       </c>
       <c r="AM25" s="15">
-        <v>35703</v>
+        <v>32882</v>
       </c>
       <c r="AN25" s="15">
-        <v>32882</v>
+        <v>16471</v>
       </c>
       <c r="AO25" s="15">
-        <v>16471</v>
+        <v>23749</v>
       </c>
       <c r="AP25" s="15">
-        <v>23749</v>
+        <v>25695</v>
       </c>
       <c r="AQ25" s="15">
-        <v>25695</v>
+        <v>22624</v>
       </c>
       <c r="AR25" s="15">
-        <v>22624</v>
+        <v>22223</v>
       </c>
       <c r="AS25" s="15">
-        <v>22223</v>
+        <v>23194</v>
       </c>
       <c r="AT25" s="15">
-        <v>22129</v>
+        <v>14575</v>
       </c>
       <c r="AU25" s="15">
-        <v>14575</v>
+        <v>17646</v>
       </c>
       <c r="AV25" s="15">
-        <v>17646</v>
+        <v>18797</v>
       </c>
       <c r="AW25" s="15">
-        <v>18797</v>
+        <v>21559</v>
       </c>
       <c r="AX25" s="15">
-        <v>21559</v>
+        <v>16328</v>
       </c>
       <c r="AY25" s="15">
-        <v>16328</v>
+        <v>22595</v>
       </c>
       <c r="AZ25" s="15">
-        <v>22595</v>
+        <v>28195</v>
       </c>
       <c r="BA25" s="15">
-        <v>28195</v>
+        <v>27674</v>
       </c>
       <c r="BB25" s="15">
-        <v>27674</v>
+        <v>21673</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3977,35 +3977,35 @@
       <c r="Y27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>58</v>
+      <c r="Z27" s="11">
+        <v>28664</v>
       </c>
       <c r="AA27" s="11">
-        <v>28664</v>
+        <v>40201</v>
       </c>
       <c r="AB27" s="11">
-        <v>40201</v>
+        <v>34022</v>
       </c>
       <c r="AC27" s="11">
-        <v>34022</v>
+        <v>44815</v>
       </c>
       <c r="AD27" s="11">
-        <v>44815</v>
+        <v>38967</v>
       </c>
       <c r="AE27" s="11">
-        <v>38967</v>
+        <v>36319</v>
       </c>
       <c r="AF27" s="11">
-        <v>36319</v>
+        <v>35970</v>
       </c>
       <c r="AG27" s="11">
-        <v>35970</v>
+        <v>29636</v>
       </c>
       <c r="AH27" s="11">
-        <v>29636</v>
-      </c>
-      <c r="AI27" s="11">
         <v>28049</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ27" s="11" t="s">
         <v>58</v>
@@ -4163,65 +4163,65 @@
       <c r="AH28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI28" s="13" t="s">
-        <v>58</v>
+      <c r="AI28" s="13">
+        <v>19808</v>
       </c>
       <c r="AJ28" s="13">
-        <v>19808</v>
+        <v>16697</v>
       </c>
       <c r="AK28" s="13">
-        <v>16697</v>
+        <v>12377</v>
       </c>
       <c r="AL28" s="13">
-        <v>12377</v>
+        <v>22853</v>
       </c>
       <c r="AM28" s="13">
-        <v>22853</v>
+        <v>14256</v>
       </c>
       <c r="AN28" s="13">
-        <v>14256</v>
+        <v>21977</v>
       </c>
       <c r="AO28" s="13">
-        <v>21977</v>
+        <v>17835</v>
       </c>
       <c r="AP28" s="13">
-        <v>17835</v>
+        <v>24816</v>
       </c>
       <c r="AQ28" s="13">
-        <v>24816</v>
+        <v>16846</v>
       </c>
       <c r="AR28" s="13">
-        <v>16846</v>
+        <v>16772</v>
       </c>
       <c r="AS28" s="13">
-        <v>16772</v>
+        <v>17388</v>
       </c>
       <c r="AT28" s="13">
-        <v>18498</v>
+        <v>20977</v>
       </c>
       <c r="AU28" s="13">
-        <v>20977</v>
+        <v>22174</v>
       </c>
       <c r="AV28" s="13">
-        <v>22174</v>
+        <v>22345</v>
       </c>
       <c r="AW28" s="13">
-        <v>22345</v>
+        <v>21713</v>
       </c>
       <c r="AX28" s="13">
-        <v>21713</v>
+        <v>24845</v>
       </c>
       <c r="AY28" s="13">
-        <v>24845</v>
+        <v>13557</v>
       </c>
       <c r="AZ28" s="13">
-        <v>13557</v>
+        <v>9833</v>
       </c>
       <c r="BA28" s="13">
-        <v>9833</v>
+        <v>16417</v>
       </c>
       <c r="BB28" s="13">
-        <v>16417</v>
+        <v>14837</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4322,65 +4322,65 @@
       <c r="AH29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI29" s="11" t="s">
-        <v>58</v>
+      <c r="AI29" s="11">
+        <v>549</v>
       </c>
       <c r="AJ29" s="11">
-        <v>549</v>
+        <v>1600</v>
       </c>
       <c r="AK29" s="11">
-        <v>1600</v>
+        <v>1276</v>
       </c>
       <c r="AL29" s="11">
-        <v>1276</v>
+        <v>510</v>
       </c>
       <c r="AM29" s="11">
-        <v>510</v>
+        <v>1154</v>
       </c>
       <c r="AN29" s="11">
-        <v>1154</v>
+        <v>1236</v>
       </c>
       <c r="AO29" s="11">
-        <v>1236</v>
+        <v>1335</v>
       </c>
       <c r="AP29" s="11">
-        <v>1335</v>
+        <v>1152</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1152</v>
+        <v>1867</v>
       </c>
       <c r="AR29" s="11">
-        <v>1867</v>
+        <v>725</v>
       </c>
       <c r="AS29" s="11">
-        <v>725</v>
+        <v>862</v>
       </c>
       <c r="AT29" s="11">
-        <v>862</v>
+        <v>545</v>
       </c>
       <c r="AU29" s="11">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="AV29" s="11">
-        <v>413</v>
+        <v>1430</v>
       </c>
       <c r="AW29" s="11">
-        <v>1430</v>
+        <v>498</v>
       </c>
       <c r="AX29" s="11">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="AY29" s="11">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="AZ29" s="11">
-        <v>457</v>
+        <v>2243</v>
       </c>
       <c r="BA29" s="11">
-        <v>2243</v>
+        <v>4204</v>
       </c>
       <c r="BB29" s="11">
-        <v>4204</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4481,65 +4481,65 @@
       <c r="AH30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI30" s="13" t="s">
-        <v>58</v>
+      <c r="AI30" s="13">
+        <v>1574</v>
       </c>
       <c r="AJ30" s="13">
-        <v>1574</v>
+        <v>2715</v>
       </c>
       <c r="AK30" s="13">
-        <v>2715</v>
+        <v>1654</v>
       </c>
       <c r="AL30" s="13">
-        <v>1654</v>
+        <v>2204</v>
       </c>
       <c r="AM30" s="13">
-        <v>2204</v>
+        <v>2353</v>
       </c>
       <c r="AN30" s="13">
-        <v>2353</v>
+        <v>2789</v>
       </c>
       <c r="AO30" s="13">
-        <v>2789</v>
+        <v>2843</v>
       </c>
       <c r="AP30" s="13">
-        <v>2843</v>
+        <v>2415</v>
       </c>
       <c r="AQ30" s="13">
-        <v>2415</v>
+        <v>1805</v>
       </c>
       <c r="AR30" s="13">
-        <v>1805</v>
+        <v>1672</v>
       </c>
       <c r="AS30" s="13">
-        <v>1672</v>
+        <v>2561</v>
       </c>
       <c r="AT30" s="13">
-        <v>2561</v>
+        <v>1748</v>
       </c>
       <c r="AU30" s="13">
-        <v>1748</v>
+        <v>3506</v>
       </c>
       <c r="AV30" s="13">
-        <v>3506</v>
+        <v>1668</v>
       </c>
       <c r="AW30" s="13">
-        <v>1668</v>
+        <v>668</v>
       </c>
       <c r="AX30" s="13">
-        <v>668</v>
+        <v>1279</v>
       </c>
       <c r="AY30" s="13">
-        <v>1279</v>
+        <v>2975</v>
       </c>
       <c r="AZ30" s="13">
-        <v>2975</v>
+        <v>549</v>
       </c>
       <c r="BA30" s="13">
-        <v>549</v>
+        <v>230</v>
       </c>
       <c r="BB30" s="13">
-        <v>230</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4613,35 +4613,35 @@
       <c r="Y31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Z31" s="11">
+        <v>1356</v>
       </c>
       <c r="AA31" s="11">
-        <v>1356</v>
+        <v>4274</v>
       </c>
       <c r="AB31" s="11">
-        <v>4274</v>
+        <v>4182</v>
       </c>
       <c r="AC31" s="11">
-        <v>4182</v>
+        <v>3639</v>
       </c>
       <c r="AD31" s="11">
-        <v>3639</v>
+        <v>3199</v>
       </c>
       <c r="AE31" s="11">
-        <v>3199</v>
+        <v>3661</v>
       </c>
       <c r="AF31" s="11">
-        <v>3661</v>
+        <v>4235</v>
       </c>
       <c r="AG31" s="11">
-        <v>4235</v>
+        <v>3472</v>
       </c>
       <c r="AH31" s="11">
-        <v>3472</v>
-      </c>
-      <c r="AI31" s="11">
         <v>2998</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>58</v>
@@ -4799,65 +4799,65 @@
       <c r="AH32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ32" s="13">
+      <c r="AI32" s="13">
         <v>289</v>
       </c>
+      <c r="AJ32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL32" s="13" t="s">
-        <v>58</v>
+      <c r="AL32" s="13">
+        <v>88</v>
       </c>
       <c r="AM32" s="13">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AN32" s="13">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="AO32" s="13">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="13">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AQ32" s="13">
-        <v>74</v>
-      </c>
-      <c r="AR32" s="13">
         <v>75</v>
       </c>
-      <c r="AS32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>11</v>
       </c>
       <c r="AT32" s="13">
+        <v>27</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>166</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>-13</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="13">
+        <v>25</v>
+      </c>
+      <c r="AY32" s="13">
         <v>11</v>
-      </c>
-      <c r="AU32" s="13">
-        <v>27</v>
-      </c>
-      <c r="AV32" s="13">
-        <v>286</v>
-      </c>
-      <c r="AW32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="13">
-        <v>25</v>
       </c>
       <c r="AZ32" s="13">
         <v>11</v>
       </c>
       <c r="BA32" s="13">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="BB32" s="13">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4958,65 +4958,65 @@
       <c r="AH33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="11">
+      <c r="AI33" s="11">
         <v>2157</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AJ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>1001</v>
       </c>
       <c r="AL33" s="11">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="AM33" s="11">
-        <v>860</v>
+        <v>1494</v>
       </c>
       <c r="AN33" s="11">
-        <v>1494</v>
+        <v>1552</v>
       </c>
       <c r="AO33" s="11">
-        <v>1552</v>
+        <v>638</v>
       </c>
       <c r="AP33" s="11">
-        <v>638</v>
+        <v>993</v>
       </c>
       <c r="AQ33" s="11">
-        <v>993</v>
+        <v>660</v>
       </c>
       <c r="AR33" s="11">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="AS33" s="11">
-        <v>574</v>
+        <v>1008</v>
       </c>
       <c r="AT33" s="11">
-        <v>1008</v>
+        <v>234</v>
       </c>
       <c r="AU33" s="11">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AV33" s="11">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="AW33" s="11">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="AX33" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AY33" s="11">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="AZ33" s="11">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="BA33" s="11">
-        <v>291</v>
+        <v>900</v>
       </c>
       <c r="BB33" s="11">
-        <v>900</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -5132,26 +5132,26 @@
       <c r="AM34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="13">
+      <c r="AN34" s="13">
         <v>43</v>
       </c>
-      <c r="AP34" s="13" t="s">
-        <v>58</v>
+      <c r="AO34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>4</v>
       </c>
       <c r="AQ34" s="13">
-        <v>4</v>
-      </c>
-      <c r="AR34" s="13">
         <v>6</v>
       </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>-2</v>
       </c>
       <c r="AT34" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13" t="s">
         <v>58</v>
@@ -5276,11 +5276,11 @@
       <c r="AH35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>0</v>
+      <c r="AI35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK35" s="11" t="s">
         <v>58</v>
@@ -5291,26 +5291,26 @@
       <c r="AM35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO35" s="11">
+      <c r="AN35" s="11">
         <v>20</v>
       </c>
-      <c r="AP35" s="11" t="s">
-        <v>58</v>
+      <c r="AO35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>3</v>
       </c>
       <c r="AQ35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AR35" s="11">
         <v>2</v>
       </c>
-      <c r="AS35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT35" s="11" t="s">
-        <v>58</v>
+      <c r="AR35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="11">
+        <v>0</v>
       </c>
       <c r="AU35" s="11" t="s">
         <v>58</v>
@@ -5327,8 +5327,8 @@
       <c r="AY35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ35" s="11" t="s">
-        <v>58</v>
+      <c r="AZ35" s="11">
+        <v>0</v>
       </c>
       <c r="BA35" s="11">
         <v>0</v>
@@ -5435,65 +5435,65 @@
       <c r="AH36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI36" s="13" t="s">
-        <v>58</v>
+      <c r="AI36" s="13">
+        <v>20270</v>
       </c>
       <c r="AJ36" s="13">
-        <v>20270</v>
+        <v>8864</v>
       </c>
       <c r="AK36" s="13">
-        <v>8864</v>
+        <v>19042</v>
       </c>
       <c r="AL36" s="13">
-        <v>19042</v>
+        <v>16552</v>
       </c>
       <c r="AM36" s="13">
-        <v>16552</v>
+        <v>18089</v>
       </c>
       <c r="AN36" s="13">
-        <v>18089</v>
+        <v>19128</v>
       </c>
       <c r="AO36" s="13">
-        <v>19128</v>
+        <v>29285</v>
       </c>
       <c r="AP36" s="13">
-        <v>29285</v>
+        <v>16229</v>
       </c>
       <c r="AQ36" s="13">
-        <v>16229</v>
+        <v>14225</v>
       </c>
       <c r="AR36" s="13">
-        <v>14225</v>
+        <v>13088</v>
       </c>
       <c r="AS36" s="13">
-        <v>13088</v>
+        <v>19758</v>
       </c>
       <c r="AT36" s="13">
-        <v>19758</v>
+        <v>14911</v>
       </c>
       <c r="AU36" s="13">
-        <v>14911</v>
+        <v>16342</v>
       </c>
       <c r="AV36" s="13">
-        <v>16342</v>
+        <v>15942</v>
       </c>
       <c r="AW36" s="13">
-        <v>15942</v>
+        <v>15934</v>
       </c>
       <c r="AX36" s="13">
-        <v>15934</v>
+        <v>14760</v>
       </c>
       <c r="AY36" s="13">
-        <v>14760</v>
+        <v>17072</v>
       </c>
       <c r="AZ36" s="13">
-        <v>17072</v>
+        <v>14182</v>
       </c>
       <c r="BA36" s="13">
-        <v>14182</v>
+        <v>15129</v>
       </c>
       <c r="BB36" s="13">
-        <v>15129</v>
+        <v>18301</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5594,11 +5594,11 @@
       <c r="AH37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
+      <c r="AI37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="11" t="s">
         <v>58</v>
@@ -5609,11 +5609,11 @@
       <c r="AM37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>0</v>
+      <c r="AN37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP37" s="11" t="s">
         <v>58</v>
@@ -5624,11 +5624,11 @@
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
+      <c r="AS37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="11">
+        <v>0</v>
       </c>
       <c r="AU37" s="11" t="s">
         <v>58</v>
@@ -5725,91 +5725,91 @@
         <v>0</v>
       </c>
       <c r="Z38" s="17">
-        <v>0</v>
+        <v>30020</v>
       </c>
       <c r="AA38" s="17">
-        <v>30020</v>
+        <v>44475</v>
       </c>
       <c r="AB38" s="17">
-        <v>44475</v>
+        <v>38204</v>
       </c>
       <c r="AC38" s="17">
-        <v>38204</v>
+        <v>48454</v>
       </c>
       <c r="AD38" s="17">
-        <v>48454</v>
+        <v>42166</v>
       </c>
       <c r="AE38" s="17">
-        <v>42166</v>
+        <v>39980</v>
       </c>
       <c r="AF38" s="17">
-        <v>39980</v>
+        <v>40205</v>
       </c>
       <c r="AG38" s="17">
-        <v>40205</v>
+        <v>33108</v>
       </c>
       <c r="AH38" s="17">
-        <v>33108</v>
+        <v>31047</v>
       </c>
       <c r="AI38" s="17">
-        <v>31047</v>
+        <v>44647</v>
       </c>
       <c r="AJ38" s="17">
-        <v>44647</v>
+        <v>29876</v>
       </c>
       <c r="AK38" s="17">
-        <v>29876</v>
+        <v>35350</v>
       </c>
       <c r="AL38" s="17">
-        <v>35350</v>
+        <v>43067</v>
       </c>
       <c r="AM38" s="17">
-        <v>43067</v>
+        <v>37410</v>
       </c>
       <c r="AN38" s="17">
-        <v>37410</v>
+        <v>47072</v>
       </c>
       <c r="AO38" s="17">
-        <v>47072</v>
+        <v>51938</v>
       </c>
       <c r="AP38" s="17">
-        <v>51938</v>
+        <v>45686</v>
       </c>
       <c r="AQ38" s="17">
-        <v>45686</v>
+        <v>35486</v>
       </c>
       <c r="AR38" s="17">
-        <v>35486</v>
+        <v>32831</v>
       </c>
       <c r="AS38" s="17">
-        <v>32831</v>
+        <v>41586</v>
       </c>
       <c r="AT38" s="17">
-        <v>42700</v>
+        <v>38442</v>
       </c>
       <c r="AU38" s="17">
-        <v>38442</v>
+        <v>42869</v>
       </c>
       <c r="AV38" s="17">
-        <v>42989</v>
+        <v>41566</v>
       </c>
       <c r="AW38" s="17">
-        <v>41579</v>
+        <v>38932</v>
       </c>
       <c r="AX38" s="17">
-        <v>38932</v>
+        <v>41113</v>
       </c>
       <c r="AY38" s="17">
-        <v>41113</v>
+        <v>34209</v>
       </c>
       <c r="AZ38" s="17">
-        <v>34209</v>
+        <v>27109</v>
       </c>
       <c r="BA38" s="17">
-        <v>27109</v>
+        <v>36921</v>
       </c>
       <c r="BB38" s="17">
-        <v>36921</v>
+        <v>39649</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5938,8 +5938,8 @@
       <c r="Y40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z40" s="15" t="s">
-        <v>58</v>
+      <c r="Z40" s="15">
+        <v>0</v>
       </c>
       <c r="AA40" s="15">
         <v>0</v>
@@ -6096,91 +6096,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="17">
-        <v>0</v>
+        <v>45059</v>
       </c>
       <c r="AA41" s="17">
-        <v>45059</v>
+        <v>67699</v>
       </c>
       <c r="AB41" s="17">
-        <v>67699</v>
+        <v>58702</v>
       </c>
       <c r="AC41" s="17">
-        <v>58702</v>
+        <v>71228</v>
       </c>
       <c r="AD41" s="17">
-        <v>71228</v>
+        <v>64114</v>
       </c>
       <c r="AE41" s="17">
-        <v>64114</v>
+        <v>61117</v>
       </c>
       <c r="AF41" s="17">
-        <v>61117</v>
+        <v>55616</v>
       </c>
       <c r="AG41" s="17">
-        <v>55616</v>
+        <v>56253</v>
       </c>
       <c r="AH41" s="17">
-        <v>56253</v>
+        <v>51873</v>
       </c>
       <c r="AI41" s="17">
-        <v>51873</v>
+        <v>73829</v>
       </c>
       <c r="AJ41" s="17">
-        <v>73829</v>
+        <v>46703</v>
       </c>
       <c r="AK41" s="17">
-        <v>46703</v>
+        <v>65575</v>
       </c>
       <c r="AL41" s="17">
-        <v>65575</v>
+        <v>78770</v>
       </c>
       <c r="AM41" s="17">
-        <v>78770</v>
+        <v>70292</v>
       </c>
       <c r="AN41" s="17">
-        <v>70292</v>
+        <v>63543</v>
       </c>
       <c r="AO41" s="17">
-        <v>63543</v>
+        <v>75687</v>
       </c>
       <c r="AP41" s="17">
-        <v>75687</v>
+        <v>71381</v>
       </c>
       <c r="AQ41" s="17">
-        <v>71381</v>
+        <v>58110</v>
       </c>
       <c r="AR41" s="17">
-        <v>58110</v>
+        <v>55054</v>
       </c>
       <c r="AS41" s="17">
-        <v>55054</v>
+        <v>64780</v>
       </c>
       <c r="AT41" s="17">
-        <v>64829</v>
+        <v>53017</v>
       </c>
       <c r="AU41" s="17">
-        <v>53017</v>
+        <v>60515</v>
       </c>
       <c r="AV41" s="17">
-        <v>60635</v>
+        <v>60363</v>
       </c>
       <c r="AW41" s="17">
-        <v>60376</v>
+        <v>60491</v>
       </c>
       <c r="AX41" s="17">
-        <v>60491</v>
+        <v>57441</v>
       </c>
       <c r="AY41" s="17">
-        <v>57441</v>
+        <v>56804</v>
       </c>
       <c r="AZ41" s="17">
-        <v>56804</v>
+        <v>55304</v>
       </c>
       <c r="BA41" s="17">
-        <v>55304</v>
+        <v>64595</v>
       </c>
       <c r="BB41" s="17">
-        <v>64595</v>
+        <v>61322</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -6688,68 +6688,68 @@
       <c r="Y48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z48" s="11" t="s">
-        <v>58</v>
+      <c r="Z48" s="11">
+        <v>32</v>
       </c>
       <c r="AA48" s="11">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="AB48" s="11">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="AC48" s="11">
-        <v>527</v>
+        <v>346</v>
       </c>
       <c r="AD48" s="11">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="AE48" s="11">
-        <v>399</v>
+        <v>237</v>
       </c>
       <c r="AF48" s="11">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="AG48" s="11">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="AH48" s="11">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ48" s="11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="AK48" s="11">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AL48" s="11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AM48" s="11">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AN48" s="11">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AO48" s="11">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="AP48" s="11">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="AQ48" s="11">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="AR48" s="11">
-        <v>110</v>
-      </c>
-      <c r="AS48" s="11">
         <v>80</v>
       </c>
-      <c r="AT48" s="11">
-        <v>51</v>
+      <c r="AS48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU48" s="11" t="s">
         <v>58</v>
@@ -6847,35 +6847,35 @@
       <c r="Y49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="13" t="s">
-        <v>58</v>
+      <c r="Z49" s="13">
+        <v>17730</v>
       </c>
       <c r="AA49" s="13">
-        <v>17730</v>
+        <v>17885</v>
       </c>
       <c r="AB49" s="13">
-        <v>17885</v>
+        <v>20634</v>
       </c>
       <c r="AC49" s="13">
-        <v>20634</v>
+        <v>19274</v>
       </c>
       <c r="AD49" s="13">
-        <v>19274</v>
+        <v>15894</v>
       </c>
       <c r="AE49" s="13">
-        <v>15894</v>
+        <v>17910</v>
       </c>
       <c r="AF49" s="13">
-        <v>17910</v>
+        <v>17648</v>
       </c>
       <c r="AG49" s="13">
-        <v>17648</v>
+        <v>20763</v>
       </c>
       <c r="AH49" s="13">
-        <v>20763</v>
-      </c>
-      <c r="AI49" s="13">
         <v>19829</v>
+      </c>
+      <c r="AI49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ49" s="13" t="s">
         <v>58</v>
@@ -7033,65 +7033,65 @@
       <c r="AH50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI50" s="11" t="s">
-        <v>58</v>
+      <c r="AI50" s="11">
+        <v>3973</v>
       </c>
       <c r="AJ50" s="11">
-        <v>3973</v>
+        <v>4481</v>
       </c>
       <c r="AK50" s="11">
-        <v>4481</v>
+        <v>9170</v>
       </c>
       <c r="AL50" s="11">
-        <v>9170</v>
+        <v>7474</v>
       </c>
       <c r="AM50" s="11">
-        <v>7474</v>
+        <v>6475</v>
       </c>
       <c r="AN50" s="11">
-        <v>6475</v>
+        <v>7932</v>
       </c>
       <c r="AO50" s="11">
-        <v>7932</v>
+        <v>5965</v>
       </c>
       <c r="AP50" s="11">
-        <v>5965</v>
+        <v>4899</v>
       </c>
       <c r="AQ50" s="11">
-        <v>4899</v>
+        <v>10347</v>
       </c>
       <c r="AR50" s="11">
-        <v>10347</v>
+        <v>5649</v>
       </c>
       <c r="AS50" s="11">
-        <v>5649</v>
+        <v>6452</v>
       </c>
       <c r="AT50" s="11">
-        <v>6453</v>
+        <v>3659</v>
       </c>
       <c r="AU50" s="11">
-        <v>3659</v>
+        <v>1804</v>
       </c>
       <c r="AV50" s="11">
-        <v>1804</v>
+        <v>5309</v>
       </c>
       <c r="AW50" s="11">
-        <v>5309</v>
+        <v>5872</v>
       </c>
       <c r="AX50" s="11">
-        <v>5872</v>
+        <v>5234</v>
       </c>
       <c r="AY50" s="11">
-        <v>5234</v>
+        <v>6437</v>
       </c>
       <c r="AZ50" s="11">
-        <v>6437</v>
+        <v>7065</v>
       </c>
       <c r="BA50" s="11">
-        <v>7065</v>
+        <v>5909</v>
       </c>
       <c r="BB50" s="11">
-        <v>5909</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7192,65 +7192,65 @@
       <c r="AH51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI51" s="13" t="s">
-        <v>58</v>
+      <c r="AI51" s="13">
+        <v>841</v>
       </c>
       <c r="AJ51" s="13">
-        <v>841</v>
+        <v>784</v>
       </c>
       <c r="AK51" s="13">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="AL51" s="13">
-        <v>813</v>
+        <v>1811</v>
       </c>
       <c r="AM51" s="13">
-        <v>1811</v>
+        <v>649</v>
       </c>
       <c r="AN51" s="13">
-        <v>649</v>
+        <v>982</v>
       </c>
       <c r="AO51" s="13">
-        <v>982</v>
+        <v>45</v>
       </c>
       <c r="AP51" s="13">
+        <v>593</v>
+      </c>
+      <c r="AQ51" s="13">
         <v>45</v>
       </c>
-      <c r="AQ51" s="13">
-        <v>593</v>
-      </c>
       <c r="AR51" s="13">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AS51" s="13">
-        <v>456</v>
-      </c>
-      <c r="AT51" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="13">
+        <v>457</v>
       </c>
       <c r="AU51" s="13">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="AV51" s="13">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="AW51" s="13">
-        <v>274</v>
+        <v>526</v>
       </c>
       <c r="AX51" s="13">
-        <v>526</v>
+        <v>708</v>
       </c>
       <c r="AY51" s="13">
-        <v>708</v>
+        <v>321</v>
       </c>
       <c r="AZ51" s="13">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="BA51" s="13">
-        <v>253</v>
+        <v>765</v>
       </c>
       <c r="BB51" s="13">
-        <v>765</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7324,92 +7324,92 @@
       <c r="Y52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="11" t="s">
-        <v>58</v>
+      <c r="Z52" s="11">
+        <v>63</v>
       </c>
       <c r="AA52" s="11">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="AB52" s="11">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="AC52" s="11">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="AD52" s="11">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="AE52" s="11">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AF52" s="11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AG52" s="11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AH52" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AI52" s="11">
+        <v>106</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>77</v>
+      </c>
+      <c r="AK52" s="11">
+        <v>150</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>110</v>
+      </c>
+      <c r="AM52" s="11">
+        <v>13</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>2</v>
+      </c>
+      <c r="AO52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="11">
+        <v>31</v>
+      </c>
+      <c r="AR52" s="11">
+        <v>40</v>
+      </c>
+      <c r="AS52" s="11">
+        <v>75</v>
+      </c>
+      <c r="AT52" s="11">
+        <v>119</v>
+      </c>
+      <c r="AU52" s="11">
+        <v>14</v>
+      </c>
+      <c r="AV52" s="11">
+        <v>51</v>
+      </c>
+      <c r="AW52" s="11">
         <v>12</v>
       </c>
-      <c r="AJ52" s="11">
-        <v>106</v>
-      </c>
-      <c r="AK52" s="11">
-        <v>77</v>
-      </c>
-      <c r="AL52" s="11">
-        <v>150</v>
-      </c>
-      <c r="AM52" s="11">
-        <v>110</v>
-      </c>
-      <c r="AN52" s="11">
-        <v>13</v>
-      </c>
-      <c r="AO52" s="11">
+      <c r="AX52" s="11">
+        <v>4</v>
+      </c>
+      <c r="AY52" s="11">
         <v>2</v>
       </c>
-      <c r="AP52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>31</v>
-      </c>
-      <c r="AS52" s="11">
-        <v>40</v>
-      </c>
-      <c r="AT52" s="11">
-        <v>75</v>
-      </c>
-      <c r="AU52" s="11">
-        <v>119</v>
-      </c>
-      <c r="AV52" s="11">
-        <v>14</v>
-      </c>
-      <c r="AW52" s="11">
-        <v>51</v>
-      </c>
-      <c r="AX52" s="11">
-        <v>12</v>
-      </c>
-      <c r="AY52" s="11">
-        <v>4</v>
-      </c>
       <c r="AZ52" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BB52" s="11">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7540,35 +7540,35 @@
       <c r="AR53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT53" s="13" t="s">
-        <v>58</v>
+      <c r="AS53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="13">
+        <v>0</v>
       </c>
       <c r="AU53" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV53" s="13">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AW53" s="13">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AX53" s="13">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AY53" s="13">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AZ53" s="13">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="BA53" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB53" s="13">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7669,65 +7669,65 @@
       <c r="AH54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI54" s="11" t="s">
-        <v>58</v>
+      <c r="AI54" s="11">
+        <v>570</v>
       </c>
       <c r="AJ54" s="11">
-        <v>570</v>
+        <v>1259</v>
       </c>
       <c r="AK54" s="11">
-        <v>1259</v>
+        <v>2144</v>
       </c>
       <c r="AL54" s="11">
-        <v>2144</v>
+        <v>899</v>
       </c>
       <c r="AM54" s="11">
-        <v>899</v>
+        <v>305</v>
       </c>
       <c r="AN54" s="11">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="AO54" s="11">
-        <v>414</v>
+        <v>928</v>
       </c>
       <c r="AP54" s="11">
-        <v>928</v>
+        <v>1168</v>
       </c>
       <c r="AQ54" s="11">
-        <v>1168</v>
+        <v>2161</v>
       </c>
       <c r="AR54" s="11">
-        <v>2161</v>
+        <v>2118</v>
       </c>
       <c r="AS54" s="11">
-        <v>2118</v>
+        <v>1936</v>
       </c>
       <c r="AT54" s="11">
-        <v>1936</v>
+        <v>1443</v>
       </c>
       <c r="AU54" s="11">
-        <v>1443</v>
+        <v>845</v>
       </c>
       <c r="AV54" s="11">
-        <v>845</v>
+        <v>2247</v>
       </c>
       <c r="AW54" s="11">
-        <v>2247</v>
+        <v>2889</v>
       </c>
       <c r="AX54" s="11">
-        <v>2889</v>
+        <v>2150</v>
       </c>
       <c r="AY54" s="11">
-        <v>2150</v>
+        <v>1299</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1299</v>
+        <v>1623</v>
       </c>
       <c r="BA54" s="11">
-        <v>1623</v>
+        <v>569</v>
       </c>
       <c r="BB54" s="11">
-        <v>569</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7801,35 +7801,35 @@
       <c r="Y55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="13" t="s">
-        <v>58</v>
+      <c r="Z55" s="13">
+        <v>4298</v>
       </c>
       <c r="AA55" s="13">
-        <v>4298</v>
+        <v>2044</v>
       </c>
       <c r="AB55" s="13">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="AC55" s="13">
-        <v>1534</v>
+        <v>1567</v>
       </c>
       <c r="AD55" s="13">
-        <v>1567</v>
+        <v>1742</v>
       </c>
       <c r="AE55" s="13">
-        <v>1742</v>
+        <v>1484</v>
       </c>
       <c r="AF55" s="13">
-        <v>1484</v>
+        <v>2034</v>
       </c>
       <c r="AG55" s="13">
-        <v>2034</v>
+        <v>2302</v>
       </c>
       <c r="AH55" s="13">
-        <v>2302</v>
-      </c>
-      <c r="AI55" s="13">
         <v>1919</v>
+      </c>
+      <c r="AI55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ55" s="13" t="s">
         <v>58</v>
@@ -7987,65 +7987,65 @@
       <c r="AH56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI56" s="11" t="s">
-        <v>58</v>
+      <c r="AI56" s="11">
+        <v>4996</v>
       </c>
       <c r="AJ56" s="11">
-        <v>4996</v>
+        <v>6577</v>
       </c>
       <c r="AK56" s="11">
-        <v>6577</v>
+        <v>8009</v>
       </c>
       <c r="AL56" s="11">
-        <v>8009</v>
+        <v>6522</v>
       </c>
       <c r="AM56" s="11">
-        <v>6522</v>
+        <v>5648</v>
       </c>
       <c r="AN56" s="11">
-        <v>5648</v>
+        <v>6202</v>
       </c>
       <c r="AO56" s="11">
-        <v>6202</v>
+        <v>4808</v>
       </c>
       <c r="AP56" s="11">
-        <v>4808</v>
+        <v>4575</v>
       </c>
       <c r="AQ56" s="11">
+        <v>4833</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>4784</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>4510</v>
+      </c>
+      <c r="AT56" s="11">
+        <v>5124</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>1894</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>3620</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>6670</v>
+      </c>
+      <c r="AX56" s="11">
         <v>4575</v>
       </c>
-      <c r="AR56" s="11">
-        <v>4833</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>4784</v>
-      </c>
-      <c r="AT56" s="11">
-        <v>4510</v>
-      </c>
-      <c r="AU56" s="11">
-        <v>5124</v>
-      </c>
-      <c r="AV56" s="11">
-        <v>1894</v>
-      </c>
-      <c r="AW56" s="11">
-        <v>3620</v>
-      </c>
-      <c r="AX56" s="11">
-        <v>6670</v>
-      </c>
       <c r="AY56" s="11">
-        <v>4575</v>
+        <v>5554</v>
       </c>
       <c r="AZ56" s="11">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="BA56" s="11">
-        <v>6887</v>
+        <v>4678</v>
       </c>
       <c r="BB56" s="11">
-        <v>4678</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8146,65 +8146,65 @@
       <c r="AH57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI57" s="13" t="s">
-        <v>58</v>
+      <c r="AI57" s="13">
+        <v>4075</v>
       </c>
       <c r="AJ57" s="13">
-        <v>4075</v>
+        <v>5072</v>
       </c>
       <c r="AK57" s="13">
-        <v>5072</v>
+        <v>5346</v>
       </c>
       <c r="AL57" s="13">
-        <v>5346</v>
+        <v>3345</v>
       </c>
       <c r="AM57" s="13">
-        <v>3345</v>
+        <v>3558</v>
       </c>
       <c r="AN57" s="13">
-        <v>3558</v>
+        <v>3458</v>
       </c>
       <c r="AO57" s="13">
-        <v>3458</v>
+        <v>3923</v>
       </c>
       <c r="AP57" s="13">
-        <v>3923</v>
+        <v>4826</v>
       </c>
       <c r="AQ57" s="13">
-        <v>4826</v>
+        <v>4709</v>
       </c>
       <c r="AR57" s="13">
-        <v>4709</v>
+        <v>4764</v>
       </c>
       <c r="AS57" s="13">
-        <v>4764</v>
+        <v>4462</v>
       </c>
       <c r="AT57" s="13">
-        <v>4462</v>
+        <v>4302</v>
       </c>
       <c r="AU57" s="13">
-        <v>4302</v>
+        <v>2123</v>
       </c>
       <c r="AV57" s="13">
-        <v>2123</v>
+        <v>3896</v>
       </c>
       <c r="AW57" s="13">
-        <v>3896</v>
+        <v>4557</v>
       </c>
       <c r="AX57" s="13">
-        <v>4557</v>
+        <v>4095</v>
       </c>
       <c r="AY57" s="13">
-        <v>4095</v>
+        <v>4494</v>
       </c>
       <c r="AZ57" s="13">
-        <v>4494</v>
+        <v>6712</v>
       </c>
       <c r="BA57" s="13">
-        <v>6712</v>
+        <v>4729</v>
       </c>
       <c r="BB57" s="13">
-        <v>4729</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8305,65 +8305,65 @@
       <c r="AH58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI58" s="11" t="s">
-        <v>58</v>
+      <c r="AI58" s="11">
+        <v>1700</v>
       </c>
       <c r="AJ58" s="11">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AK58" s="11">
-        <v>2767</v>
+        <v>2447</v>
       </c>
       <c r="AL58" s="11">
-        <v>2447</v>
+        <v>2083</v>
       </c>
       <c r="AM58" s="11">
-        <v>2083</v>
+        <v>1526</v>
       </c>
       <c r="AN58" s="11">
-        <v>1526</v>
+        <v>2760</v>
       </c>
       <c r="AO58" s="11">
-        <v>2760</v>
+        <v>2354</v>
       </c>
       <c r="AP58" s="11">
-        <v>2354</v>
+        <v>1953</v>
       </c>
       <c r="AQ58" s="11">
-        <v>1953</v>
+        <v>1754</v>
       </c>
       <c r="AR58" s="11">
-        <v>1754</v>
+        <v>1623</v>
       </c>
       <c r="AS58" s="11">
-        <v>1623</v>
+        <v>1772</v>
       </c>
       <c r="AT58" s="11">
-        <v>1772</v>
+        <v>2203</v>
       </c>
       <c r="AU58" s="11">
+        <v>1055</v>
+      </c>
+      <c r="AV58" s="11">
         <v>2203</v>
       </c>
-      <c r="AV58" s="11">
-        <v>1055</v>
-      </c>
       <c r="AW58" s="11">
-        <v>2203</v>
+        <v>2498</v>
       </c>
       <c r="AX58" s="11">
-        <v>2498</v>
+        <v>1590</v>
       </c>
       <c r="AY58" s="11">
-        <v>1590</v>
+        <v>1816</v>
       </c>
       <c r="AZ58" s="11">
-        <v>1816</v>
+        <v>1628</v>
       </c>
       <c r="BA58" s="11">
-        <v>1628</v>
+        <v>1351</v>
       </c>
       <c r="BB58" s="11">
-        <v>1351</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8464,65 +8464,65 @@
       <c r="AH59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI59" s="13" t="s">
-        <v>58</v>
+      <c r="AI59" s="13">
+        <v>790</v>
       </c>
       <c r="AJ59" s="13">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="AK59" s="13">
-        <v>853</v>
+        <v>998</v>
       </c>
       <c r="AL59" s="13">
+        <v>433</v>
+      </c>
+      <c r="AM59" s="13">
+        <v>575</v>
+      </c>
+      <c r="AN59" s="13">
+        <v>826</v>
+      </c>
+      <c r="AO59" s="13">
+        <v>590</v>
+      </c>
+      <c r="AP59" s="13">
+        <v>580</v>
+      </c>
+      <c r="AQ59" s="13">
+        <v>816</v>
+      </c>
+      <c r="AR59" s="13">
+        <v>505</v>
+      </c>
+      <c r="AS59" s="13">
+        <v>577</v>
+      </c>
+      <c r="AT59" s="13">
+        <v>567</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>418</v>
+      </c>
+      <c r="AV59" s="13">
+        <v>979</v>
+      </c>
+      <c r="AW59" s="13">
         <v>998</v>
       </c>
-      <c r="AM59" s="13">
-        <v>433</v>
-      </c>
-      <c r="AN59" s="13">
-        <v>575</v>
-      </c>
-      <c r="AO59" s="13">
-        <v>826</v>
-      </c>
-      <c r="AP59" s="13">
-        <v>590</v>
-      </c>
-      <c r="AQ59" s="13">
-        <v>580</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>816</v>
-      </c>
-      <c r="AS59" s="13">
-        <v>505</v>
-      </c>
-      <c r="AT59" s="13">
-        <v>577</v>
-      </c>
-      <c r="AU59" s="13">
-        <v>567</v>
-      </c>
-      <c r="AV59" s="13">
-        <v>418</v>
-      </c>
-      <c r="AW59" s="13">
-        <v>979</v>
-      </c>
       <c r="AX59" s="13">
-        <v>998</v>
+        <v>346</v>
       </c>
       <c r="AY59" s="13">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="AZ59" s="13">
-        <v>267</v>
+        <v>984</v>
       </c>
       <c r="BA59" s="13">
-        <v>984</v>
+        <v>565</v>
       </c>
       <c r="BB59" s="13">
-        <v>565</v>
+        <v>773</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8623,65 +8623,65 @@
       <c r="AH60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI60" s="11" t="s">
-        <v>58</v>
+      <c r="AI60" s="11">
+        <v>1920</v>
       </c>
       <c r="AJ60" s="11">
-        <v>1920</v>
+        <v>2497</v>
       </c>
       <c r="AK60" s="11">
-        <v>2497</v>
+        <v>2329</v>
       </c>
       <c r="AL60" s="11">
-        <v>2329</v>
+        <v>3156</v>
       </c>
       <c r="AM60" s="11">
-        <v>3156</v>
+        <v>1487</v>
       </c>
       <c r="AN60" s="11">
-        <v>1487</v>
+        <v>722</v>
       </c>
       <c r="AO60" s="11">
-        <v>722</v>
+        <v>679</v>
       </c>
       <c r="AP60" s="11">
-        <v>679</v>
+        <v>1039</v>
       </c>
       <c r="AQ60" s="11">
-        <v>1039</v>
+        <v>1731</v>
       </c>
       <c r="AR60" s="11">
-        <v>1731</v>
+        <v>987</v>
       </c>
       <c r="AS60" s="11">
-        <v>987</v>
+        <v>25</v>
       </c>
       <c r="AT60" s="11">
-        <v>25</v>
+        <v>695</v>
       </c>
       <c r="AU60" s="11">
-        <v>695</v>
+        <v>924</v>
       </c>
       <c r="AV60" s="11">
-        <v>924</v>
+        <v>1355</v>
       </c>
       <c r="AW60" s="11">
-        <v>1355</v>
+        <v>1937</v>
       </c>
       <c r="AX60" s="11">
-        <v>1937</v>
+        <v>798</v>
       </c>
       <c r="AY60" s="11">
-        <v>798</v>
+        <v>883</v>
       </c>
       <c r="AZ60" s="11">
-        <v>883</v>
+        <v>3478</v>
       </c>
       <c r="BA60" s="11">
-        <v>3478</v>
+        <v>4549</v>
       </c>
       <c r="BB60" s="11">
-        <v>4549</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8782,41 +8782,41 @@
       <c r="AH61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="13" t="s">
-        <v>58</v>
+      <c r="AI61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK61" s="13">
+        <v>501</v>
       </c>
       <c r="AL61" s="13">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AM61" s="13">
-        <v>483</v>
-      </c>
-      <c r="AN61" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ61" s="13">
-        <v>0</v>
+      <c r="AP61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT61" s="13" t="s">
-        <v>58</v>
+      <c r="AS61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="13">
+        <v>0</v>
       </c>
       <c r="AU61" s="13" t="s">
         <v>58</v>
@@ -8913,91 +8913,91 @@
         <v>0</v>
       </c>
       <c r="Z62" s="15">
-        <v>0</v>
+        <v>22123</v>
       </c>
       <c r="AA62" s="15">
-        <v>22123</v>
+        <v>20051</v>
       </c>
       <c r="AB62" s="15">
-        <v>20051</v>
+        <v>22854</v>
       </c>
       <c r="AC62" s="15">
-        <v>22854</v>
+        <v>21253</v>
       </c>
       <c r="AD62" s="15">
-        <v>21253</v>
+        <v>18045</v>
       </c>
       <c r="AE62" s="15">
-        <v>18045</v>
+        <v>19677</v>
       </c>
       <c r="AF62" s="15">
-        <v>19677</v>
+        <v>19809</v>
       </c>
       <c r="AG62" s="15">
+        <v>23118</v>
+      </c>
+      <c r="AH62" s="15">
+        <v>21761</v>
+      </c>
+      <c r="AI62" s="15">
+        <v>18977</v>
+      </c>
+      <c r="AJ62" s="15">
+        <v>24400</v>
+      </c>
+      <c r="AK62" s="15">
+        <v>31917</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>26370</v>
+      </c>
+      <c r="AM62" s="15">
+        <v>20381</v>
+      </c>
+      <c r="AN62" s="15">
+        <v>23857</v>
+      </c>
+      <c r="AO62" s="15">
+        <v>19549</v>
+      </c>
+      <c r="AP62" s="15">
+        <v>20044</v>
+      </c>
+      <c r="AQ62" s="15">
+        <v>26537</v>
+      </c>
+      <c r="AR62" s="15">
+        <v>21006</v>
+      </c>
+      <c r="AS62" s="15">
         <v>19809</v>
       </c>
-      <c r="AH62" s="15">
-        <v>23118</v>
-      </c>
-      <c r="AI62" s="15">
-        <v>21761</v>
-      </c>
-      <c r="AJ62" s="15">
-        <v>18977</v>
-      </c>
-      <c r="AK62" s="15">
-        <v>24400</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>31917</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>26370</v>
-      </c>
-      <c r="AN62" s="15">
-        <v>20381</v>
-      </c>
-      <c r="AO62" s="15">
-        <v>23857</v>
-      </c>
-      <c r="AP62" s="15">
-        <v>19549</v>
-      </c>
-      <c r="AQ62" s="15">
-        <v>20044</v>
-      </c>
-      <c r="AR62" s="15">
-        <v>26537</v>
-      </c>
-      <c r="AS62" s="15">
-        <v>21006</v>
-      </c>
       <c r="AT62" s="15">
-        <v>19861</v>
+        <v>18569</v>
       </c>
       <c r="AU62" s="15">
-        <v>18569</v>
+        <v>9435</v>
       </c>
       <c r="AV62" s="15">
-        <v>9435</v>
+        <v>19999</v>
       </c>
       <c r="AW62" s="15">
-        <v>19999</v>
+        <v>26067</v>
       </c>
       <c r="AX62" s="15">
-        <v>26067</v>
+        <v>19820</v>
       </c>
       <c r="AY62" s="15">
-        <v>19820</v>
+        <v>21233</v>
       </c>
       <c r="AZ62" s="15">
-        <v>21233</v>
+        <v>28653</v>
       </c>
       <c r="BA62" s="15">
-        <v>28653</v>
+        <v>23159</v>
       </c>
       <c r="BB62" s="15">
-        <v>23159</v>
+        <v>23026</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -9128,35 +9128,35 @@
       <c r="Y64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="11" t="s">
-        <v>58</v>
+      <c r="Z64" s="11">
+        <v>41374</v>
       </c>
       <c r="AA64" s="11">
-        <v>41374</v>
+        <v>32304</v>
       </c>
       <c r="AB64" s="11">
-        <v>32304</v>
+        <v>38415</v>
       </c>
       <c r="AC64" s="11">
-        <v>38415</v>
+        <v>42649</v>
       </c>
       <c r="AD64" s="11">
-        <v>42649</v>
+        <v>32087</v>
       </c>
       <c r="AE64" s="11">
-        <v>32087</v>
+        <v>33146</v>
       </c>
       <c r="AF64" s="11">
-        <v>33146</v>
+        <v>45278</v>
       </c>
       <c r="AG64" s="11">
-        <v>45278</v>
+        <v>26689</v>
       </c>
       <c r="AH64" s="11">
-        <v>26689</v>
-      </c>
-      <c r="AI64" s="11">
         <v>30884</v>
+      </c>
+      <c r="AI64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ64" s="11" t="s">
         <v>58</v>
@@ -9314,65 +9314,65 @@
       <c r="AH65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="13" t="s">
-        <v>58</v>
+      <c r="AI65" s="13">
+        <v>13393</v>
       </c>
       <c r="AJ65" s="13">
-        <v>13393</v>
+        <v>14362</v>
       </c>
       <c r="AK65" s="13">
-        <v>14362</v>
+        <v>12542</v>
       </c>
       <c r="AL65" s="13">
-        <v>12542</v>
+        <v>14328</v>
       </c>
       <c r="AM65" s="13">
-        <v>14328</v>
+        <v>18454</v>
       </c>
       <c r="AN65" s="13">
-        <v>18454</v>
+        <v>31133</v>
       </c>
       <c r="AO65" s="13">
-        <v>31133</v>
+        <v>14414</v>
       </c>
       <c r="AP65" s="13">
-        <v>14414</v>
+        <v>11380</v>
       </c>
       <c r="AQ65" s="13">
-        <v>11380</v>
+        <v>11246</v>
       </c>
       <c r="AR65" s="13">
-        <v>11246</v>
+        <v>14541</v>
       </c>
       <c r="AS65" s="13">
-        <v>14541</v>
+        <v>12492</v>
       </c>
       <c r="AT65" s="13">
-        <v>15973</v>
+        <v>23339</v>
       </c>
       <c r="AU65" s="13">
-        <v>23339</v>
+        <v>6104</v>
       </c>
       <c r="AV65" s="13">
-        <v>6104</v>
+        <v>21826</v>
       </c>
       <c r="AW65" s="13">
-        <v>21826</v>
+        <v>36309</v>
       </c>
       <c r="AX65" s="13">
-        <v>36309</v>
+        <v>29178</v>
       </c>
       <c r="AY65" s="13">
-        <v>29178</v>
+        <v>19184</v>
       </c>
       <c r="AZ65" s="13">
-        <v>19184</v>
+        <v>15747</v>
       </c>
       <c r="BA65" s="13">
-        <v>15747</v>
+        <v>10521</v>
       </c>
       <c r="BB65" s="13">
-        <v>10521</v>
+        <v>14913</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -9473,65 +9473,65 @@
       <c r="AH66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI66" s="11" t="s">
-        <v>58</v>
+      <c r="AI66" s="11">
+        <v>198</v>
       </c>
       <c r="AJ66" s="11">
-        <v>198</v>
+        <v>1372</v>
       </c>
       <c r="AK66" s="11">
-        <v>1372</v>
+        <v>1126</v>
       </c>
       <c r="AL66" s="11">
-        <v>1126</v>
+        <v>739</v>
       </c>
       <c r="AM66" s="11">
-        <v>739</v>
+        <v>1960</v>
       </c>
       <c r="AN66" s="11">
-        <v>1960</v>
+        <v>919</v>
       </c>
       <c r="AO66" s="11">
-        <v>919</v>
+        <v>1566</v>
       </c>
       <c r="AP66" s="11">
-        <v>1566</v>
+        <v>769</v>
       </c>
       <c r="AQ66" s="11">
-        <v>769</v>
+        <v>2418</v>
       </c>
       <c r="AR66" s="11">
-        <v>2418</v>
+        <v>1327</v>
       </c>
       <c r="AS66" s="11">
-        <v>1327</v>
+        <v>1243</v>
       </c>
       <c r="AT66" s="11">
-        <v>1243</v>
+        <v>505</v>
       </c>
       <c r="AU66" s="11">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="AV66" s="11">
-        <v>393</v>
+        <v>1412</v>
       </c>
       <c r="AW66" s="11">
-        <v>1412</v>
+        <v>503</v>
       </c>
       <c r="AX66" s="11">
-        <v>503</v>
+        <v>116</v>
       </c>
       <c r="AY66" s="11">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="AZ66" s="11">
-        <v>46</v>
+        <v>467</v>
       </c>
       <c r="BA66" s="11">
-        <v>467</v>
+        <v>1124</v>
       </c>
       <c r="BB66" s="11">
-        <v>1124</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9632,65 +9632,65 @@
       <c r="AH67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI67" s="13" t="s">
-        <v>58</v>
+      <c r="AI67" s="13">
+        <v>954</v>
       </c>
       <c r="AJ67" s="13">
-        <v>954</v>
+        <v>2522</v>
       </c>
       <c r="AK67" s="13">
-        <v>2522</v>
+        <v>1967</v>
       </c>
       <c r="AL67" s="13">
-        <v>1967</v>
+        <v>1327</v>
       </c>
       <c r="AM67" s="13">
-        <v>1327</v>
+        <v>3414</v>
       </c>
       <c r="AN67" s="13">
-        <v>3414</v>
+        <v>3654</v>
       </c>
       <c r="AO67" s="13">
-        <v>3654</v>
+        <v>1645</v>
       </c>
       <c r="AP67" s="13">
-        <v>1645</v>
+        <v>2657</v>
       </c>
       <c r="AQ67" s="13">
-        <v>2657</v>
+        <v>2096</v>
       </c>
       <c r="AR67" s="13">
-        <v>2096</v>
+        <v>990</v>
       </c>
       <c r="AS67" s="13">
-        <v>990</v>
+        <v>2519</v>
       </c>
       <c r="AT67" s="13">
-        <v>2519</v>
+        <v>1246</v>
       </c>
       <c r="AU67" s="13">
-        <v>1246</v>
+        <v>1637</v>
       </c>
       <c r="AV67" s="13">
-        <v>1637</v>
+        <v>1805</v>
       </c>
       <c r="AW67" s="13">
-        <v>1805</v>
+        <v>675</v>
       </c>
       <c r="AX67" s="13">
-        <v>675</v>
+        <v>1984</v>
       </c>
       <c r="AY67" s="13">
-        <v>1984</v>
+        <v>3558</v>
       </c>
       <c r="AZ67" s="13">
-        <v>3558</v>
+        <v>1682</v>
       </c>
       <c r="BA67" s="13">
-        <v>1682</v>
+        <v>2214</v>
       </c>
       <c r="BB67" s="13">
-        <v>2214</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9764,35 +9764,35 @@
       <c r="Y68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z68" s="11" t="s">
-        <v>58</v>
+      <c r="Z68" s="11">
+        <v>2593</v>
       </c>
       <c r="AA68" s="11">
-        <v>2593</v>
+        <v>4887</v>
       </c>
       <c r="AB68" s="11">
-        <v>4887</v>
+        <v>4342</v>
       </c>
       <c r="AC68" s="11">
-        <v>4342</v>
+        <v>3175</v>
       </c>
       <c r="AD68" s="11">
-        <v>3175</v>
+        <v>2627</v>
       </c>
       <c r="AE68" s="11">
-        <v>2627</v>
+        <v>3718</v>
       </c>
       <c r="AF68" s="11">
-        <v>3718</v>
+        <v>3825</v>
       </c>
       <c r="AG68" s="11">
-        <v>3825</v>
+        <v>5943</v>
       </c>
       <c r="AH68" s="11">
-        <v>5943</v>
-      </c>
-      <c r="AI68" s="11">
         <v>2479</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ68" s="11" t="s">
         <v>58</v>
@@ -9950,65 +9950,65 @@
       <c r="AH69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ69" s="13">
+      <c r="AI69" s="13">
         <v>222</v>
       </c>
+      <c r="AJ69" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL69" s="13" t="s">
-        <v>58</v>
+      <c r="AL69" s="13">
+        <v>44</v>
       </c>
       <c r="AM69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="13">
+        <v>335</v>
+      </c>
+      <c r="AO69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS69" s="13">
+        <v>22</v>
+      </c>
+      <c r="AT69" s="13">
         <v>44</v>
       </c>
-      <c r="AN69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO69" s="13">
-        <v>335</v>
-      </c>
-      <c r="AP69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT69" s="13">
+      <c r="AU69" s="13">
+        <v>157</v>
+      </c>
+      <c r="AV69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="13">
         <v>22</v>
       </c>
-      <c r="AU69" s="13">
+      <c r="AY69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="13">
         <v>44</v>
       </c>
-      <c r="AV69" s="13">
-        <v>157</v>
-      </c>
-      <c r="AW69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY69" s="13">
-        <v>22</v>
-      </c>
-      <c r="AZ69" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA69" s="13">
-        <v>0</v>
-      </c>
       <c r="BB69" s="13">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -10109,65 +10109,65 @@
       <c r="AH70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI70" s="11" t="s">
-        <v>58</v>
+      <c r="AI70" s="11">
+        <v>1205</v>
       </c>
       <c r="AJ70" s="11">
-        <v>1205</v>
+        <v>863</v>
       </c>
       <c r="AK70" s="11">
-        <v>863</v>
+        <v>1251</v>
       </c>
       <c r="AL70" s="11">
-        <v>1251</v>
+        <v>367</v>
       </c>
       <c r="AM70" s="11">
-        <v>367</v>
+        <v>1522</v>
       </c>
       <c r="AN70" s="11">
-        <v>1522</v>
+        <v>1896</v>
       </c>
       <c r="AO70" s="11">
-        <v>1896</v>
+        <v>301</v>
       </c>
       <c r="AP70" s="11">
-        <v>301</v>
+        <v>684</v>
       </c>
       <c r="AQ70" s="11">
-        <v>684</v>
+        <v>886</v>
       </c>
       <c r="AR70" s="11">
-        <v>886</v>
+        <v>328</v>
       </c>
       <c r="AS70" s="11">
-        <v>328</v>
+        <v>1042</v>
       </c>
       <c r="AT70" s="11">
-        <v>1042</v>
+        <v>383</v>
       </c>
       <c r="AU70" s="11">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="AV70" s="11">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="AW70" s="11">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AX70" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="AY70" s="11">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="AZ70" s="11">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="BA70" s="11">
-        <v>300</v>
+        <v>786</v>
       </c>
       <c r="BB70" s="11">
-        <v>786</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10283,12 +10283,12 @@
       <c r="AM71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO71" s="13">
+      <c r="AN71" s="13">
         <v>43</v>
       </c>
+      <c r="AO71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP71" s="13" t="s">
         <v>58</v>
       </c>
@@ -10298,11 +10298,11 @@
       <c r="AR71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT71" s="13" t="s">
-        <v>58</v>
+      <c r="AS71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="13">
+        <v>0</v>
       </c>
       <c r="AU71" s="13" t="s">
         <v>58</v>
@@ -10427,11 +10427,11 @@
       <c r="AH72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ72" s="11">
-        <v>0</v>
+      <c r="AI72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK72" s="11" t="s">
         <v>58</v>
@@ -10442,12 +10442,12 @@
       <c r="AM72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO72" s="11">
+      <c r="AN72" s="11">
         <v>22</v>
       </c>
+      <c r="AO72" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP72" s="11" t="s">
         <v>58</v>
       </c>
@@ -10457,11 +10457,11 @@
       <c r="AR72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" s="11" t="s">
-        <v>58</v>
+      <c r="AS72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="11">
+        <v>0</v>
       </c>
       <c r="AU72" s="11" t="s">
         <v>58</v>
@@ -10478,8 +10478,8 @@
       <c r="AY72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ72" s="11" t="s">
-        <v>58</v>
+      <c r="AZ72" s="11">
+        <v>0</v>
       </c>
       <c r="BA72" s="11">
         <v>0</v>
@@ -10586,65 +10586,65 @@
       <c r="AH73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI73" s="13" t="s">
-        <v>58</v>
+      <c r="AI73" s="13">
+        <v>14961</v>
       </c>
       <c r="AJ73" s="13">
-        <v>14961</v>
+        <v>19469</v>
       </c>
       <c r="AK73" s="13">
-        <v>19469</v>
+        <v>20100</v>
       </c>
       <c r="AL73" s="13">
-        <v>20100</v>
+        <v>17935</v>
       </c>
       <c r="AM73" s="13">
-        <v>17935</v>
+        <v>21371</v>
       </c>
       <c r="AN73" s="13">
-        <v>21371</v>
+        <v>15801</v>
       </c>
       <c r="AO73" s="13">
-        <v>15801</v>
+        <v>24325</v>
       </c>
       <c r="AP73" s="13">
-        <v>24325</v>
+        <v>21206</v>
       </c>
       <c r="AQ73" s="13">
-        <v>21206</v>
+        <v>14014</v>
       </c>
       <c r="AR73" s="13">
-        <v>14014</v>
+        <v>7868</v>
       </c>
       <c r="AS73" s="13">
-        <v>7868</v>
+        <v>16559</v>
       </c>
       <c r="AT73" s="13">
-        <v>16571</v>
+        <v>1488</v>
       </c>
       <c r="AU73" s="13">
-        <v>1488</v>
+        <v>21032</v>
       </c>
       <c r="AV73" s="13">
-        <v>21032</v>
+        <v>19345</v>
       </c>
       <c r="AW73" s="13">
-        <v>19345</v>
+        <v>14338</v>
       </c>
       <c r="AX73" s="13">
-        <v>14338</v>
+        <v>16103</v>
       </c>
       <c r="AY73" s="13">
-        <v>16103</v>
+        <v>13982</v>
       </c>
       <c r="AZ73" s="13">
-        <v>13982</v>
+        <v>18717</v>
       </c>
       <c r="BA73" s="13">
-        <v>18717</v>
+        <v>12823</v>
       </c>
       <c r="BB73" s="13">
-        <v>12823</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10745,11 +10745,11 @@
       <c r="AH74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ74" s="11">
-        <v>0</v>
+      <c r="AI74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK74" s="11" t="s">
         <v>58</v>
@@ -10760,11 +10760,11 @@
       <c r="AM74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO74" s="11">
-        <v>0</v>
+      <c r="AN74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP74" s="11" t="s">
         <v>58</v>
@@ -10775,11 +10775,11 @@
       <c r="AR74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT74" s="11" t="s">
-        <v>58</v>
+      <c r="AS74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="11">
+        <v>0</v>
       </c>
       <c r="AU74" s="11" t="s">
         <v>58</v>
@@ -10876,91 +10876,91 @@
         <v>0</v>
       </c>
       <c r="Z75" s="17">
-        <v>0</v>
+        <v>43967</v>
       </c>
       <c r="AA75" s="17">
-        <v>43967</v>
+        <v>37191</v>
       </c>
       <c r="AB75" s="17">
-        <v>37191</v>
+        <v>42757</v>
       </c>
       <c r="AC75" s="17">
-        <v>42757</v>
+        <v>45824</v>
       </c>
       <c r="AD75" s="17">
-        <v>45824</v>
+        <v>34714</v>
       </c>
       <c r="AE75" s="17">
-        <v>34714</v>
+        <v>36864</v>
       </c>
       <c r="AF75" s="17">
-        <v>36864</v>
+        <v>49103</v>
       </c>
       <c r="AG75" s="17">
-        <v>49103</v>
+        <v>32632</v>
       </c>
       <c r="AH75" s="17">
-        <v>32632</v>
+        <v>33363</v>
       </c>
       <c r="AI75" s="17">
-        <v>33363</v>
+        <v>30933</v>
       </c>
       <c r="AJ75" s="17">
-        <v>30933</v>
+        <v>38588</v>
       </c>
       <c r="AK75" s="17">
-        <v>38588</v>
+        <v>36986</v>
       </c>
       <c r="AL75" s="17">
-        <v>36986</v>
+        <v>34740</v>
       </c>
       <c r="AM75" s="17">
-        <v>34740</v>
+        <v>46721</v>
       </c>
       <c r="AN75" s="17">
-        <v>46721</v>
+        <v>53803</v>
       </c>
       <c r="AO75" s="17">
-        <v>53803</v>
+        <v>42251</v>
       </c>
       <c r="AP75" s="17">
-        <v>42251</v>
+        <v>36696</v>
       </c>
       <c r="AQ75" s="17">
-        <v>36696</v>
+        <v>30660</v>
       </c>
       <c r="AR75" s="17">
-        <v>30660</v>
+        <v>25054</v>
       </c>
       <c r="AS75" s="17">
-        <v>25054</v>
+        <v>33877</v>
       </c>
       <c r="AT75" s="17">
-        <v>37370</v>
+        <v>27005</v>
       </c>
       <c r="AU75" s="17">
-        <v>27005</v>
+        <v>29555</v>
       </c>
       <c r="AV75" s="17">
-        <v>29555</v>
+        <v>44574</v>
       </c>
       <c r="AW75" s="17">
-        <v>44574</v>
+        <v>52032</v>
       </c>
       <c r="AX75" s="17">
-        <v>52032</v>
+        <v>47562</v>
       </c>
       <c r="AY75" s="17">
-        <v>47562</v>
+        <v>36792</v>
       </c>
       <c r="AZ75" s="17">
-        <v>36792</v>
+        <v>36913</v>
       </c>
       <c r="BA75" s="17">
-        <v>36913</v>
+        <v>27512</v>
       </c>
       <c r="BB75" s="17">
-        <v>27512</v>
+        <v>41039</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -11089,8 +11089,8 @@
       <c r="Y77" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="15" t="s">
-        <v>58</v>
+      <c r="Z77" s="15">
+        <v>0</v>
       </c>
       <c r="AA77" s="15">
         <v>0</v>
@@ -11335,53 +11335,53 @@
       <c r="AI79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ79" s="11" t="s">
-        <v>58</v>
+      <c r="AJ79" s="11">
+        <v>-4</v>
       </c>
       <c r="AK79" s="11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AL79" s="11">
-        <v>-6</v>
-      </c>
-      <c r="AM79" s="11">
         <v>-1</v>
       </c>
-      <c r="AN79" s="11" t="s">
-        <v>58</v>
+      <c r="AM79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="11">
+        <v>-4581</v>
       </c>
       <c r="AO79" s="11">
-        <v>-4581</v>
-      </c>
-      <c r="AP79" s="11">
         <v>-15</v>
       </c>
-      <c r="AQ79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR79" s="11">
+      <c r="AP79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ79" s="11">
         <v>-9</v>
       </c>
-      <c r="AS79" s="11" t="s">
-        <v>58</v>
+      <c r="AR79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>-43</v>
       </c>
       <c r="AT79" s="11">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AU79" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AV79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW79" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="11">
+        <v>-5</v>
       </c>
       <c r="AX79" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AY79" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ79" s="11" t="s">
         <v>58</v>
@@ -11389,8 +11389,8 @@
       <c r="BA79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB79" s="11" t="s">
-        <v>58</v>
+      <c r="BB79" s="11">
+        <v>-7</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -11464,14 +11464,14 @@
       <c r="Y80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>58</v>
+      <c r="Z80" s="13">
+        <v>-20</v>
       </c>
       <c r="AA80" s="13">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB80" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="13">
         <v>0</v>
@@ -11480,19 +11480,19 @@
         <v>0</v>
       </c>
       <c r="AE80" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AF80" s="13">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AG80" s="13">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AH80" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AI80" s="13">
         <v>-8</v>
+      </c>
+      <c r="AI80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ80" s="13" t="s">
         <v>58</v>
@@ -11621,80 +11621,80 @@
       <c r="Y81" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z81" s="15" t="s">
-        <v>58</v>
+      <c r="Z81" s="15">
+        <v>-20</v>
       </c>
       <c r="AA81" s="15">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="15">
+        <v>-21</v>
+      </c>
+      <c r="AF81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="15">
+        <v>-23</v>
+      </c>
+      <c r="AH81" s="15">
+        <v>-8</v>
+      </c>
+      <c r="AI81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AK81" s="15">
+        <v>-6</v>
+      </c>
+      <c r="AL81" s="15">
         <v>-1</v>
       </c>
-      <c r="AC81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="15">
-        <v>-21</v>
-      </c>
-      <c r="AG81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH81" s="15">
-        <v>-23</v>
-      </c>
-      <c r="AI81" s="15">
-        <v>-8</v>
-      </c>
-      <c r="AJ81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK81" s="15">
-        <v>-4</v>
-      </c>
-      <c r="AL81" s="15">
-        <v>-6</v>
-      </c>
       <c r="AM81" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="15">
-        <v>0</v>
+        <v>-4581</v>
       </c>
       <c r="AO81" s="15">
-        <v>-4581</v>
+        <v>-15</v>
       </c>
       <c r="AP81" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="15">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AR81" s="15">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="15">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AT81" s="15">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AU81" s="15">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="15">
         <v>0</v>
       </c>
       <c r="AW81" s="15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AX81" s="15">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="15">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="BB81" s="15">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11779,91 +11779,91 @@
         <v>0</v>
       </c>
       <c r="Z82" s="17">
-        <v>0</v>
+        <v>66070</v>
       </c>
       <c r="AA82" s="17">
-        <v>66070</v>
+        <v>57241</v>
       </c>
       <c r="AB82" s="17">
-        <v>57241</v>
+        <v>65611</v>
       </c>
       <c r="AC82" s="17">
-        <v>65611</v>
+        <v>67077</v>
       </c>
       <c r="AD82" s="17">
-        <v>67077</v>
+        <v>52759</v>
       </c>
       <c r="AE82" s="17">
-        <v>52759</v>
+        <v>56520</v>
       </c>
       <c r="AF82" s="17">
-        <v>56520</v>
+        <v>68912</v>
       </c>
       <c r="AG82" s="17">
-        <v>68912</v>
+        <v>55727</v>
       </c>
       <c r="AH82" s="17">
-        <v>55727</v>
+        <v>55116</v>
       </c>
       <c r="AI82" s="17">
-        <v>55116</v>
+        <v>49910</v>
       </c>
       <c r="AJ82" s="17">
-        <v>49910</v>
+        <v>62984</v>
       </c>
       <c r="AK82" s="17">
-        <v>62984</v>
+        <v>68897</v>
       </c>
       <c r="AL82" s="17">
-        <v>68897</v>
+        <v>61109</v>
       </c>
       <c r="AM82" s="17">
-        <v>61109</v>
+        <v>67102</v>
       </c>
       <c r="AN82" s="17">
-        <v>67102</v>
+        <v>73079</v>
       </c>
       <c r="AO82" s="17">
-        <v>73079</v>
+        <v>61785</v>
       </c>
       <c r="AP82" s="17">
-        <v>61785</v>
+        <v>56740</v>
       </c>
       <c r="AQ82" s="17">
-        <v>56740</v>
+        <v>57188</v>
       </c>
       <c r="AR82" s="17">
-        <v>57188</v>
+        <v>46060</v>
       </c>
       <c r="AS82" s="17">
-        <v>46060</v>
+        <v>53643</v>
       </c>
       <c r="AT82" s="17">
-        <v>57188</v>
+        <v>45499</v>
       </c>
       <c r="AU82" s="17">
-        <v>45499</v>
+        <v>38990</v>
       </c>
       <c r="AV82" s="17">
-        <v>38990</v>
+        <v>64573</v>
       </c>
       <c r="AW82" s="17">
-        <v>64573</v>
+        <v>78094</v>
       </c>
       <c r="AX82" s="17">
-        <v>78094</v>
+        <v>67382</v>
       </c>
       <c r="AY82" s="17">
-        <v>67382</v>
+        <v>58025</v>
       </c>
       <c r="AZ82" s="17">
-        <v>58025</v>
+        <v>65566</v>
       </c>
       <c r="BA82" s="17">
-        <v>65566</v>
+        <v>50671</v>
       </c>
       <c r="BB82" s="17">
-        <v>50671</v>
+        <v>64058</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -12371,68 +12371,68 @@
       <c r="Y89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z89" s="11" t="s">
-        <v>58</v>
+      <c r="Z89" s="11">
+        <v>3411</v>
       </c>
       <c r="AA89" s="11">
-        <v>3411</v>
+        <v>21870</v>
       </c>
       <c r="AB89" s="11">
-        <v>21870</v>
+        <v>83823</v>
       </c>
       <c r="AC89" s="11">
-        <v>83823</v>
+        <v>75112</v>
       </c>
       <c r="AD89" s="11">
-        <v>75112</v>
+        <v>84816</v>
       </c>
       <c r="AE89" s="11">
-        <v>84816</v>
+        <v>52123</v>
       </c>
       <c r="AF89" s="11">
-        <v>52123</v>
+        <v>23993</v>
       </c>
       <c r="AG89" s="11">
-        <v>23993</v>
+        <v>5966</v>
       </c>
       <c r="AH89" s="11">
-        <v>5966</v>
+        <v>140</v>
       </c>
       <c r="AI89" s="11">
-        <v>140</v>
+        <v>1181</v>
       </c>
       <c r="AJ89" s="11">
-        <v>1181</v>
+        <v>7063</v>
       </c>
       <c r="AK89" s="11">
-        <v>7063</v>
+        <v>2041</v>
       </c>
       <c r="AL89" s="11">
-        <v>2041</v>
+        <v>18102</v>
       </c>
       <c r="AM89" s="11">
-        <v>18102</v>
+        <v>51274</v>
       </c>
       <c r="AN89" s="11">
-        <v>51274</v>
+        <v>202979</v>
       </c>
       <c r="AO89" s="11">
-        <v>202979</v>
+        <v>85758</v>
       </c>
       <c r="AP89" s="11">
-        <v>85758</v>
+        <v>155250</v>
       </c>
       <c r="AQ89" s="11">
-        <v>155250</v>
+        <v>42358</v>
       </c>
       <c r="AR89" s="11">
-        <v>42358</v>
-      </c>
-      <c r="AS89" s="11">
         <v>30972</v>
       </c>
-      <c r="AT89" s="11">
-        <v>20025</v>
+      <c r="AS89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU89" s="11" t="s">
         <v>58</v>
@@ -12530,35 +12530,35 @@
       <c r="Y90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z90" s="13" t="s">
-        <v>58</v>
+      <c r="Z90" s="13">
+        <v>2006308</v>
       </c>
       <c r="AA90" s="13">
-        <v>2006308</v>
+        <v>1902720</v>
       </c>
       <c r="AB90" s="13">
-        <v>1902720</v>
+        <v>2200480</v>
       </c>
       <c r="AC90" s="13">
-        <v>2200480</v>
+        <v>2197493</v>
       </c>
       <c r="AD90" s="13">
-        <v>2197493</v>
+        <v>2191834</v>
       </c>
       <c r="AE90" s="13">
-        <v>2191834</v>
+        <v>3218373</v>
       </c>
       <c r="AF90" s="13">
-        <v>3218373</v>
+        <v>3267423</v>
       </c>
       <c r="AG90" s="13">
-        <v>3267423</v>
+        <v>3731400</v>
       </c>
       <c r="AH90" s="13">
-        <v>3731400</v>
-      </c>
-      <c r="AI90" s="13">
         <v>3716998</v>
+      </c>
+      <c r="AI90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ90" s="13" t="s">
         <v>58</v>
@@ -12716,65 +12716,65 @@
       <c r="AH91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI91" s="11" t="s">
-        <v>58</v>
+      <c r="AI91" s="11">
+        <v>798907</v>
       </c>
       <c r="AJ91" s="11">
-        <v>798907</v>
+        <v>1027952</v>
       </c>
       <c r="AK91" s="11">
-        <v>1027952</v>
+        <v>1905166</v>
       </c>
       <c r="AL91" s="11">
-        <v>1905166</v>
+        <v>1450632</v>
       </c>
       <c r="AM91" s="11">
-        <v>1450632</v>
+        <v>1271771</v>
       </c>
       <c r="AN91" s="11">
-        <v>1271771</v>
+        <v>1735887</v>
       </c>
       <c r="AO91" s="11">
-        <v>1735887</v>
+        <v>1368106</v>
       </c>
       <c r="AP91" s="11">
-        <v>1368106</v>
+        <v>1138728</v>
       </c>
       <c r="AQ91" s="11">
-        <v>1138728</v>
+        <v>2227221</v>
       </c>
       <c r="AR91" s="11">
-        <v>2227221</v>
+        <v>1282602</v>
       </c>
       <c r="AS91" s="11">
-        <v>1282602</v>
+        <v>1502739</v>
       </c>
       <c r="AT91" s="11">
-        <v>1502739</v>
+        <v>901407</v>
       </c>
       <c r="AU91" s="11">
-        <v>901407</v>
+        <v>499882</v>
       </c>
       <c r="AV91" s="11">
-        <v>499882</v>
+        <v>1463831</v>
       </c>
       <c r="AW91" s="11">
-        <v>1463831</v>
+        <v>1749063</v>
       </c>
       <c r="AX91" s="11">
-        <v>1749063</v>
+        <v>1746146</v>
       </c>
       <c r="AY91" s="11">
-        <v>1746146</v>
+        <v>2098019</v>
       </c>
       <c r="AZ91" s="11">
-        <v>2098019</v>
+        <v>1938946</v>
       </c>
       <c r="BA91" s="11">
-        <v>1938946</v>
+        <v>1501683</v>
       </c>
       <c r="BB91" s="11">
-        <v>1501683</v>
+        <v>1218369</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12875,65 +12875,65 @@
       <c r="AH92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI92" s="13" t="s">
-        <v>58</v>
+      <c r="AI92" s="13">
+        <v>118873</v>
       </c>
       <c r="AJ92" s="13">
-        <v>118873</v>
+        <v>119544</v>
       </c>
       <c r="AK92" s="13">
-        <v>119544</v>
+        <v>136697</v>
       </c>
       <c r="AL92" s="13">
-        <v>136697</v>
+        <v>289636</v>
       </c>
       <c r="AM92" s="13">
-        <v>289636</v>
+        <v>142026</v>
       </c>
       <c r="AN92" s="13">
-        <v>142026</v>
+        <v>194039</v>
       </c>
       <c r="AO92" s="13">
-        <v>194039</v>
+        <v>8890</v>
       </c>
       <c r="AP92" s="13">
-        <v>8890</v>
+        <v>142363</v>
       </c>
       <c r="AQ92" s="13">
-        <v>142363</v>
+        <v>11487</v>
       </c>
       <c r="AR92" s="13">
-        <v>11487</v>
+        <v>127553</v>
       </c>
       <c r="AS92" s="13">
-        <v>127553</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="13">
-        <v>0</v>
+        <v>127263</v>
       </c>
       <c r="AU92" s="13">
-        <v>127263</v>
+        <v>111447</v>
       </c>
       <c r="AV92" s="13">
-        <v>111447</v>
+        <v>79359</v>
       </c>
       <c r="AW92" s="13">
-        <v>79359</v>
+        <v>169836</v>
       </c>
       <c r="AX92" s="13">
-        <v>169836</v>
+        <v>227364</v>
       </c>
       <c r="AY92" s="13">
-        <v>227364</v>
+        <v>100161</v>
       </c>
       <c r="AZ92" s="13">
-        <v>100161</v>
+        <v>56647</v>
       </c>
       <c r="BA92" s="13">
-        <v>56647</v>
+        <v>162933</v>
       </c>
       <c r="BB92" s="13">
-        <v>162933</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -13007,92 +13007,92 @@
       <c r="Y93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="11" t="s">
-        <v>58</v>
+      <c r="Z93" s="11">
+        <v>6113</v>
       </c>
       <c r="AA93" s="11">
-        <v>6113</v>
+        <v>2348</v>
       </c>
       <c r="AB93" s="11">
-        <v>2348</v>
+        <v>17001</v>
       </c>
       <c r="AC93" s="11">
-        <v>17001</v>
+        <v>8003</v>
       </c>
       <c r="AD93" s="11">
-        <v>8003</v>
+        <v>1572</v>
       </c>
       <c r="AE93" s="11">
-        <v>1572</v>
+        <v>10035</v>
       </c>
       <c r="AF93" s="11">
-        <v>10035</v>
+        <v>3491</v>
       </c>
       <c r="AG93" s="11">
-        <v>3491</v>
+        <v>5748</v>
       </c>
       <c r="AH93" s="11">
-        <v>5748</v>
+        <v>2326</v>
       </c>
       <c r="AI93" s="11">
-        <v>2326</v>
+        <v>19239</v>
       </c>
       <c r="AJ93" s="11">
-        <v>19239</v>
+        <v>16987</v>
       </c>
       <c r="AK93" s="11">
-        <v>16987</v>
+        <v>33160</v>
       </c>
       <c r="AL93" s="11">
-        <v>33160</v>
+        <v>24910</v>
       </c>
       <c r="AM93" s="11">
-        <v>24910</v>
+        <v>2995</v>
       </c>
       <c r="AN93" s="11">
-        <v>2995</v>
+        <v>410</v>
       </c>
       <c r="AO93" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AP93" s="11">
         <v>0</v>
       </c>
       <c r="AQ93" s="11">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AR93" s="11">
-        <v>8537</v>
+        <v>10739</v>
       </c>
       <c r="AS93" s="11">
-        <v>10739</v>
+        <v>20053</v>
       </c>
       <c r="AT93" s="11">
-        <v>20053</v>
+        <v>32684</v>
       </c>
       <c r="AU93" s="11">
-        <v>32684</v>
+        <v>5468</v>
       </c>
       <c r="AV93" s="11">
-        <v>5468</v>
+        <v>20647</v>
       </c>
       <c r="AW93" s="11">
-        <v>20647</v>
+        <v>6018</v>
       </c>
       <c r="AX93" s="11">
-        <v>6018</v>
+        <v>1494</v>
       </c>
       <c r="AY93" s="11">
-        <v>1494</v>
+        <v>1429</v>
       </c>
       <c r="AZ93" s="11">
-        <v>1429</v>
+        <v>65</v>
       </c>
       <c r="BA93" s="11">
-        <v>65</v>
+        <v>6157</v>
       </c>
       <c r="BB93" s="11">
-        <v>6157</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13223,35 +13223,35 @@
       <c r="AR94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT94" s="13" t="s">
-        <v>58</v>
+      <c r="AS94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT94" s="13">
+        <v>73</v>
       </c>
       <c r="AU94" s="13">
-        <v>73</v>
+        <v>5787</v>
       </c>
       <c r="AV94" s="13">
-        <v>5787</v>
+        <v>22723</v>
       </c>
       <c r="AW94" s="13">
-        <v>22723</v>
+        <v>49385</v>
       </c>
       <c r="AX94" s="13">
-        <v>49385</v>
+        <v>174435</v>
       </c>
       <c r="AY94" s="13">
-        <v>174435</v>
+        <v>95500</v>
       </c>
       <c r="AZ94" s="13">
-        <v>95500</v>
+        <v>7652</v>
       </c>
       <c r="BA94" s="13">
-        <v>7652</v>
+        <v>12005</v>
       </c>
       <c r="BB94" s="13">
-        <v>12005</v>
+        <v>25648</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13352,65 +13352,65 @@
       <c r="AH95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="11" t="s">
-        <v>58</v>
+      <c r="AI95" s="11">
+        <v>86706</v>
       </c>
       <c r="AJ95" s="11">
-        <v>86706</v>
+        <v>189795</v>
       </c>
       <c r="AK95" s="11">
-        <v>189795</v>
+        <v>306838</v>
       </c>
       <c r="AL95" s="11">
-        <v>306838</v>
+        <v>153510</v>
       </c>
       <c r="AM95" s="11">
-        <v>153510</v>
+        <v>60192</v>
       </c>
       <c r="AN95" s="11">
-        <v>60192</v>
+        <v>93674</v>
       </c>
       <c r="AO95" s="11">
-        <v>93674</v>
+        <v>228603</v>
       </c>
       <c r="AP95" s="11">
-        <v>228603</v>
+        <v>312174</v>
       </c>
       <c r="AQ95" s="11">
-        <v>312174</v>
+        <v>516691</v>
       </c>
       <c r="AR95" s="11">
-        <v>516691</v>
+        <v>491045</v>
       </c>
       <c r="AS95" s="11">
-        <v>491045</v>
+        <v>488373</v>
       </c>
       <c r="AT95" s="11">
-        <v>488373</v>
+        <v>367993</v>
       </c>
       <c r="AU95" s="11">
-        <v>367993</v>
+        <v>226698</v>
       </c>
       <c r="AV95" s="11">
-        <v>226698</v>
+        <v>584850</v>
       </c>
       <c r="AW95" s="11">
-        <v>584850</v>
+        <v>751179</v>
       </c>
       <c r="AX95" s="11">
-        <v>751179</v>
+        <v>559005</v>
       </c>
       <c r="AY95" s="11">
-        <v>559005</v>
+        <v>314314</v>
       </c>
       <c r="AZ95" s="11">
-        <v>314314</v>
+        <v>332749</v>
       </c>
       <c r="BA95" s="11">
-        <v>332749</v>
+        <v>111253</v>
       </c>
       <c r="BB95" s="11">
-        <v>111253</v>
+        <v>139409</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -13484,35 +13484,35 @@
       <c r="Y96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="13" t="s">
-        <v>58</v>
+      <c r="Z96" s="13">
+        <v>210405</v>
       </c>
       <c r="AA96" s="13">
-        <v>210405</v>
+        <v>180424</v>
       </c>
       <c r="AB96" s="13">
-        <v>180424</v>
+        <v>155322</v>
       </c>
       <c r="AC96" s="13">
-        <v>155322</v>
+        <v>196290</v>
       </c>
       <c r="AD96" s="13">
-        <v>196290</v>
+        <v>241156</v>
       </c>
       <c r="AE96" s="13">
-        <v>241156</v>
+        <v>194194</v>
       </c>
       <c r="AF96" s="13">
-        <v>194194</v>
+        <v>281191</v>
       </c>
       <c r="AG96" s="13">
-        <v>281191</v>
+        <v>301233</v>
       </c>
       <c r="AH96" s="13">
-        <v>301233</v>
-      </c>
-      <c r="AI96" s="13">
         <v>277804</v>
+      </c>
+      <c r="AI96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ96" s="13" t="s">
         <v>58</v>
@@ -13670,65 +13670,65 @@
       <c r="AH97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI97" s="11" t="s">
-        <v>58</v>
+      <c r="AI97" s="11">
+        <v>961797</v>
       </c>
       <c r="AJ97" s="11">
-        <v>961797</v>
+        <v>1222296</v>
       </c>
       <c r="AK97" s="11">
-        <v>1222296</v>
+        <v>1534794</v>
       </c>
       <c r="AL97" s="11">
-        <v>1534794</v>
+        <v>1348348</v>
       </c>
       <c r="AM97" s="11">
-        <v>1348348</v>
+        <v>1505517</v>
       </c>
       <c r="AN97" s="11">
-        <v>1505517</v>
+        <v>1716580</v>
       </c>
       <c r="AO97" s="11">
-        <v>1716580</v>
+        <v>1363783</v>
       </c>
       <c r="AP97" s="11">
-        <v>1363783</v>
+        <v>1273493</v>
       </c>
       <c r="AQ97" s="11">
-        <v>1273493</v>
+        <v>1441869</v>
       </c>
       <c r="AR97" s="11">
-        <v>1441869</v>
+        <v>1361011</v>
       </c>
       <c r="AS97" s="11">
-        <v>1361011</v>
+        <v>1240558</v>
       </c>
       <c r="AT97" s="11">
-        <v>1240558</v>
+        <v>1473870</v>
       </c>
       <c r="AU97" s="11">
-        <v>1473870</v>
+        <v>580310</v>
       </c>
       <c r="AV97" s="11">
-        <v>580310</v>
+        <v>1078203</v>
       </c>
       <c r="AW97" s="11">
-        <v>1078203</v>
+        <v>2182482</v>
       </c>
       <c r="AX97" s="11">
-        <v>2182482</v>
+        <v>1597982</v>
       </c>
       <c r="AY97" s="11">
-        <v>1597982</v>
+        <v>2016372</v>
       </c>
       <c r="AZ97" s="11">
-        <v>2016372</v>
+        <v>2419135</v>
       </c>
       <c r="BA97" s="11">
-        <v>2419135</v>
+        <v>1644801</v>
       </c>
       <c r="BB97" s="11">
-        <v>1644801</v>
+        <v>1771268</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13829,65 +13829,65 @@
       <c r="AH98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI98" s="13" t="s">
-        <v>58</v>
+      <c r="AI98" s="13">
+        <v>1001312</v>
       </c>
       <c r="AJ98" s="13">
-        <v>1001312</v>
+        <v>1186065</v>
       </c>
       <c r="AK98" s="13">
-        <v>1186065</v>
+        <v>1364742</v>
       </c>
       <c r="AL98" s="13">
-        <v>1364742</v>
+        <v>920625</v>
       </c>
       <c r="AM98" s="13">
-        <v>920625</v>
+        <v>1435907</v>
       </c>
       <c r="AN98" s="13">
-        <v>1435907</v>
+        <v>1322678</v>
       </c>
       <c r="AO98" s="13">
-        <v>1322678</v>
+        <v>1501849</v>
       </c>
       <c r="AP98" s="13">
-        <v>1501849</v>
+        <v>1726354</v>
       </c>
       <c r="AQ98" s="13">
-        <v>1726354</v>
+        <v>1734352</v>
       </c>
       <c r="AR98" s="13">
-        <v>1734352</v>
+        <v>1866318</v>
       </c>
       <c r="AS98" s="13">
-        <v>1866318</v>
+        <v>1636011</v>
       </c>
       <c r="AT98" s="13">
-        <v>1636011</v>
+        <v>1677017</v>
       </c>
       <c r="AU98" s="13">
-        <v>1677017</v>
+        <v>898133</v>
       </c>
       <c r="AV98" s="13">
-        <v>898133</v>
+        <v>1709335</v>
       </c>
       <c r="AW98" s="13">
-        <v>1709335</v>
+        <v>2157671</v>
       </c>
       <c r="AX98" s="13">
-        <v>2157671</v>
+        <v>2203048</v>
       </c>
       <c r="AY98" s="13">
-        <v>2203048</v>
+        <v>2323437</v>
       </c>
       <c r="AZ98" s="13">
-        <v>2323437</v>
+        <v>3312235</v>
       </c>
       <c r="BA98" s="13">
-        <v>3312235</v>
+        <v>2252944</v>
       </c>
       <c r="BB98" s="13">
-        <v>2252944</v>
+        <v>2897003</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13988,65 +13988,65 @@
       <c r="AH99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI99" s="11" t="s">
-        <v>58</v>
+      <c r="AI99" s="11">
+        <v>414689</v>
       </c>
       <c r="AJ99" s="11">
-        <v>414689</v>
+        <v>701807</v>
       </c>
       <c r="AK99" s="11">
-        <v>701807</v>
+        <v>630462</v>
       </c>
       <c r="AL99" s="11">
-        <v>630462</v>
+        <v>548203</v>
       </c>
       <c r="AM99" s="11">
-        <v>548203</v>
+        <v>403964</v>
       </c>
       <c r="AN99" s="11">
-        <v>403964</v>
+        <v>775106</v>
       </c>
       <c r="AO99" s="11">
-        <v>775106</v>
+        <v>649521</v>
       </c>
       <c r="AP99" s="11">
-        <v>649521</v>
+        <v>632332</v>
       </c>
       <c r="AQ99" s="11">
-        <v>632332</v>
+        <v>617866</v>
       </c>
       <c r="AR99" s="11">
-        <v>617866</v>
+        <v>528351</v>
       </c>
       <c r="AS99" s="11">
-        <v>528351</v>
+        <v>586166</v>
       </c>
       <c r="AT99" s="11">
-        <v>586166</v>
+        <v>754586</v>
       </c>
       <c r="AU99" s="11">
-        <v>754586</v>
+        <v>397241</v>
       </c>
       <c r="AV99" s="11">
-        <v>397241</v>
+        <v>924724</v>
       </c>
       <c r="AW99" s="11">
-        <v>924724</v>
+        <v>1062554</v>
       </c>
       <c r="AX99" s="11">
-        <v>1062554</v>
+        <v>648397</v>
       </c>
       <c r="AY99" s="11">
-        <v>648397</v>
+        <v>755556</v>
       </c>
       <c r="AZ99" s="11">
-        <v>755556</v>
+        <v>706033</v>
       </c>
       <c r="BA99" s="11">
-        <v>706033</v>
+        <v>560827</v>
       </c>
       <c r="BB99" s="11">
-        <v>560827</v>
+        <v>773745</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -14147,65 +14147,65 @@
       <c r="AH100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI100" s="13" t="s">
-        <v>58</v>
+      <c r="AI100" s="13">
+        <v>193824</v>
       </c>
       <c r="AJ100" s="13">
-        <v>193824</v>
+        <v>216114</v>
       </c>
       <c r="AK100" s="13">
-        <v>216114</v>
+        <v>307272</v>
       </c>
       <c r="AL100" s="13">
-        <v>307272</v>
+        <v>134029</v>
       </c>
       <c r="AM100" s="13">
-        <v>134029</v>
+        <v>183420</v>
       </c>
       <c r="AN100" s="13">
-        <v>183420</v>
+        <v>248190</v>
       </c>
       <c r="AO100" s="13">
-        <v>248190</v>
+        <v>217942</v>
       </c>
       <c r="AP100" s="13">
-        <v>217942</v>
+        <v>224292</v>
       </c>
       <c r="AQ100" s="13">
-        <v>224292</v>
+        <v>309289</v>
       </c>
       <c r="AR100" s="13">
-        <v>309289</v>
+        <v>181043</v>
       </c>
       <c r="AS100" s="13">
-        <v>181043</v>
+        <v>184352</v>
       </c>
       <c r="AT100" s="13">
-        <v>184352</v>
+        <v>212206</v>
       </c>
       <c r="AU100" s="13">
-        <v>212206</v>
+        <v>198259</v>
       </c>
       <c r="AV100" s="13">
-        <v>198259</v>
+        <v>426184</v>
       </c>
       <c r="AW100" s="13">
-        <v>426184</v>
+        <v>444298</v>
       </c>
       <c r="AX100" s="13">
-        <v>444298</v>
+        <v>188180</v>
       </c>
       <c r="AY100" s="13">
-        <v>188180</v>
+        <v>162272</v>
       </c>
       <c r="AZ100" s="13">
-        <v>162272</v>
+        <v>463428</v>
       </c>
       <c r="BA100" s="13">
-        <v>463428</v>
+        <v>258955</v>
       </c>
       <c r="BB100" s="13">
-        <v>258955</v>
+        <v>363486</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14306,65 +14306,65 @@
       <c r="AH101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI101" s="11" t="s">
-        <v>58</v>
+      <c r="AI101" s="11">
+        <v>150004</v>
       </c>
       <c r="AJ101" s="11">
-        <v>150004</v>
+        <v>180250</v>
       </c>
       <c r="AK101" s="11">
-        <v>180250</v>
+        <v>151501</v>
       </c>
       <c r="AL101" s="11">
-        <v>151501</v>
+        <v>218055</v>
       </c>
       <c r="AM101" s="11">
-        <v>218055</v>
+        <v>111482</v>
       </c>
       <c r="AN101" s="11">
-        <v>111482</v>
+        <v>55333</v>
       </c>
       <c r="AO101" s="11">
-        <v>55333</v>
+        <v>59249</v>
       </c>
       <c r="AP101" s="11">
-        <v>59249</v>
+        <v>102468</v>
       </c>
       <c r="AQ101" s="11">
-        <v>102468</v>
+        <v>165410</v>
       </c>
       <c r="AR101" s="11">
-        <v>165410</v>
+        <v>99340</v>
       </c>
       <c r="AS101" s="11">
-        <v>99340</v>
+        <v>2573</v>
       </c>
       <c r="AT101" s="11">
-        <v>2573</v>
+        <v>81372</v>
       </c>
       <c r="AU101" s="11">
-        <v>81372</v>
+        <v>130645</v>
       </c>
       <c r="AV101" s="11">
-        <v>130645</v>
+        <v>204121</v>
       </c>
       <c r="AW101" s="11">
-        <v>204121</v>
+        <v>296301</v>
       </c>
       <c r="AX101" s="11">
-        <v>296301</v>
+        <v>119760</v>
       </c>
       <c r="AY101" s="11">
-        <v>119760</v>
+        <v>131528</v>
       </c>
       <c r="AZ101" s="11">
-        <v>131528</v>
+        <v>378443</v>
       </c>
       <c r="BA101" s="11">
-        <v>378443</v>
+        <v>480428</v>
       </c>
       <c r="BB101" s="11">
-        <v>480428</v>
+        <v>373045</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -14465,20 +14465,20 @@
       <c r="AH102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI102" s="13" t="s">
-        <v>58</v>
+      <c r="AI102" s="13">
+        <v>0</v>
       </c>
       <c r="AJ102" s="13">
         <v>0</v>
       </c>
       <c r="AK102" s="13">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AL102" s="13">
-        <v>65173</v>
+        <v>62725</v>
       </c>
       <c r="AM102" s="13">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AN102" s="13">
         <v>0</v>
@@ -14501,8 +14501,8 @@
       <c r="AT102" s="13">
         <v>0</v>
       </c>
-      <c r="AU102" s="13">
-        <v>0</v>
+      <c r="AU102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV102" s="13" t="s">
         <v>58</v>
@@ -14596,91 +14596,91 @@
         <v>0</v>
       </c>
       <c r="Z103" s="15">
-        <v>0</v>
+        <v>2226237</v>
       </c>
       <c r="AA103" s="15">
-        <v>2226237</v>
+        <v>2107362</v>
       </c>
       <c r="AB103" s="15">
-        <v>2107362</v>
+        <v>2456626</v>
       </c>
       <c r="AC103" s="15">
-        <v>2456626</v>
+        <v>2476898</v>
       </c>
       <c r="AD103" s="15">
-        <v>2476898</v>
+        <v>2519378</v>
       </c>
       <c r="AE103" s="15">
-        <v>2519378</v>
+        <v>3474725</v>
       </c>
       <c r="AF103" s="15">
-        <v>3474725</v>
+        <v>3576098</v>
       </c>
       <c r="AG103" s="15">
-        <v>3576098</v>
+        <v>4044347</v>
       </c>
       <c r="AH103" s="15">
-        <v>4044347</v>
+        <v>3997268</v>
       </c>
       <c r="AI103" s="15">
-        <v>3997268</v>
+        <v>3746532</v>
       </c>
       <c r="AJ103" s="15">
-        <v>3746532</v>
+        <v>4867873</v>
       </c>
       <c r="AK103" s="15">
-        <v>4867873</v>
+        <v>6437846</v>
       </c>
       <c r="AL103" s="15">
-        <v>6437846</v>
+        <v>5168775</v>
       </c>
       <c r="AM103" s="15">
-        <v>5168775</v>
+        <v>5168548</v>
       </c>
       <c r="AN103" s="15">
-        <v>5168548</v>
+        <v>6344876</v>
       </c>
       <c r="AO103" s="15">
-        <v>6344876</v>
+        <v>5483701</v>
       </c>
       <c r="AP103" s="15">
-        <v>5483701</v>
+        <v>5707454</v>
       </c>
       <c r="AQ103" s="15">
-        <v>5707454</v>
+        <v>7075080</v>
       </c>
       <c r="AR103" s="15">
-        <v>7075080</v>
+        <v>5978974</v>
       </c>
       <c r="AS103" s="15">
-        <v>5978974</v>
+        <v>5660825</v>
       </c>
       <c r="AT103" s="15">
-        <v>5680850</v>
+        <v>5628471</v>
       </c>
       <c r="AU103" s="15">
-        <v>5628471</v>
+        <v>3053870</v>
       </c>
       <c r="AV103" s="15">
-        <v>3053870</v>
+        <v>6513977</v>
       </c>
       <c r="AW103" s="15">
-        <v>6513977</v>
+        <v>8868787</v>
       </c>
       <c r="AX103" s="15">
-        <v>8868787</v>
+        <v>7465811</v>
       </c>
       <c r="AY103" s="15">
-        <v>7465811</v>
+        <v>7998588</v>
       </c>
       <c r="AZ103" s="15">
-        <v>7998588</v>
+        <v>9615333</v>
       </c>
       <c r="BA103" s="15">
-        <v>9615333</v>
+        <v>6991986</v>
       </c>
       <c r="BB103" s="15">
-        <v>6991986</v>
+        <v>7619103</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14811,35 +14811,35 @@
       <c r="Y105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="11" t="s">
-        <v>58</v>
+      <c r="Z105" s="11">
+        <v>2649272</v>
       </c>
       <c r="AA105" s="11">
-        <v>2649272</v>
+        <v>2380622</v>
       </c>
       <c r="AB105" s="11">
-        <v>2380622</v>
+        <v>3067050</v>
       </c>
       <c r="AC105" s="11">
-        <v>3067050</v>
+        <v>4532165</v>
       </c>
       <c r="AD105" s="11">
-        <v>4532165</v>
+        <v>3970304</v>
       </c>
       <c r="AE105" s="11">
-        <v>3970304</v>
+        <v>4085110</v>
       </c>
       <c r="AF105" s="11">
-        <v>4085110</v>
+        <v>4822750</v>
       </c>
       <c r="AG105" s="11">
-        <v>4822750</v>
+        <v>3569784</v>
       </c>
       <c r="AH105" s="11">
-        <v>3569784</v>
-      </c>
-      <c r="AI105" s="11">
         <v>4125637</v>
+      </c>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ105" s="11" t="s">
         <v>58</v>
@@ -14997,65 +14997,65 @@
       <c r="AH106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI106" s="13" t="s">
-        <v>58</v>
+      <c r="AI106" s="13">
+        <v>2403391</v>
       </c>
       <c r="AJ106" s="13">
-        <v>2403391</v>
+        <v>2740400</v>
       </c>
       <c r="AK106" s="13">
-        <v>2740400</v>
+        <v>2629580</v>
       </c>
       <c r="AL106" s="13">
-        <v>2629580</v>
+        <v>3143343</v>
       </c>
       <c r="AM106" s="13">
-        <v>3143343</v>
+        <v>4116018</v>
       </c>
       <c r="AN106" s="13">
-        <v>4116018</v>
+        <v>6891361</v>
       </c>
       <c r="AO106" s="13">
-        <v>6891361</v>
+        <v>3269018</v>
       </c>
       <c r="AP106" s="13">
-        <v>3269018</v>
+        <v>2468673</v>
       </c>
       <c r="AQ106" s="13">
-        <v>2468673</v>
+        <v>2410165</v>
       </c>
       <c r="AR106" s="13">
-        <v>2410165</v>
+        <v>3027855</v>
       </c>
       <c r="AS106" s="13">
-        <v>3027855</v>
+        <v>2494192</v>
       </c>
       <c r="AT106" s="13">
-        <v>3187282</v>
+        <v>4707047</v>
       </c>
       <c r="AU106" s="13">
-        <v>4707047</v>
+        <v>1699662</v>
       </c>
       <c r="AV106" s="13">
-        <v>1699662</v>
+        <v>5575024</v>
       </c>
       <c r="AW106" s="13">
-        <v>5575024</v>
+        <v>9567094</v>
       </c>
       <c r="AX106" s="13">
-        <v>9567094</v>
+        <v>8543265</v>
       </c>
       <c r="AY106" s="13">
-        <v>8543265</v>
+        <v>5718954</v>
       </c>
       <c r="AZ106" s="13">
-        <v>5718954</v>
+        <v>4164872</v>
       </c>
       <c r="BA106" s="13">
-        <v>4164872</v>
+        <v>2840623</v>
       </c>
       <c r="BB106" s="13">
-        <v>2840623</v>
+        <v>4095318</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15156,65 +15156,65 @@
       <c r="AH107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI107" s="11" t="s">
-        <v>58</v>
+      <c r="AI107" s="11">
+        <v>24717</v>
       </c>
       <c r="AJ107" s="11">
-        <v>24717</v>
+        <v>159482</v>
       </c>
       <c r="AK107" s="11">
-        <v>159482</v>
+        <v>141233</v>
       </c>
       <c r="AL107" s="11">
-        <v>141233</v>
+        <v>119851</v>
       </c>
       <c r="AM107" s="11">
-        <v>119851</v>
+        <v>293321</v>
       </c>
       <c r="AN107" s="11">
-        <v>293321</v>
+        <v>138759</v>
       </c>
       <c r="AO107" s="11">
-        <v>138759</v>
+        <v>302149</v>
       </c>
       <c r="AP107" s="11">
-        <v>302149</v>
+        <v>151483</v>
       </c>
       <c r="AQ107" s="11">
-        <v>151483</v>
+        <v>563138</v>
       </c>
       <c r="AR107" s="11">
-        <v>563138</v>
+        <v>325102</v>
       </c>
       <c r="AS107" s="11">
-        <v>325102</v>
+        <v>277470</v>
       </c>
       <c r="AT107" s="11">
-        <v>277470</v>
+        <v>114495</v>
       </c>
       <c r="AU107" s="11">
-        <v>114495</v>
+        <v>115041</v>
       </c>
       <c r="AV107" s="11">
-        <v>115041</v>
+        <v>384503</v>
       </c>
       <c r="AW107" s="11">
-        <v>384503</v>
+        <v>138700</v>
       </c>
       <c r="AX107" s="11">
-        <v>138700</v>
+        <v>34336</v>
       </c>
       <c r="AY107" s="11">
-        <v>34336</v>
+        <v>12822</v>
       </c>
       <c r="AZ107" s="11">
-        <v>12822</v>
+        <v>107753</v>
       </c>
       <c r="BA107" s="11">
-        <v>107753</v>
+        <v>249954</v>
       </c>
       <c r="BB107" s="11">
-        <v>249954</v>
+        <v>287521</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -15315,65 +15315,65 @@
       <c r="AH108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI108" s="13" t="s">
-        <v>58</v>
+      <c r="AI108" s="13">
+        <v>117278</v>
       </c>
       <c r="AJ108" s="13">
-        <v>117278</v>
+        <v>339022</v>
       </c>
       <c r="AK108" s="13">
-        <v>339022</v>
+        <v>265628</v>
       </c>
       <c r="AL108" s="13">
-        <v>265628</v>
+        <v>210656</v>
       </c>
       <c r="AM108" s="13">
-        <v>210656</v>
+        <v>590499</v>
       </c>
       <c r="AN108" s="13">
-        <v>590499</v>
+        <v>737891</v>
       </c>
       <c r="AO108" s="13">
-        <v>737891</v>
+        <v>345389</v>
       </c>
       <c r="AP108" s="13">
-        <v>345389</v>
+        <v>631956</v>
       </c>
       <c r="AQ108" s="13">
-        <v>631956</v>
+        <v>539628</v>
       </c>
       <c r="AR108" s="13">
-        <v>539628</v>
+        <v>278117</v>
       </c>
       <c r="AS108" s="13">
-        <v>278117</v>
+        <v>693225</v>
       </c>
       <c r="AT108" s="13">
-        <v>693225</v>
+        <v>286154</v>
       </c>
       <c r="AU108" s="13">
-        <v>286154</v>
+        <v>536396</v>
       </c>
       <c r="AV108" s="13">
-        <v>536396</v>
+        <v>584829</v>
       </c>
       <c r="AW108" s="13">
-        <v>584829</v>
+        <v>214459</v>
       </c>
       <c r="AX108" s="13">
-        <v>214459</v>
+        <v>579347</v>
       </c>
       <c r="AY108" s="13">
-        <v>579347</v>
+        <v>1069922</v>
       </c>
       <c r="AZ108" s="13">
-        <v>1069922</v>
+        <v>481936</v>
       </c>
       <c r="BA108" s="13">
-        <v>481936</v>
+        <v>566918</v>
       </c>
       <c r="BB108" s="13">
-        <v>566918</v>
+        <v>461425</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -15447,35 +15447,35 @@
       <c r="Y109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z109" s="11" t="s">
-        <v>58</v>
+      <c r="Z109" s="11">
+        <v>232100</v>
       </c>
       <c r="AA109" s="11">
-        <v>232100</v>
+        <v>389650</v>
       </c>
       <c r="AB109" s="11">
-        <v>389650</v>
+        <v>445775</v>
       </c>
       <c r="AC109" s="11">
-        <v>445775</v>
+        <v>415533</v>
       </c>
       <c r="AD109" s="11">
-        <v>415533</v>
+        <v>327247</v>
       </c>
       <c r="AE109" s="11">
-        <v>327247</v>
+        <v>463433</v>
       </c>
       <c r="AF109" s="11">
-        <v>463433</v>
+        <v>506472</v>
       </c>
       <c r="AG109" s="11">
-        <v>506472</v>
+        <v>836614</v>
       </c>
       <c r="AH109" s="11">
-        <v>836614</v>
-      </c>
-      <c r="AI109" s="11">
         <v>328938</v>
+      </c>
+      <c r="AI109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ109" s="11" t="s">
         <v>58</v>
@@ -15633,26 +15633,26 @@
       <c r="AH110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI110" s="13" t="s">
-        <v>58</v>
+      <c r="AI110" s="13">
+        <v>50697</v>
       </c>
       <c r="AJ110" s="13">
-        <v>50697</v>
+        <v>0</v>
       </c>
       <c r="AK110" s="13">
         <v>0</v>
       </c>
       <c r="AL110" s="13">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="AM110" s="13">
-        <v>11041</v>
+        <v>0</v>
       </c>
       <c r="AN110" s="13">
-        <v>0</v>
+        <v>92893</v>
       </c>
       <c r="AO110" s="13">
-        <v>92893</v>
+        <v>0</v>
       </c>
       <c r="AP110" s="13">
         <v>0</v>
@@ -15664,34 +15664,34 @@
         <v>0</v>
       </c>
       <c r="AS110" s="13">
-        <v>0</v>
+        <v>5977</v>
       </c>
       <c r="AT110" s="13">
-        <v>5977</v>
+        <v>11992</v>
       </c>
       <c r="AU110" s="13">
-        <v>11992</v>
+        <v>49823</v>
       </c>
       <c r="AV110" s="13">
-        <v>49823</v>
+        <v>0</v>
       </c>
       <c r="AW110" s="13">
         <v>0</v>
       </c>
       <c r="AX110" s="13">
-        <v>0</v>
+        <v>7960</v>
       </c>
       <c r="AY110" s="13">
-        <v>7960</v>
+        <v>0</v>
       </c>
       <c r="AZ110" s="13">
         <v>0</v>
       </c>
       <c r="BA110" s="13">
-        <v>0</v>
+        <v>14295</v>
       </c>
       <c r="BB110" s="13">
-        <v>14295</v>
+        <v>36031</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15792,65 +15792,65 @@
       <c r="AH111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI111" s="11" t="s">
-        <v>58</v>
+      <c r="AI111" s="11">
+        <v>223296</v>
       </c>
       <c r="AJ111" s="11">
-        <v>223296</v>
+        <v>151976</v>
       </c>
       <c r="AK111" s="11">
-        <v>151976</v>
+        <v>228558</v>
       </c>
       <c r="AL111" s="11">
-        <v>228558</v>
+        <v>85354</v>
       </c>
       <c r="AM111" s="11">
-        <v>85354</v>
+        <v>316291</v>
       </c>
       <c r="AN111" s="11">
-        <v>316291</v>
+        <v>441790</v>
       </c>
       <c r="AO111" s="11">
-        <v>441790</v>
+        <v>78823</v>
       </c>
       <c r="AP111" s="11">
-        <v>78823</v>
+        <v>179267</v>
       </c>
       <c r="AQ111" s="11">
-        <v>179267</v>
+        <v>238442</v>
       </c>
       <c r="AR111" s="11">
-        <v>238442</v>
+        <v>93444</v>
       </c>
       <c r="AS111" s="11">
-        <v>93444</v>
+        <v>275482</v>
       </c>
       <c r="AT111" s="11">
-        <v>275482</v>
+        <v>104993</v>
       </c>
       <c r="AU111" s="11">
-        <v>104993</v>
+        <v>69223</v>
       </c>
       <c r="AV111" s="11">
-        <v>69223</v>
+        <v>56843</v>
       </c>
       <c r="AW111" s="11">
-        <v>56843</v>
+        <v>66833</v>
       </c>
       <c r="AX111" s="11">
-        <v>66833</v>
+        <v>52398</v>
       </c>
       <c r="AY111" s="11">
-        <v>52398</v>
+        <v>8911</v>
       </c>
       <c r="AZ111" s="11">
-        <v>8911</v>
+        <v>101804</v>
       </c>
       <c r="BA111" s="11">
-        <v>101804</v>
+        <v>241861</v>
       </c>
       <c r="BB111" s="11">
-        <v>241861</v>
+        <v>447446</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15966,11 +15966,11 @@
       <c r="AM112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN112" s="13" t="s">
-        <v>58</v>
+      <c r="AN112" s="13">
+        <v>10895</v>
       </c>
       <c r="AO112" s="13">
-        <v>10895</v>
+        <v>0</v>
       </c>
       <c r="AP112" s="13">
         <v>0</v>
@@ -15987,8 +15987,8 @@
       <c r="AT112" s="13">
         <v>0</v>
       </c>
-      <c r="AU112" s="13">
-        <v>0</v>
+      <c r="AU112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV112" s="13" t="s">
         <v>58</v>
@@ -16110,8 +16110,8 @@
       <c r="AH113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI113" s="11" t="s">
-        <v>58</v>
+      <c r="AI113" s="11">
+        <v>0</v>
       </c>
       <c r="AJ113" s="11">
         <v>0</v>
@@ -16126,10 +16126,10 @@
         <v>0</v>
       </c>
       <c r="AN113" s="11">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AO113" s="11">
-        <v>5443</v>
+        <v>0</v>
       </c>
       <c r="AP113" s="11">
         <v>0</v>
@@ -16146,8 +16146,8 @@
       <c r="AT113" s="11">
         <v>0</v>
       </c>
-      <c r="AU113" s="11">
-        <v>0</v>
+      <c r="AU113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV113" s="11" t="s">
         <v>58</v>
@@ -16161,8 +16161,8 @@
       <c r="AY113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ113" s="11" t="s">
-        <v>58</v>
+      <c r="AZ113" s="11">
+        <v>0</v>
       </c>
       <c r="BA113" s="11">
         <v>0</v>
@@ -16269,65 +16269,65 @@
       <c r="AH114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI114" s="13" t="s">
-        <v>58</v>
+      <c r="AI114" s="13">
+        <v>985765</v>
       </c>
       <c r="AJ114" s="13">
-        <v>985765</v>
+        <v>1319977</v>
       </c>
       <c r="AK114" s="13">
-        <v>1319977</v>
+        <v>1382703</v>
       </c>
       <c r="AL114" s="13">
-        <v>1382703</v>
+        <v>1370069</v>
       </c>
       <c r="AM114" s="13">
-        <v>1370069</v>
+        <v>1594481</v>
       </c>
       <c r="AN114" s="13">
-        <v>1594481</v>
+        <v>1323649</v>
       </c>
       <c r="AO114" s="13">
-        <v>1323649</v>
+        <v>2306240</v>
       </c>
       <c r="AP114" s="13">
-        <v>2306240</v>
+        <v>1914762</v>
       </c>
       <c r="AQ114" s="13">
-        <v>1914762</v>
+        <v>1288154</v>
       </c>
       <c r="AR114" s="13">
-        <v>1288154</v>
+        <v>768633</v>
       </c>
       <c r="AS114" s="13">
-        <v>768633</v>
+        <v>1781475</v>
       </c>
       <c r="AT114" s="13">
-        <v>1757550</v>
+        <v>168168</v>
       </c>
       <c r="AU114" s="13">
-        <v>168168</v>
+        <v>3148058</v>
       </c>
       <c r="AV114" s="13">
-        <v>3148058</v>
+        <v>2682384</v>
       </c>
       <c r="AW114" s="13">
-        <v>2682384</v>
+        <v>1990059</v>
       </c>
       <c r="AX114" s="13">
-        <v>1990059</v>
+        <v>1934285</v>
       </c>
       <c r="AY114" s="13">
-        <v>1934285</v>
+        <v>1619667</v>
       </c>
       <c r="AZ114" s="13">
-        <v>1619667</v>
+        <v>1664246</v>
       </c>
       <c r="BA114" s="13">
-        <v>1664246</v>
+        <v>1132691</v>
       </c>
       <c r="BB114" s="13">
-        <v>1132691</v>
+        <v>1936538</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -16428,8 +16428,8 @@
       <c r="AH115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI115" s="11" t="s">
-        <v>58</v>
+      <c r="AI115" s="11">
+        <v>0</v>
       </c>
       <c r="AJ115" s="11">
         <v>0</v>
@@ -16464,8 +16464,8 @@
       <c r="AT115" s="11">
         <v>0</v>
       </c>
-      <c r="AU115" s="11">
-        <v>0</v>
+      <c r="AU115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV115" s="11" t="s">
         <v>58</v>
@@ -16559,91 +16559,91 @@
         <v>0</v>
       </c>
       <c r="Z116" s="17">
-        <v>0</v>
+        <v>2881372</v>
       </c>
       <c r="AA116" s="17">
-        <v>2881372</v>
+        <v>2770272</v>
       </c>
       <c r="AB116" s="17">
-        <v>2770272</v>
+        <v>3512825</v>
       </c>
       <c r="AC116" s="17">
-        <v>3512825</v>
+        <v>4947698</v>
       </c>
       <c r="AD116" s="17">
-        <v>4947698</v>
+        <v>4297551</v>
       </c>
       <c r="AE116" s="17">
-        <v>4297551</v>
+        <v>4548543</v>
       </c>
       <c r="AF116" s="17">
-        <v>4548543</v>
+        <v>5329222</v>
       </c>
       <c r="AG116" s="17">
-        <v>5329222</v>
+        <v>4406398</v>
       </c>
       <c r="AH116" s="17">
-        <v>4406398</v>
+        <v>4454575</v>
       </c>
       <c r="AI116" s="17">
-        <v>4454575</v>
+        <v>3805144</v>
       </c>
       <c r="AJ116" s="17">
-        <v>3805144</v>
+        <v>4710857</v>
       </c>
       <c r="AK116" s="17">
-        <v>4710857</v>
+        <v>4647702</v>
       </c>
       <c r="AL116" s="17">
-        <v>4647702</v>
+        <v>4940314</v>
       </c>
       <c r="AM116" s="17">
-        <v>4940314</v>
+        <v>6910610</v>
       </c>
       <c r="AN116" s="17">
-        <v>6910610</v>
+        <v>9642681</v>
       </c>
       <c r="AO116" s="17">
-        <v>9642681</v>
+        <v>6301619</v>
       </c>
       <c r="AP116" s="17">
-        <v>6301619</v>
+        <v>5346141</v>
       </c>
       <c r="AQ116" s="17">
-        <v>5346141</v>
+        <v>5039527</v>
       </c>
       <c r="AR116" s="17">
-        <v>5039527</v>
+        <v>4493151</v>
       </c>
       <c r="AS116" s="17">
-        <v>4493151</v>
+        <v>5527821</v>
       </c>
       <c r="AT116" s="17">
-        <v>6196986</v>
+        <v>5392849</v>
       </c>
       <c r="AU116" s="17">
-        <v>5392849</v>
+        <v>5618203</v>
       </c>
       <c r="AV116" s="17">
-        <v>5618203</v>
+        <v>9283583</v>
       </c>
       <c r="AW116" s="17">
-        <v>9283583</v>
+        <v>11977145</v>
       </c>
       <c r="AX116" s="17">
-        <v>11977145</v>
+        <v>11151591</v>
       </c>
       <c r="AY116" s="17">
-        <v>11151591</v>
+        <v>8430276</v>
       </c>
       <c r="AZ116" s="17">
-        <v>8430276</v>
+        <v>6520611</v>
       </c>
       <c r="BA116" s="17">
-        <v>6520611</v>
+        <v>5046342</v>
       </c>
       <c r="BB116" s="17">
-        <v>5046342</v>
+        <v>7264279</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -16774,8 +16774,8 @@
       <c r="Y118" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z118" s="15" t="s">
-        <v>58</v>
+      <c r="Z118" s="15">
+        <v>0</v>
       </c>
       <c r="AA118" s="15">
         <v>0</v>
@@ -17020,50 +17020,50 @@
       <c r="AI120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ120" s="11" t="s">
-        <v>58</v>
+      <c r="AJ120" s="11">
+        <v>-1096</v>
       </c>
       <c r="AK120" s="11">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AL120" s="11">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AM120" s="11">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AN120" s="11">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AO120" s="11">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AP120" s="11">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AQ120" s="11">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AR120" s="11">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AS120" s="11">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AT120" s="11">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AU120" s="11">
-        <v>-34371</v>
-      </c>
-      <c r="AV120" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV120" s="11">
+        <v>0</v>
       </c>
       <c r="AW120" s="11">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AX120" s="11">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AY120" s="11">
         <v>0</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="BB120" s="11">
-        <v>0</v>
+        <v>-4380</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -17149,14 +17149,14 @@
       <c r="Y121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z121" s="13" t="s">
-        <v>58</v>
+      <c r="Z121" s="13">
+        <v>-3871</v>
       </c>
       <c r="AA121" s="13">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AB121" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AC121" s="13">
         <v>0</v>
@@ -17165,19 +17165,19 @@
         <v>0</v>
       </c>
       <c r="AE121" s="13">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AF121" s="13">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AG121" s="13">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AH121" s="13">
-        <v>-1208</v>
-      </c>
-      <c r="AI121" s="13">
         <v>-530</v>
+      </c>
+      <c r="AI121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ121" s="13" t="s">
         <v>58</v>
@@ -17308,14 +17308,14 @@
       <c r="Y122" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z122" s="15" t="s">
-        <v>58</v>
+      <c r="Z122" s="15">
+        <v>-3871</v>
       </c>
       <c r="AA122" s="15">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AB122" s="15">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AC122" s="15">
         <v>0</v>
@@ -17324,64 +17324,64 @@
         <v>0</v>
       </c>
       <c r="AE122" s="15">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AF122" s="15">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AG122" s="15">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AH122" s="15">
-        <v>-1208</v>
+        <v>-530</v>
       </c>
       <c r="AI122" s="15">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AJ122" s="15">
-        <v>0</v>
+        <v>-1096</v>
       </c>
       <c r="AK122" s="15">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AL122" s="15">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AM122" s="15">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AN122" s="15">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AO122" s="15">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AP122" s="15">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AQ122" s="15">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AR122" s="15">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AS122" s="15">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AT122" s="15">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AU122" s="15">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AV122" s="15">
         <v>0</v>
       </c>
       <c r="AW122" s="15">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AX122" s="15">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AY122" s="15">
         <v>0</v>
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="BB122" s="15">
-        <v>0</v>
+        <v>-4380</v>
       </c>
     </row>
     <row r="123" spans="2:54" x14ac:dyDescent="0.3">
@@ -17524,92 +17524,92 @@
       <c r="Y124" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z124" s="11" t="s">
-        <v>58</v>
+      <c r="Z124" s="11">
+        <v>-99965</v>
       </c>
       <c r="AA124" s="11">
-        <v>-99965</v>
+        <v>-63046</v>
       </c>
       <c r="AB124" s="11">
-        <v>-63046</v>
+        <v>-121319</v>
       </c>
       <c r="AC124" s="11">
-        <v>-121319</v>
+        <v>-104481</v>
       </c>
       <c r="AD124" s="11">
-        <v>-104481</v>
+        <v>-33470</v>
       </c>
       <c r="AE124" s="11">
-        <v>-33470</v>
+        <v>-108786</v>
       </c>
       <c r="AF124" s="11">
-        <v>-108786</v>
+        <v>-194709</v>
       </c>
       <c r="AG124" s="11">
-        <v>-194709</v>
+        <v>-160422</v>
       </c>
       <c r="AH124" s="11">
-        <v>-160422</v>
+        <v>-147739</v>
       </c>
       <c r="AI124" s="11">
-        <v>-147739</v>
+        <v>-82901</v>
       </c>
       <c r="AJ124" s="11">
-        <v>-82901</v>
+        <v>-70815</v>
       </c>
       <c r="AK124" s="11">
-        <v>-70815</v>
+        <v>-55936</v>
       </c>
       <c r="AL124" s="11">
-        <v>-55936</v>
+        <v>-166034</v>
       </c>
       <c r="AM124" s="11">
-        <v>-166034</v>
+        <v>-162714</v>
       </c>
       <c r="AN124" s="11">
-        <v>-162714</v>
+        <v>-146494</v>
       </c>
       <c r="AO124" s="11">
-        <v>-146494</v>
+        <v>-107065</v>
       </c>
       <c r="AP124" s="11">
-        <v>-107065</v>
+        <v>-178470</v>
       </c>
       <c r="AQ124" s="11">
-        <v>-178470</v>
+        <v>-99431</v>
       </c>
       <c r="AR124" s="11">
-        <v>-99431</v>
+        <v>-117236</v>
       </c>
       <c r="AS124" s="11">
-        <v>-117236</v>
+        <v>-72470</v>
       </c>
       <c r="AT124" s="11">
-        <v>-72470</v>
+        <v>-98358</v>
       </c>
       <c r="AU124" s="11">
-        <v>-98358</v>
+        <v>-36205</v>
       </c>
       <c r="AV124" s="11">
-        <v>-36205</v>
+        <v>-46431</v>
       </c>
       <c r="AW124" s="11">
-        <v>-46431</v>
+        <v>-24993</v>
       </c>
       <c r="AX124" s="11">
-        <v>-24993</v>
+        <v>-16300</v>
       </c>
       <c r="AY124" s="11">
-        <v>-16300</v>
+        <v>-18418</v>
       </c>
       <c r="AZ124" s="11">
-        <v>-18418</v>
+        <v>-838864</v>
       </c>
       <c r="BA124" s="11">
-        <v>-838864</v>
+        <v>-263408</v>
       </c>
       <c r="BB124" s="11">
-        <v>-263408</v>
+        <v>-281259</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17682,91 +17682,91 @@
         <v>0</v>
       </c>
       <c r="Z125" s="17">
-        <v>0</v>
+        <v>5003773</v>
       </c>
       <c r="AA125" s="17">
-        <v>5003773</v>
+        <v>4814533</v>
       </c>
       <c r="AB125" s="17">
-        <v>4814533</v>
+        <v>5848132</v>
       </c>
       <c r="AC125" s="17">
-        <v>5848132</v>
+        <v>7320115</v>
       </c>
       <c r="AD125" s="17">
-        <v>7320115</v>
+        <v>6783459</v>
       </c>
       <c r="AE125" s="17">
-        <v>6783459</v>
+        <v>7913054</v>
       </c>
       <c r="AF125" s="17">
-        <v>7913054</v>
+        <v>8710611</v>
       </c>
       <c r="AG125" s="17">
-        <v>8710611</v>
+        <v>8289115</v>
       </c>
       <c r="AH125" s="17">
-        <v>8289115</v>
+        <v>8303574</v>
       </c>
       <c r="AI125" s="17">
-        <v>8303574</v>
+        <v>7468775</v>
       </c>
       <c r="AJ125" s="17">
-        <v>7468775</v>
+        <v>9506819</v>
       </c>
       <c r="AK125" s="17">
-        <v>9506819</v>
+        <v>11028015</v>
       </c>
       <c r="AL125" s="17">
-        <v>11028015</v>
+        <v>9942922</v>
       </c>
       <c r="AM125" s="17">
-        <v>9942922</v>
+        <v>11916444</v>
       </c>
       <c r="AN125" s="17">
-        <v>11916444</v>
+        <v>15484920</v>
       </c>
       <c r="AO125" s="17">
-        <v>15484920</v>
+        <v>11674012</v>
       </c>
       <c r="AP125" s="17">
-        <v>11674012</v>
+        <v>10875125</v>
       </c>
       <c r="AQ125" s="17">
-        <v>10875125</v>
+        <v>12011104</v>
       </c>
       <c r="AR125" s="17">
-        <v>12011104</v>
+        <v>10354889</v>
       </c>
       <c r="AS125" s="17">
-        <v>10354889</v>
+        <v>11108418</v>
       </c>
       <c r="AT125" s="17">
-        <v>11797608</v>
+        <v>10888591</v>
       </c>
       <c r="AU125" s="17">
-        <v>10888591</v>
+        <v>8635868</v>
       </c>
       <c r="AV125" s="17">
-        <v>8635868</v>
+        <v>15751129</v>
       </c>
       <c r="AW125" s="17">
-        <v>15751129</v>
+        <v>20819333</v>
       </c>
       <c r="AX125" s="17">
-        <v>20819333</v>
+        <v>18602346</v>
       </c>
       <c r="AY125" s="17">
-        <v>18601102</v>
+        <v>16410446</v>
       </c>
       <c r="AZ125" s="17">
-        <v>16410446</v>
+        <v>15297080</v>
       </c>
       <c r="BA125" s="17">
-        <v>15297080</v>
+        <v>11774920</v>
       </c>
       <c r="BB125" s="17">
-        <v>11774920</v>
+        <v>14597743</v>
       </c>
     </row>
     <row r="126" spans="2:54" x14ac:dyDescent="0.3">
@@ -18274,68 +18274,68 @@
       <c r="Y132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z132" s="11" t="s">
-        <v>58</v>
+      <c r="Z132" s="11">
+        <v>106593750</v>
       </c>
       <c r="AA132" s="11">
-        <v>106593750</v>
+        <v>210288462</v>
       </c>
       <c r="AB132" s="11">
-        <v>210288462</v>
+        <v>159056926</v>
       </c>
       <c r="AC132" s="11">
-        <v>159056926</v>
+        <v>217086705</v>
       </c>
       <c r="AD132" s="11">
-        <v>217086705</v>
+        <v>212571429</v>
       </c>
       <c r="AE132" s="11">
-        <v>212571429</v>
+        <v>219928270</v>
       </c>
       <c r="AF132" s="11">
-        <v>219928270</v>
+        <v>216153153</v>
       </c>
       <c r="AG132" s="11">
-        <v>216153153</v>
+        <v>238640000</v>
       </c>
       <c r="AH132" s="11">
-        <v>238640000</v>
+        <v>140000000</v>
       </c>
       <c r="AI132" s="11">
-        <v>140000000</v>
+        <v>196833333</v>
       </c>
       <c r="AJ132" s="11">
-        <v>196833333</v>
+        <v>214030303</v>
       </c>
       <c r="AK132" s="11">
-        <v>214030303</v>
+        <v>204100000</v>
       </c>
       <c r="AL132" s="11">
-        <v>204100000</v>
+        <v>335222222</v>
       </c>
       <c r="AM132" s="11">
-        <v>335222222</v>
+        <v>353613793</v>
       </c>
       <c r="AN132" s="11">
-        <v>353613793</v>
+        <v>363110912</v>
       </c>
       <c r="AO132" s="11">
-        <v>363110912</v>
+        <v>333688716</v>
       </c>
       <c r="AP132" s="11">
-        <v>333688716</v>
+        <v>377737226</v>
       </c>
       <c r="AQ132" s="11">
-        <v>377737226</v>
+        <v>385072727</v>
       </c>
       <c r="AR132" s="11">
-        <v>385072727</v>
-      </c>
-      <c r="AS132" s="11">
         <v>387150000</v>
       </c>
-      <c r="AT132" s="11">
-        <v>392647059</v>
+      <c r="AS132" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU132" s="11" t="s">
         <v>58</v>
@@ -18433,35 +18433,35 @@
       <c r="Y133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z133" s="13" t="s">
-        <v>58</v>
+      <c r="Z133" s="13">
+        <v>113158940</v>
       </c>
       <c r="AA133" s="13">
-        <v>113158940</v>
+        <v>106386357</v>
       </c>
       <c r="AB133" s="13">
-        <v>106386357</v>
+        <v>106643404</v>
       </c>
       <c r="AC133" s="13">
-        <v>106643404</v>
+        <v>114013334</v>
       </c>
       <c r="AD133" s="13">
-        <v>114013334</v>
+        <v>137903234</v>
       </c>
       <c r="AE133" s="13">
-        <v>137903234</v>
+        <v>179696985</v>
       </c>
       <c r="AF133" s="13">
-        <v>179696985</v>
+        <v>185144096</v>
       </c>
       <c r="AG133" s="13">
-        <v>185144096</v>
+        <v>179713914</v>
       </c>
       <c r="AH133" s="13">
-        <v>179713914</v>
-      </c>
-      <c r="AI133" s="13">
         <v>187452620</v>
+      </c>
+      <c r="AI133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ133" s="13" t="s">
         <v>58</v>
@@ -18619,65 +18619,65 @@
       <c r="AH134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI134" s="11" t="s">
-        <v>58</v>
+      <c r="AI134" s="11">
+        <v>201084067</v>
       </c>
       <c r="AJ134" s="11">
-        <v>201084067</v>
+        <v>229402366</v>
       </c>
       <c r="AK134" s="11">
-        <v>229402366</v>
+        <v>207760742</v>
       </c>
       <c r="AL134" s="11">
-        <v>207760742</v>
+        <v>194090447</v>
       </c>
       <c r="AM134" s="11">
-        <v>194090447</v>
+        <v>196412510</v>
       </c>
       <c r="AN134" s="11">
-        <v>196412510</v>
+        <v>218846067</v>
       </c>
       <c r="AO134" s="11">
-        <v>218846067</v>
+        <v>229355574</v>
       </c>
       <c r="AP134" s="11">
-        <v>229355574</v>
+        <v>232440906</v>
       </c>
       <c r="AQ134" s="11">
-        <v>232440906</v>
+        <v>215252827</v>
       </c>
       <c r="AR134" s="11">
-        <v>215252827</v>
+        <v>227049389</v>
       </c>
       <c r="AS134" s="11">
-        <v>227049389</v>
+        <v>232877438</v>
       </c>
       <c r="AT134" s="11">
-        <v>232874477</v>
+        <v>246353375</v>
       </c>
       <c r="AU134" s="11">
-        <v>246353375</v>
+        <v>277096452</v>
       </c>
       <c r="AV134" s="11">
-        <v>277096452</v>
+        <v>275726314</v>
       </c>
       <c r="AW134" s="11">
-        <v>275726314</v>
+        <v>297864952</v>
       </c>
       <c r="AX134" s="11">
-        <v>297864952</v>
+        <v>333615972</v>
       </c>
       <c r="AY134" s="11">
-        <v>333615972</v>
+        <v>325931179</v>
       </c>
       <c r="AZ134" s="11">
-        <v>325931179</v>
+        <v>274443878</v>
       </c>
       <c r="BA134" s="11">
-        <v>274443878</v>
+        <v>254134879</v>
       </c>
       <c r="BB134" s="11">
-        <v>254134879</v>
+        <v>258457573</v>
       </c>
     </row>
     <row r="135" spans="2:54" x14ac:dyDescent="0.3">
@@ -18778,65 +18778,65 @@
       <c r="AH135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI135" s="13" t="s">
-        <v>58</v>
+      <c r="AI135" s="13">
+        <v>141347206</v>
       </c>
       <c r="AJ135" s="13">
-        <v>141347206</v>
+        <v>152479592</v>
       </c>
       <c r="AK135" s="13">
-        <v>152479592</v>
+        <v>168138991</v>
       </c>
       <c r="AL135" s="13">
-        <v>168138991</v>
+        <v>159931530</v>
       </c>
       <c r="AM135" s="13">
-        <v>159931530</v>
+        <v>218838213</v>
       </c>
       <c r="AN135" s="13">
-        <v>218838213</v>
+        <v>197595723</v>
       </c>
       <c r="AO135" s="13">
-        <v>197595723</v>
+        <v>197555556</v>
       </c>
       <c r="AP135" s="13">
-        <v>197555556</v>
+        <v>240072513</v>
       </c>
       <c r="AQ135" s="13">
-        <v>240072513</v>
+        <v>255266667</v>
       </c>
       <c r="AR135" s="13">
-        <v>255266667</v>
+        <v>279721491</v>
       </c>
       <c r="AS135" s="13">
-        <v>279721491</v>
-      </c>
-      <c r="AT135" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT135" s="13">
+        <v>278474836</v>
       </c>
       <c r="AU135" s="13">
-        <v>278474836</v>
+        <v>324918367</v>
       </c>
       <c r="AV135" s="13">
-        <v>324918367</v>
+        <v>289631387</v>
       </c>
       <c r="AW135" s="13">
-        <v>289631387</v>
+        <v>322882129</v>
       </c>
       <c r="AX135" s="13">
-        <v>322882129</v>
+        <v>321135593</v>
       </c>
       <c r="AY135" s="13">
-        <v>321135593</v>
+        <v>312028037</v>
       </c>
       <c r="AZ135" s="13">
-        <v>312028037</v>
+        <v>223901186</v>
       </c>
       <c r="BA135" s="13">
-        <v>223901186</v>
+        <v>212984314</v>
       </c>
       <c r="BB135" s="13">
-        <v>212984314</v>
+        <v>199823789</v>
       </c>
     </row>
     <row r="136" spans="2:54" x14ac:dyDescent="0.3">
@@ -18910,92 +18910,92 @@
       <c r="Y136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z136" s="11" t="s">
-        <v>58</v>
+      <c r="Z136" s="11">
+        <v>97031746</v>
       </c>
       <c r="AA136" s="11">
-        <v>97031746</v>
+        <v>130444444</v>
       </c>
       <c r="AB136" s="11">
-        <v>130444444</v>
+        <v>106924528</v>
       </c>
       <c r="AC136" s="11">
-        <v>106924528</v>
+        <v>121257576</v>
       </c>
       <c r="AD136" s="11">
-        <v>121257576</v>
+        <v>157200000</v>
       </c>
       <c r="AE136" s="11">
-        <v>157200000</v>
+        <v>218152174</v>
       </c>
       <c r="AF136" s="11">
-        <v>218152174</v>
+        <v>218187500</v>
       </c>
       <c r="AG136" s="11">
-        <v>218187500</v>
+        <v>205285714</v>
       </c>
       <c r="AH136" s="11">
-        <v>205285714</v>
+        <v>193833333</v>
       </c>
       <c r="AI136" s="11">
-        <v>193833333</v>
+        <v>181500000</v>
       </c>
       <c r="AJ136" s="11">
-        <v>181500000</v>
+        <v>220610390</v>
       </c>
       <c r="AK136" s="11">
-        <v>220610390</v>
+        <v>221066667</v>
       </c>
       <c r="AL136" s="11">
-        <v>221066667</v>
+        <v>226454545</v>
       </c>
       <c r="AM136" s="11">
-        <v>226454545</v>
+        <v>230384615</v>
       </c>
       <c r="AN136" s="11">
-        <v>230384615</v>
-      </c>
-      <c r="AO136" s="11">
         <v>205000000</v>
       </c>
+      <c r="AO136" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ136" s="11" t="s">
-        <v>58</v>
+      <c r="AQ136" s="11">
+        <v>275387097</v>
       </c>
       <c r="AR136" s="11">
-        <v>275387097</v>
+        <v>268475000</v>
       </c>
       <c r="AS136" s="11">
-        <v>268475000</v>
+        <v>267373333</v>
       </c>
       <c r="AT136" s="11">
-        <v>267373333</v>
+        <v>274655462</v>
       </c>
       <c r="AU136" s="11">
-        <v>274655462</v>
+        <v>390571429</v>
       </c>
       <c r="AV136" s="11">
-        <v>390571429</v>
+        <v>404843137</v>
       </c>
       <c r="AW136" s="11">
-        <v>404843137</v>
+        <v>501500000</v>
       </c>
       <c r="AX136" s="11">
-        <v>501500000</v>
+        <v>373500000</v>
       </c>
       <c r="AY136" s="11">
-        <v>373500000</v>
-      </c>
-      <c r="AZ136" s="11">
         <v>714500000</v>
       </c>
-      <c r="BA136" s="11" t="s">
-        <v>58</v>
+      <c r="AZ136" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA136" s="11">
+        <v>362176471</v>
       </c>
       <c r="BB136" s="11">
-        <v>362176471</v>
+        <v>367812500</v>
       </c>
     </row>
     <row r="137" spans="2:54" x14ac:dyDescent="0.3">
@@ -19126,35 +19126,35 @@
       <c r="AR137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS137" s="13" t="s">
-        <v>58</v>
+      <c r="AS137" s="13">
+        <v>0</v>
       </c>
       <c r="AT137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU137" s="13" t="s">
-        <v>58</v>
+      <c r="AU137" s="13">
+        <v>385800000</v>
       </c>
       <c r="AV137" s="13">
-        <v>385800000</v>
+        <v>349584615</v>
       </c>
       <c r="AW137" s="13">
-        <v>349584615</v>
+        <v>457268519</v>
       </c>
       <c r="AX137" s="13">
-        <v>457268519</v>
+        <v>545109375</v>
       </c>
       <c r="AY137" s="13">
-        <v>545109375</v>
+        <v>596875000</v>
       </c>
       <c r="AZ137" s="13">
-        <v>596875000</v>
+        <v>332695652</v>
       </c>
       <c r="BA137" s="13">
-        <v>332695652</v>
+        <v>444629630</v>
       </c>
       <c r="BB137" s="13">
-        <v>444629630</v>
+        <v>413677419</v>
       </c>
     </row>
     <row r="138" spans="2:54" x14ac:dyDescent="0.3">
@@ -19255,65 +19255,65 @@
       <c r="AH138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI138" s="11" t="s">
-        <v>58</v>
+      <c r="AI138" s="11">
+        <v>152115789</v>
       </c>
       <c r="AJ138" s="11">
-        <v>152115789</v>
+        <v>150750596</v>
       </c>
       <c r="AK138" s="11">
-        <v>150750596</v>
+        <v>143114739</v>
       </c>
       <c r="AL138" s="11">
-        <v>143114739</v>
+        <v>170756396</v>
       </c>
       <c r="AM138" s="11">
-        <v>170756396</v>
+        <v>197350820</v>
       </c>
       <c r="AN138" s="11">
-        <v>197350820</v>
+        <v>226265700</v>
       </c>
       <c r="AO138" s="11">
-        <v>226265700</v>
+        <v>246339440</v>
       </c>
       <c r="AP138" s="11">
-        <v>246339440</v>
+        <v>267272260</v>
       </c>
       <c r="AQ138" s="11">
-        <v>267272260</v>
+        <v>239098103</v>
       </c>
       <c r="AR138" s="11">
-        <v>239098103</v>
+        <v>231843720</v>
       </c>
       <c r="AS138" s="11">
-        <v>231843720</v>
+        <v>252258781</v>
       </c>
       <c r="AT138" s="11">
-        <v>252258781</v>
+        <v>255019404</v>
       </c>
       <c r="AU138" s="11">
-        <v>255019404</v>
+        <v>268281657</v>
       </c>
       <c r="AV138" s="11">
-        <v>268281657</v>
+        <v>260280374</v>
       </c>
       <c r="AW138" s="11">
-        <v>260280374</v>
+        <v>260013499</v>
       </c>
       <c r="AX138" s="11">
-        <v>260013499</v>
+        <v>260002326</v>
       </c>
       <c r="AY138" s="11">
-        <v>260002326</v>
+        <v>241966128</v>
       </c>
       <c r="AZ138" s="11">
-        <v>241966128</v>
+        <v>205020949</v>
       </c>
       <c r="BA138" s="11">
-        <v>205020949</v>
+        <v>195523726</v>
       </c>
       <c r="BB138" s="11">
-        <v>195523726</v>
+        <v>290435417</v>
       </c>
     </row>
     <row r="139" spans="2:54" x14ac:dyDescent="0.3">
@@ -19387,35 +19387,35 @@
       <c r="Y139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z139" s="13" t="s">
-        <v>58</v>
+      <c r="Z139" s="13">
+        <v>48954165</v>
       </c>
       <c r="AA139" s="13">
-        <v>48954165</v>
+        <v>88270059</v>
       </c>
       <c r="AB139" s="13">
-        <v>88270059</v>
+        <v>101252934</v>
       </c>
       <c r="AC139" s="13">
-        <v>101252934</v>
+        <v>125264837</v>
       </c>
       <c r="AD139" s="13">
-        <v>125264837</v>
+        <v>138436280</v>
       </c>
       <c r="AE139" s="13">
-        <v>138436280</v>
+        <v>130858491</v>
       </c>
       <c r="AF139" s="13">
-        <v>130858491</v>
+        <v>138245329</v>
       </c>
       <c r="AG139" s="13">
-        <v>138245329</v>
+        <v>130857081</v>
       </c>
       <c r="AH139" s="13">
-        <v>130857081</v>
-      </c>
-      <c r="AI139" s="13">
         <v>144764982</v>
+      </c>
+      <c r="AI139" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ139" s="13" t="s">
         <v>58</v>
@@ -19573,65 +19573,65 @@
       <c r="AH140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI140" s="11" t="s">
-        <v>58</v>
+      <c r="AI140" s="11">
+        <v>192513411</v>
       </c>
       <c r="AJ140" s="11">
-        <v>192513411</v>
+        <v>185844002</v>
       </c>
       <c r="AK140" s="11">
-        <v>185844002</v>
+        <v>191633662</v>
       </c>
       <c r="AL140" s="11">
-        <v>191633662</v>
+        <v>206738424</v>
       </c>
       <c r="AM140" s="11">
-        <v>206738424</v>
+        <v>266557542</v>
       </c>
       <c r="AN140" s="11">
-        <v>266557542</v>
+        <v>276778459</v>
       </c>
       <c r="AO140" s="11">
-        <v>276778459</v>
+        <v>283648710</v>
       </c>
       <c r="AP140" s="11">
-        <v>283648710</v>
+        <v>278359126</v>
       </c>
       <c r="AQ140" s="11">
-        <v>278359126</v>
+        <v>298338299</v>
       </c>
       <c r="AR140" s="11">
-        <v>298338299</v>
+        <v>284492266</v>
       </c>
       <c r="AS140" s="11">
-        <v>284492266</v>
+        <v>275068293</v>
       </c>
       <c r="AT140" s="11">
-        <v>275068293</v>
+        <v>287640515</v>
       </c>
       <c r="AU140" s="11">
-        <v>287640515</v>
+        <v>306393875</v>
       </c>
       <c r="AV140" s="11">
-        <v>306393875</v>
+        <v>297846133</v>
       </c>
       <c r="AW140" s="11">
-        <v>297846133</v>
+        <v>327208696</v>
       </c>
       <c r="AX140" s="11">
-        <v>327208696</v>
+        <v>349285683</v>
       </c>
       <c r="AY140" s="11">
-        <v>349285683</v>
+        <v>363048614</v>
       </c>
       <c r="AZ140" s="11">
-        <v>363048614</v>
+        <v>351261072</v>
       </c>
       <c r="BA140" s="11">
-        <v>351261072</v>
+        <v>351603463</v>
       </c>
       <c r="BB140" s="11">
-        <v>351603463</v>
+        <v>351093756</v>
       </c>
     </row>
     <row r="141" spans="2:54" x14ac:dyDescent="0.3">
@@ -19732,65 +19732,65 @@
       <c r="AH141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI141" s="13" t="s">
-        <v>58</v>
+      <c r="AI141" s="13">
+        <v>245720736</v>
       </c>
       <c r="AJ141" s="13">
-        <v>245720736</v>
+        <v>233845623</v>
       </c>
       <c r="AK141" s="13">
-        <v>233845623</v>
+        <v>255282828</v>
       </c>
       <c r="AL141" s="13">
-        <v>255282828</v>
+        <v>275224215</v>
       </c>
       <c r="AM141" s="13">
-        <v>275224215</v>
+        <v>403571388</v>
       </c>
       <c r="AN141" s="13">
-        <v>403571388</v>
+        <v>382497976</v>
       </c>
       <c r="AO141" s="13">
-        <v>382497976</v>
+        <v>382831761</v>
       </c>
       <c r="AP141" s="13">
-        <v>382831761</v>
+        <v>357719436</v>
       </c>
       <c r="AQ141" s="13">
-        <v>357719436</v>
+        <v>368305797</v>
       </c>
       <c r="AR141" s="13">
-        <v>368305797</v>
+        <v>391754408</v>
       </c>
       <c r="AS141" s="13">
-        <v>391754408</v>
+        <v>366654191</v>
       </c>
       <c r="AT141" s="13">
-        <v>366654191</v>
+        <v>389822641</v>
       </c>
       <c r="AU141" s="13">
-        <v>389822641</v>
+        <v>423048987</v>
       </c>
       <c r="AV141" s="13">
-        <v>423048987</v>
+        <v>438741016</v>
       </c>
       <c r="AW141" s="13">
-        <v>438741016</v>
+        <v>473484968</v>
       </c>
       <c r="AX141" s="13">
-        <v>473484968</v>
+        <v>537984860</v>
       </c>
       <c r="AY141" s="13">
-        <v>537984860</v>
+        <v>517008678</v>
       </c>
       <c r="AZ141" s="13">
-        <v>517008678</v>
+        <v>493479589</v>
       </c>
       <c r="BA141" s="13">
-        <v>493479589</v>
+        <v>476410235</v>
       </c>
       <c r="BB141" s="13">
-        <v>476410235</v>
+        <v>475776482</v>
       </c>
     </row>
     <row r="142" spans="2:54" x14ac:dyDescent="0.3">
@@ -19891,65 +19891,65 @@
       <c r="AH142" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI142" s="11" t="s">
-        <v>58</v>
+      <c r="AI142" s="11">
+        <v>243934706</v>
       </c>
       <c r="AJ142" s="11">
-        <v>243934706</v>
+        <v>253634622</v>
       </c>
       <c r="AK142" s="11">
-        <v>253634622</v>
+        <v>257646915</v>
       </c>
       <c r="AL142" s="11">
-        <v>257646915</v>
+        <v>263179549</v>
       </c>
       <c r="AM142" s="11">
-        <v>263179549</v>
+        <v>264720839</v>
       </c>
       <c r="AN142" s="11">
-        <v>264720839</v>
+        <v>280835507</v>
       </c>
       <c r="AO142" s="11">
-        <v>280835507</v>
+        <v>275922260</v>
       </c>
       <c r="AP142" s="11">
-        <v>275922260</v>
+        <v>323774706</v>
       </c>
       <c r="AQ142" s="11">
-        <v>323774706</v>
+        <v>352261117</v>
       </c>
       <c r="AR142" s="11">
-        <v>352261117</v>
+        <v>325539741</v>
       </c>
       <c r="AS142" s="11">
-        <v>325539741</v>
+        <v>330793454</v>
       </c>
       <c r="AT142" s="11">
-        <v>330793454</v>
+        <v>342526555</v>
       </c>
       <c r="AU142" s="11">
-        <v>342526555</v>
+        <v>376531754</v>
       </c>
       <c r="AV142" s="11">
-        <v>376531754</v>
+        <v>419756695</v>
       </c>
       <c r="AW142" s="11">
-        <v>419756695</v>
+        <v>425361890</v>
       </c>
       <c r="AX142" s="11">
-        <v>425361890</v>
+        <v>407796855</v>
       </c>
       <c r="AY142" s="11">
-        <v>407796855</v>
+        <v>416055066</v>
       </c>
       <c r="AZ142" s="11">
-        <v>416055066</v>
+        <v>433681204</v>
       </c>
       <c r="BA142" s="11">
-        <v>433681204</v>
+        <v>415119911</v>
       </c>
       <c r="BB142" s="11">
-        <v>415119911</v>
+        <v>419146804</v>
       </c>
     </row>
     <row r="143" spans="2:54" x14ac:dyDescent="0.3">
@@ -20050,65 +20050,65 @@
       <c r="AH143" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI143" s="13" t="s">
-        <v>58</v>
+      <c r="AI143" s="13">
+        <v>245346835</v>
       </c>
       <c r="AJ143" s="13">
-        <v>245346835</v>
+        <v>253357562</v>
       </c>
       <c r="AK143" s="13">
-        <v>253357562</v>
+        <v>307887776</v>
       </c>
       <c r="AL143" s="13">
-        <v>307887776</v>
+        <v>309535797</v>
       </c>
       <c r="AM143" s="13">
-        <v>309535797</v>
+        <v>318991304</v>
       </c>
       <c r="AN143" s="13">
-        <v>318991304</v>
+        <v>300472155</v>
       </c>
       <c r="AO143" s="13">
-        <v>300472155</v>
+        <v>369393220</v>
       </c>
       <c r="AP143" s="13">
-        <v>369393220</v>
+        <v>386710345</v>
       </c>
       <c r="AQ143" s="13">
-        <v>386710345</v>
+        <v>379030637</v>
       </c>
       <c r="AR143" s="13">
-        <v>379030637</v>
+        <v>358500990</v>
       </c>
       <c r="AS143" s="13">
-        <v>358500990</v>
+        <v>319500867</v>
       </c>
       <c r="AT143" s="13">
-        <v>319500867</v>
+        <v>374261023</v>
       </c>
       <c r="AU143" s="13">
-        <v>374261023</v>
+        <v>474303828</v>
       </c>
       <c r="AV143" s="13">
-        <v>474303828</v>
+        <v>435325843</v>
       </c>
       <c r="AW143" s="13">
-        <v>435325843</v>
+        <v>445188377</v>
       </c>
       <c r="AX143" s="13">
-        <v>445188377</v>
+        <v>543872832</v>
       </c>
       <c r="AY143" s="13">
-        <v>543872832</v>
+        <v>607760300</v>
       </c>
       <c r="AZ143" s="13">
-        <v>607760300</v>
+        <v>470963415</v>
       </c>
       <c r="BA143" s="13">
-        <v>470963415</v>
+        <v>458327434</v>
       </c>
       <c r="BB143" s="13">
-        <v>458327434</v>
+        <v>470227684</v>
       </c>
     </row>
     <row r="144" spans="2:54" x14ac:dyDescent="0.3">
@@ -20209,65 +20209,65 @@
       <c r="AH144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI144" s="11" t="s">
-        <v>58</v>
+      <c r="AI144" s="11">
+        <v>78127083</v>
       </c>
       <c r="AJ144" s="11">
-        <v>78127083</v>
+        <v>72186624</v>
       </c>
       <c r="AK144" s="11">
-        <v>72186624</v>
+        <v>65049807</v>
       </c>
       <c r="AL144" s="11">
-        <v>65049807</v>
+        <v>69092205</v>
       </c>
       <c r="AM144" s="11">
-        <v>69092205</v>
+        <v>74971083</v>
       </c>
       <c r="AN144" s="11">
-        <v>74971083</v>
+        <v>76638504</v>
       </c>
       <c r="AO144" s="11">
-        <v>76638504</v>
+        <v>87259205</v>
       </c>
       <c r="AP144" s="11">
-        <v>87259205</v>
+        <v>98621752</v>
       </c>
       <c r="AQ144" s="11">
-        <v>98621752</v>
+        <v>95557481</v>
       </c>
       <c r="AR144" s="11">
-        <v>95557481</v>
+        <v>100648430</v>
       </c>
       <c r="AS144" s="11">
-        <v>100648430</v>
+        <v>102920000</v>
       </c>
       <c r="AT144" s="11">
-        <v>102920000</v>
+        <v>117082014</v>
       </c>
       <c r="AU144" s="11">
-        <v>117082014</v>
+        <v>141390693</v>
       </c>
       <c r="AV144" s="11">
-        <v>141390693</v>
+        <v>150642804</v>
       </c>
       <c r="AW144" s="11">
-        <v>150642804</v>
+        <v>152969024</v>
       </c>
       <c r="AX144" s="11">
-        <v>152969024</v>
+        <v>150075188</v>
       </c>
       <c r="AY144" s="11">
-        <v>150075188</v>
+        <v>148955832</v>
       </c>
       <c r="AZ144" s="11">
-        <v>148955832</v>
+        <v>108810523</v>
       </c>
       <c r="BA144" s="11">
-        <v>108810523</v>
+        <v>105611783</v>
       </c>
       <c r="BB144" s="11">
-        <v>105611783</v>
+        <v>99266897</v>
       </c>
     </row>
     <row r="145" spans="2:54" x14ac:dyDescent="0.3">
@@ -20374,15 +20374,15 @@
       <c r="AJ145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK145" s="13" t="s">
-        <v>58</v>
+      <c r="AK145" s="13">
+        <v>130085828</v>
       </c>
       <c r="AL145" s="13">
-        <v>130085828</v>
-      </c>
-      <c r="AM145" s="13">
         <v>129865424</v>
       </c>
+      <c r="AM145" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN145" s="13" t="s">
         <v>58</v>
       </c>
@@ -20398,8 +20398,8 @@
       <c r="AR145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS145" s="13" t="s">
-        <v>58</v>
+      <c r="AS145" s="13">
+        <v>0</v>
       </c>
       <c r="AT145" s="13" t="s">
         <v>58</v>
@@ -20557,35 +20557,35 @@
       <c r="Y147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z147" s="11" t="s">
-        <v>58</v>
+      <c r="Z147" s="11">
+        <v>64032291</v>
       </c>
       <c r="AA147" s="11">
-        <v>64032291</v>
+        <v>73694341</v>
       </c>
       <c r="AB147" s="11">
-        <v>73694341</v>
+        <v>79839906</v>
       </c>
       <c r="AC147" s="11">
-        <v>79839906</v>
+        <v>106266618</v>
       </c>
       <c r="AD147" s="11">
-        <v>106266618</v>
+        <v>123735594</v>
       </c>
       <c r="AE147" s="11">
-        <v>123735594</v>
+        <v>123245942</v>
       </c>
       <c r="AF147" s="11">
-        <v>123245942</v>
+        <v>106514201</v>
       </c>
       <c r="AG147" s="11">
-        <v>106514201</v>
+        <v>133754880</v>
       </c>
       <c r="AH147" s="11">
-        <v>133754880</v>
-      </c>
-      <c r="AI147" s="11">
         <v>133584931</v>
+      </c>
+      <c r="AI147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ147" s="11" t="s">
         <v>58</v>
@@ -20743,65 +20743,65 @@
       <c r="AH148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI148" s="13" t="s">
-        <v>58</v>
+      <c r="AI148" s="13">
+        <v>179451281</v>
       </c>
       <c r="AJ148" s="13">
-        <v>179451281</v>
+        <v>190809080</v>
       </c>
       <c r="AK148" s="13">
-        <v>190809080</v>
+        <v>209661936</v>
       </c>
       <c r="AL148" s="13">
-        <v>209661936</v>
+        <v>219384631</v>
       </c>
       <c r="AM148" s="13">
-        <v>219384631</v>
+        <v>223042051</v>
       </c>
       <c r="AN148" s="13">
-        <v>223042051</v>
+        <v>221352295</v>
       </c>
       <c r="AO148" s="13">
-        <v>221352295</v>
+        <v>226794644</v>
       </c>
       <c r="AP148" s="13">
-        <v>226794644</v>
+        <v>216930844</v>
       </c>
       <c r="AQ148" s="13">
-        <v>216930844</v>
+        <v>214313089</v>
       </c>
       <c r="AR148" s="13">
-        <v>214313089</v>
+        <v>208228801</v>
       </c>
       <c r="AS148" s="13">
-        <v>208228801</v>
+        <v>199795139</v>
       </c>
       <c r="AT148" s="13">
-        <v>199541852</v>
+        <v>201681606</v>
       </c>
       <c r="AU148" s="13">
-        <v>201681606</v>
+        <v>278450524</v>
       </c>
       <c r="AV148" s="13">
-        <v>278450524</v>
+        <v>255430404</v>
       </c>
       <c r="AW148" s="13">
-        <v>255430404</v>
+        <v>263490980</v>
       </c>
       <c r="AX148" s="13">
-        <v>263490980</v>
+        <v>292798170</v>
       </c>
       <c r="AY148" s="13">
-        <v>292798170</v>
+        <v>298110613</v>
       </c>
       <c r="AZ148" s="13">
-        <v>298110613</v>
+        <v>264486696</v>
       </c>
       <c r="BA148" s="13">
-        <v>264486696</v>
+        <v>269995533</v>
       </c>
       <c r="BB148" s="13">
-        <v>269995533</v>
+        <v>274613961</v>
       </c>
     </row>
     <row r="149" spans="2:54" x14ac:dyDescent="0.3">
@@ -20902,65 +20902,65 @@
       <c r="AH149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI149" s="11" t="s">
-        <v>58</v>
+      <c r="AI149" s="11">
+        <v>124833333</v>
       </c>
       <c r="AJ149" s="11">
-        <v>124833333</v>
+        <v>116240525</v>
       </c>
       <c r="AK149" s="11">
-        <v>116240525</v>
+        <v>125428952</v>
       </c>
       <c r="AL149" s="11">
-        <v>125428952</v>
+        <v>162179973</v>
       </c>
       <c r="AM149" s="11">
-        <v>162179973</v>
+        <v>149653571</v>
       </c>
       <c r="AN149" s="11">
-        <v>149653571</v>
+        <v>150989119</v>
       </c>
       <c r="AO149" s="11">
-        <v>150989119</v>
+        <v>192943167</v>
       </c>
       <c r="AP149" s="11">
-        <v>192943167</v>
+        <v>196986996</v>
       </c>
       <c r="AQ149" s="11">
-        <v>196986996</v>
+        <v>232894127</v>
       </c>
       <c r="AR149" s="11">
-        <v>232894127</v>
+        <v>244990203</v>
       </c>
       <c r="AS149" s="11">
-        <v>244990203</v>
+        <v>223226066</v>
       </c>
       <c r="AT149" s="11">
-        <v>223226066</v>
+        <v>226722772</v>
       </c>
       <c r="AU149" s="11">
-        <v>226722772</v>
+        <v>292725191</v>
       </c>
       <c r="AV149" s="11">
-        <v>292725191</v>
+        <v>272310907</v>
       </c>
       <c r="AW149" s="11">
-        <v>272310907</v>
+        <v>275745527</v>
       </c>
       <c r="AX149" s="11">
-        <v>275745527</v>
+        <v>296000000</v>
       </c>
       <c r="AY149" s="11">
-        <v>296000000</v>
+        <v>278739130</v>
       </c>
       <c r="AZ149" s="11">
-        <v>278739130</v>
+        <v>230734475</v>
       </c>
       <c r="BA149" s="11">
-        <v>230734475</v>
+        <v>222379004</v>
       </c>
       <c r="BB149" s="11">
-        <v>222379004</v>
+        <v>230570168</v>
       </c>
     </row>
     <row r="150" spans="2:54" x14ac:dyDescent="0.3">
@@ -21061,65 +21061,65 @@
       <c r="AH150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI150" s="13" t="s">
-        <v>58</v>
+      <c r="AI150" s="13">
+        <v>122932914</v>
       </c>
       <c r="AJ150" s="13">
-        <v>122932914</v>
+        <v>134425853</v>
       </c>
       <c r="AK150" s="13">
-        <v>134425853</v>
+        <v>135042196</v>
       </c>
       <c r="AL150" s="13">
-        <v>135042196</v>
+        <v>158746044</v>
       </c>
       <c r="AM150" s="13">
-        <v>158746044</v>
+        <v>172963972</v>
       </c>
       <c r="AN150" s="13">
-        <v>172963972</v>
+        <v>201940613</v>
       </c>
       <c r="AO150" s="13">
-        <v>201940613</v>
+        <v>209962918</v>
       </c>
       <c r="AP150" s="13">
-        <v>209962918</v>
+        <v>237845691</v>
       </c>
       <c r="AQ150" s="13">
-        <v>237845691</v>
+        <v>257456107</v>
       </c>
       <c r="AR150" s="13">
-        <v>257456107</v>
+        <v>280926263</v>
       </c>
       <c r="AS150" s="13">
-        <v>280926263</v>
+        <v>275198491</v>
       </c>
       <c r="AT150" s="13">
-        <v>275198491</v>
+        <v>229658106</v>
       </c>
       <c r="AU150" s="13">
-        <v>229658106</v>
+        <v>327670128</v>
       </c>
       <c r="AV150" s="13">
-        <v>327670128</v>
+        <v>324004986</v>
       </c>
       <c r="AW150" s="13">
-        <v>324004986</v>
+        <v>317717037</v>
       </c>
       <c r="AX150" s="13">
-        <v>317717037</v>
+        <v>292009577</v>
       </c>
       <c r="AY150" s="13">
-        <v>292009577</v>
+        <v>300708825</v>
       </c>
       <c r="AZ150" s="13">
-        <v>300708825</v>
+        <v>286525565</v>
       </c>
       <c r="BA150" s="13">
-        <v>286525565</v>
+        <v>256060524</v>
       </c>
       <c r="BB150" s="13">
-        <v>256060524</v>
+        <v>261727170</v>
       </c>
     </row>
     <row r="151" spans="2:54" x14ac:dyDescent="0.3">
@@ -21193,35 +21193,35 @@
       <c r="Y151" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z151" s="11" t="s">
-        <v>58</v>
+      <c r="Z151" s="11">
+        <v>89510220</v>
       </c>
       <c r="AA151" s="11">
-        <v>89510220</v>
+        <v>79731942</v>
       </c>
       <c r="AB151" s="11">
-        <v>79731942</v>
+        <v>102665822</v>
       </c>
       <c r="AC151" s="11">
-        <v>102665822</v>
+        <v>130876535</v>
       </c>
       <c r="AD151" s="11">
-        <v>130876535</v>
+        <v>124570613</v>
       </c>
       <c r="AE151" s="11">
-        <v>124570613</v>
+        <v>124645777</v>
       </c>
       <c r="AF151" s="11">
-        <v>124645777</v>
+        <v>132410980</v>
       </c>
       <c r="AG151" s="11">
-        <v>132410980</v>
+        <v>140773010</v>
       </c>
       <c r="AH151" s="11">
-        <v>140773010</v>
-      </c>
-      <c r="AI151" s="11">
         <v>132689794</v>
+      </c>
+      <c r="AI151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ151" s="11" t="s">
         <v>58</v>
@@ -21379,27 +21379,27 @@
       <c r="AH152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ152" s="13">
+      <c r="AI152" s="13">
         <v>228364865</v>
       </c>
+      <c r="AJ152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM152" s="13">
+      <c r="AL152" s="13">
         <v>250931818</v>
       </c>
-      <c r="AN152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO152" s="13">
+      <c r="AM152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN152" s="13">
         <v>277292537</v>
       </c>
+      <c r="AO152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP152" s="13" t="s">
         <v>58</v>
       </c>
@@ -21409,35 +21409,35 @@
       <c r="AR152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS152" s="13" t="s">
-        <v>58</v>
+      <c r="AS152" s="13">
+        <v>271681818</v>
       </c>
       <c r="AT152" s="13">
-        <v>271681818</v>
+        <v>272545455</v>
       </c>
       <c r="AU152" s="13">
-        <v>272545455</v>
+        <v>317343949</v>
       </c>
       <c r="AV152" s="13">
-        <v>317343949</v>
+        <v>0</v>
       </c>
       <c r="AW152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY152" s="13">
+      <c r="AX152" s="13">
         <v>361818182</v>
       </c>
+      <c r="AY152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA152" s="13" t="s">
-        <v>58</v>
+      <c r="BA152" s="13">
+        <v>324886364</v>
       </c>
       <c r="BB152" s="13">
-        <v>324886364</v>
+        <v>324603604</v>
       </c>
     </row>
     <row r="153" spans="2:54" x14ac:dyDescent="0.3">
@@ -21538,65 +21538,65 @@
       <c r="AH153" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI153" s="11" t="s">
-        <v>58</v>
+      <c r="AI153" s="11">
+        <v>185307884</v>
       </c>
       <c r="AJ153" s="11">
-        <v>185307884</v>
+        <v>176101970</v>
       </c>
       <c r="AK153" s="11">
-        <v>176101970</v>
+        <v>182700240</v>
       </c>
       <c r="AL153" s="11">
-        <v>182700240</v>
+        <v>232572207</v>
       </c>
       <c r="AM153" s="11">
-        <v>232572207</v>
+        <v>207812746</v>
       </c>
       <c r="AN153" s="11">
-        <v>207812746</v>
+        <v>233011603</v>
       </c>
       <c r="AO153" s="11">
-        <v>233011603</v>
+        <v>261870432</v>
       </c>
       <c r="AP153" s="11">
-        <v>261870432</v>
+        <v>262086257</v>
       </c>
       <c r="AQ153" s="11">
-        <v>262086257</v>
+        <v>269121896</v>
       </c>
       <c r="AR153" s="11">
-        <v>269121896</v>
+        <v>284890244</v>
       </c>
       <c r="AS153" s="11">
-        <v>284890244</v>
+        <v>264378119</v>
       </c>
       <c r="AT153" s="11">
-        <v>264378119</v>
+        <v>274133159</v>
       </c>
       <c r="AU153" s="11">
-        <v>274133159</v>
+        <v>298375000</v>
       </c>
       <c r="AV153" s="11">
-        <v>298375000</v>
+        <v>305607527</v>
       </c>
       <c r="AW153" s="11">
-        <v>305607527</v>
+        <v>322864734</v>
       </c>
       <c r="AX153" s="11">
-        <v>322864734</v>
+        <v>329547170</v>
       </c>
       <c r="AY153" s="11">
-        <v>329547170</v>
+        <v>405045455</v>
       </c>
       <c r="AZ153" s="11">
-        <v>405045455</v>
+        <v>339346667</v>
       </c>
       <c r="BA153" s="11">
-        <v>339346667</v>
+        <v>307711196</v>
       </c>
       <c r="BB153" s="11">
-        <v>307711196</v>
+        <v>261970726</v>
       </c>
     </row>
     <row r="154" spans="2:54" x14ac:dyDescent="0.3">
@@ -21712,12 +21712,12 @@
       <c r="AM154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO154" s="13">
+      <c r="AN154" s="13">
         <v>253372093</v>
       </c>
+      <c r="AO154" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP154" s="13" t="s">
         <v>58</v>
       </c>
@@ -21727,8 +21727,8 @@
       <c r="AR154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS154" s="13" t="s">
-        <v>58</v>
+      <c r="AS154" s="13">
+        <v>0</v>
       </c>
       <c r="AT154" s="13" t="s">
         <v>58</v>
@@ -21871,12 +21871,12 @@
       <c r="AM155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO155" s="11">
+      <c r="AN155" s="11">
         <v>247409091</v>
       </c>
+      <c r="AO155" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP155" s="11" t="s">
         <v>58</v>
       </c>
@@ -21886,8 +21886,8 @@
       <c r="AR155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS155" s="11" t="s">
-        <v>58</v>
+      <c r="AS155" s="11">
+        <v>0</v>
       </c>
       <c r="AT155" s="11" t="s">
         <v>58</v>
@@ -22015,65 +22015,65 @@
       <c r="AH156" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI156" s="13" t="s">
-        <v>58</v>
+      <c r="AI156" s="13">
+        <v>65888978</v>
       </c>
       <c r="AJ156" s="13">
-        <v>65888978</v>
+        <v>67798911</v>
       </c>
       <c r="AK156" s="13">
-        <v>67798911</v>
+        <v>68791194</v>
       </c>
       <c r="AL156" s="13">
-        <v>68791194</v>
+        <v>76390800</v>
       </c>
       <c r="AM156" s="13">
-        <v>76390800</v>
+        <v>74609564</v>
       </c>
       <c r="AN156" s="13">
-        <v>74609564</v>
+        <v>83769951</v>
       </c>
       <c r="AO156" s="13">
-        <v>83769951</v>
+        <v>94809455</v>
       </c>
       <c r="AP156" s="13">
-        <v>94809455</v>
+        <v>90293408</v>
       </c>
       <c r="AQ156" s="13">
-        <v>90293408</v>
+        <v>91919081</v>
       </c>
       <c r="AR156" s="13">
-        <v>91919081</v>
+        <v>97691027</v>
       </c>
       <c r="AS156" s="13">
-        <v>97691027</v>
+        <v>106190546</v>
       </c>
       <c r="AT156" s="13">
-        <v>106061795</v>
+        <v>113016129</v>
       </c>
       <c r="AU156" s="13">
-        <v>113016129</v>
+        <v>149679441</v>
       </c>
       <c r="AV156" s="13">
-        <v>149679441</v>
+        <v>138660326</v>
       </c>
       <c r="AW156" s="13">
-        <v>138660326</v>
+        <v>138796136</v>
       </c>
       <c r="AX156" s="13">
-        <v>138796136</v>
+        <v>120119543</v>
       </c>
       <c r="AY156" s="13">
-        <v>120119543</v>
+        <v>115839436</v>
       </c>
       <c r="AZ156" s="13">
-        <v>115839436</v>
+        <v>88916279</v>
       </c>
       <c r="BA156" s="13">
-        <v>88916279</v>
+        <v>88332761</v>
       </c>
       <c r="BB156" s="13">
-        <v>88332761</v>
+        <v>90930084</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
+++ b/database/industries/ravankar/shaspa/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18752591-A23E-42CA-9377-D36B4EF1983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D0B64-5D0B-497F-B193-25887EAA3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1534,29 +1534,29 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>24</v>
       </c>
       <c r="Z11" s="11">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="11">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="AB11" s="11">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AC11" s="11">
-        <v>382</v>
+        <v>541</v>
       </c>
       <c r="AD11" s="11">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="AE11" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AF11" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
         <v>0</v>
@@ -1565,34 +1565,34 @@
         <v>0</v>
       </c>
       <c r="AI11" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ11" s="11">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AK11" s="11">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="AL11" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="AM11" s="11">
-        <v>208</v>
+        <v>617</v>
       </c>
       <c r="AN11" s="11">
-        <v>617</v>
+        <v>134</v>
       </c>
       <c r="AO11" s="11">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="AP11" s="11">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="AQ11" s="11">
-        <v>122</v>
-      </c>
-      <c r="AR11" s="11">
         <v>56</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
@@ -1693,35 +1693,35 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>11481</v>
       </c>
       <c r="Z12" s="13">
-        <v>11481</v>
+        <v>21747</v>
       </c>
       <c r="AA12" s="13">
-        <v>21747</v>
+        <v>18525</v>
       </c>
       <c r="AB12" s="13">
-        <v>18525</v>
+        <v>20495</v>
       </c>
       <c r="AC12" s="13">
-        <v>20495</v>
+        <v>19273</v>
       </c>
       <c r="AD12" s="13">
-        <v>19273</v>
+        <v>19556</v>
       </c>
       <c r="AE12" s="13">
-        <v>19556</v>
+        <v>12956</v>
       </c>
       <c r="AF12" s="13">
-        <v>12956</v>
+        <v>22372</v>
       </c>
       <c r="AG12" s="13">
-        <v>22372</v>
-      </c>
-      <c r="AH12" s="13">
         <v>18466</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI12" s="13" t="s">
         <v>58</v>
@@ -1879,68 +1879,68 @@
       <c r="AG13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>58</v>
+      <c r="AH13" s="11">
+        <v>5876</v>
       </c>
       <c r="AI13" s="11">
-        <v>5876</v>
+        <v>5313</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5313</v>
+        <v>10291</v>
       </c>
       <c r="AK13" s="11">
-        <v>10291</v>
+        <v>8840</v>
       </c>
       <c r="AL13" s="11">
-        <v>8840</v>
+        <v>9104</v>
       </c>
       <c r="AM13" s="11">
-        <v>9104</v>
+        <v>2955</v>
       </c>
       <c r="AN13" s="11">
-        <v>2955</v>
+        <v>7012</v>
       </c>
       <c r="AO13" s="11">
-        <v>7012</v>
+        <v>9615</v>
       </c>
       <c r="AP13" s="11">
-        <v>9615</v>
+        <v>7033</v>
       </c>
       <c r="AQ13" s="11">
-        <v>7033</v>
+        <v>6602</v>
       </c>
       <c r="AR13" s="11">
-        <v>6602</v>
+        <v>9863</v>
       </c>
       <c r="AS13" s="11">
-        <v>9863</v>
+        <v>2252</v>
       </c>
       <c r="AT13" s="11">
-        <v>2252</v>
+        <v>6552</v>
       </c>
       <c r="AU13" s="11">
-        <v>6552</v>
+        <v>4786</v>
       </c>
       <c r="AV13" s="11">
-        <v>4786</v>
+        <v>2048</v>
       </c>
       <c r="AW13" s="11">
-        <v>2048</v>
+        <v>4375</v>
       </c>
       <c r="AX13" s="11">
-        <v>4375</v>
+        <v>5149</v>
       </c>
       <c r="AY13" s="11">
-        <v>5149</v>
+        <v>5378</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5378</v>
+        <v>7176</v>
       </c>
       <c r="BA13" s="11">
-        <v>7176</v>
+        <v>4658</v>
       </c>
       <c r="BB13" s="11">
-        <v>4658</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2038,68 +2038,68 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
+      <c r="AH14" s="13">
+        <v>2332</v>
       </c>
       <c r="AI14" s="13">
-        <v>2332</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="13">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="AK14" s="13">
-        <v>873</v>
+        <v>1769</v>
       </c>
       <c r="AL14" s="13">
-        <v>1769</v>
+        <v>1047</v>
       </c>
       <c r="AM14" s="13">
-        <v>1047</v>
-      </c>
-      <c r="AN14" s="13">
         <v>1285</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
+      <c r="AN14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>868</v>
       </c>
       <c r="AP14" s="13">
-        <v>868</v>
+        <v>1108</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1108</v>
+        <v>80</v>
       </c>
       <c r="AR14" s="13">
-        <v>80</v>
+        <v>-231</v>
       </c>
       <c r="AS14" s="13">
-        <v>-231</v>
+        <v>483</v>
       </c>
       <c r="AT14" s="13">
-        <v>483</v>
+        <v>361</v>
       </c>
       <c r="AU14" s="13">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="AV14" s="13">
-        <v>270</v>
+        <v>530</v>
       </c>
       <c r="AW14" s="13">
-        <v>530</v>
+        <v>719</v>
       </c>
       <c r="AX14" s="13">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="AY14" s="13">
-        <v>686</v>
+        <v>1693</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1693</v>
+        <v>2046</v>
       </c>
       <c r="BA14" s="13">
-        <v>2046</v>
+        <v>1121</v>
       </c>
       <c r="BB14" s="13">
-        <v>1121</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2170,95 +2170,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>0</v>
       </c>
       <c r="Z15" s="11">
         <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AB15" s="11">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AE15" s="11">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="AF15" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AH15" s="11">
+        <v>52</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>144</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>148</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>70</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>147</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>86</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>48</v>
+      </c>
+      <c r="BB15" s="11">
         <v>136</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>52</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>144</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>148</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>45</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>70</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>147</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>86</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>3</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2386,38 +2386,38 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>0</v>
       </c>
       <c r="AS16" s="13">
         <v>0</v>
       </c>
       <c r="AT16" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU16" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="13">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AW16" s="13">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="AX16" s="13">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="AY16" s="13">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="BA16" s="13">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BB16" s="13">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2515,68 +2515,68 @@
       <c r="AG17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
+      <c r="AH17" s="11">
+        <v>941</v>
       </c>
       <c r="AI17" s="11">
-        <v>941</v>
+        <v>1316</v>
       </c>
       <c r="AJ17" s="11">
-        <v>1316</v>
+        <v>2081</v>
       </c>
       <c r="AK17" s="11">
-        <v>2081</v>
+        <v>1526</v>
       </c>
       <c r="AL17" s="11">
-        <v>1526</v>
+        <v>1196</v>
       </c>
       <c r="AM17" s="11">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="11">
-        <v>0</v>
+        <v>1442</v>
       </c>
       <c r="AO17" s="11">
-        <v>1442</v>
+        <v>1024</v>
       </c>
       <c r="AP17" s="11">
-        <v>1024</v>
+        <v>879</v>
       </c>
       <c r="AQ17" s="11">
-        <v>879</v>
+        <v>2494</v>
       </c>
       <c r="AR17" s="11">
-        <v>2494</v>
+        <v>1972</v>
       </c>
       <c r="AS17" s="11">
-        <v>1972</v>
+        <v>1769</v>
       </c>
       <c r="AT17" s="11">
-        <v>1769</v>
+        <v>1811</v>
       </c>
       <c r="AU17" s="11">
-        <v>1811</v>
+        <v>2836</v>
       </c>
       <c r="AV17" s="11">
-        <v>2836</v>
+        <v>3838</v>
       </c>
       <c r="AW17" s="11">
-        <v>3838</v>
+        <v>1004</v>
       </c>
       <c r="AX17" s="11">
-        <v>1004</v>
+        <v>367</v>
       </c>
       <c r="AY17" s="11">
-        <v>367</v>
+        <v>519</v>
       </c>
       <c r="AZ17" s="11">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="11">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BB17" s="11">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2647,35 +2647,35 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>3534</v>
       </c>
       <c r="Z18" s="13">
-        <v>3534</v>
+        <v>1287</v>
       </c>
       <c r="AA18" s="13">
-        <v>1287</v>
+        <v>1365</v>
       </c>
       <c r="AB18" s="13">
-        <v>1365</v>
+        <v>1885</v>
       </c>
       <c r="AC18" s="13">
-        <v>1885</v>
+        <v>2134</v>
       </c>
       <c r="AD18" s="13">
-        <v>2134</v>
+        <v>1401</v>
       </c>
       <c r="AE18" s="13">
-        <v>1401</v>
+        <v>2278</v>
       </c>
       <c r="AF18" s="13">
-        <v>2278</v>
+        <v>773</v>
       </c>
       <c r="AG18" s="13">
-        <v>773</v>
-      </c>
-      <c r="AH18" s="13">
         <v>2224</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2833,68 +2833,68 @@
       <c r="AG19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>58</v>
+      <c r="AH19" s="11">
+        <v>6493</v>
       </c>
       <c r="AI19" s="11">
-        <v>6493</v>
+        <v>3941</v>
       </c>
       <c r="AJ19" s="11">
-        <v>3941</v>
+        <v>7096</v>
       </c>
       <c r="AK19" s="11">
-        <v>7096</v>
+        <v>10541</v>
       </c>
       <c r="AL19" s="11">
-        <v>10541</v>
+        <v>7682</v>
       </c>
       <c r="AM19" s="11">
-        <v>7682</v>
+        <v>5556</v>
       </c>
       <c r="AN19" s="11">
-        <v>5556</v>
+        <v>5091</v>
       </c>
       <c r="AO19" s="11">
-        <v>5091</v>
+        <v>5811</v>
       </c>
       <c r="AP19" s="11">
-        <v>5811</v>
+        <v>6272</v>
       </c>
       <c r="AQ19" s="11">
-        <v>6272</v>
+        <v>3833</v>
       </c>
       <c r="AR19" s="11">
-        <v>3833</v>
+        <v>3498</v>
       </c>
       <c r="AS19" s="11">
-        <v>3498</v>
+        <v>3355</v>
       </c>
       <c r="AT19" s="11">
-        <v>3355</v>
+        <v>3455</v>
       </c>
       <c r="AU19" s="11">
-        <v>3455</v>
+        <v>2390</v>
       </c>
       <c r="AV19" s="11">
-        <v>2390</v>
+        <v>6031</v>
       </c>
       <c r="AW19" s="11">
-        <v>6031</v>
+        <v>4791</v>
       </c>
       <c r="AX19" s="11">
-        <v>4791</v>
+        <v>6852</v>
       </c>
       <c r="AY19" s="11">
-        <v>6852</v>
+        <v>9144</v>
       </c>
       <c r="AZ19" s="11">
-        <v>9144</v>
+        <v>3913</v>
       </c>
       <c r="BA19" s="11">
-        <v>3913</v>
+        <v>2246</v>
       </c>
       <c r="BB19" s="11">
-        <v>2246</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2992,68 +2992,68 @@
       <c r="AG20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>58</v>
+      <c r="AH20" s="13">
+        <v>7297</v>
       </c>
       <c r="AI20" s="13">
-        <v>7297</v>
+        <v>2089</v>
       </c>
       <c r="AJ20" s="13">
-        <v>2089</v>
+        <v>4251</v>
       </c>
       <c r="AK20" s="13">
-        <v>4251</v>
+        <v>5638</v>
       </c>
       <c r="AL20" s="13">
-        <v>5638</v>
+        <v>6138</v>
       </c>
       <c r="AM20" s="13">
-        <v>6138</v>
+        <v>2178</v>
       </c>
       <c r="AN20" s="13">
-        <v>2178</v>
+        <v>5149</v>
       </c>
       <c r="AO20" s="13">
-        <v>5149</v>
+        <v>4125</v>
       </c>
       <c r="AP20" s="13">
-        <v>4125</v>
+        <v>2818</v>
       </c>
       <c r="AQ20" s="13">
-        <v>2818</v>
+        <v>5802</v>
       </c>
       <c r="AR20" s="13">
-        <v>5802</v>
+        <v>4307</v>
       </c>
       <c r="AS20" s="13">
-        <v>4307</v>
+        <v>3568</v>
       </c>
       <c r="AT20" s="13">
-        <v>3568</v>
+        <v>2446</v>
       </c>
       <c r="AU20" s="13">
-        <v>2446</v>
+        <v>4193</v>
       </c>
       <c r="AV20" s="13">
-        <v>4193</v>
+        <v>3176</v>
       </c>
       <c r="AW20" s="13">
-        <v>3176</v>
+        <v>2642</v>
       </c>
       <c r="AX20" s="13">
-        <v>2642</v>
+        <v>6646</v>
       </c>
       <c r="AY20" s="13">
-        <v>6646</v>
+        <v>6497</v>
       </c>
       <c r="AZ20" s="13">
-        <v>6497</v>
+        <v>6651</v>
       </c>
       <c r="BA20" s="13">
-        <v>6651</v>
+        <v>7808</v>
       </c>
       <c r="BB20" s="13">
-        <v>7808</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3151,68 +3151,68 @@
       <c r="AG21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>58</v>
+      <c r="AH21" s="11">
+        <v>2541</v>
       </c>
       <c r="AI21" s="11">
-        <v>2541</v>
+        <v>2391</v>
       </c>
       <c r="AJ21" s="11">
-        <v>2391</v>
+        <v>1973</v>
       </c>
       <c r="AK21" s="11">
-        <v>1973</v>
+        <v>3224</v>
       </c>
       <c r="AL21" s="11">
-        <v>3224</v>
+        <v>2955</v>
       </c>
       <c r="AM21" s="11">
-        <v>2955</v>
+        <v>2096</v>
       </c>
       <c r="AN21" s="11">
-        <v>2096</v>
+        <v>2824</v>
       </c>
       <c r="AO21" s="11">
-        <v>2824</v>
+        <v>1762</v>
       </c>
       <c r="AP21" s="11">
-        <v>1762</v>
+        <v>1838</v>
       </c>
       <c r="AQ21" s="11">
-        <v>1838</v>
+        <v>1222</v>
       </c>
       <c r="AR21" s="11">
-        <v>1222</v>
+        <v>2695</v>
       </c>
       <c r="AS21" s="11">
-        <v>2695</v>
+        <v>810</v>
       </c>
       <c r="AT21" s="11">
-        <v>810</v>
+        <v>1503</v>
       </c>
       <c r="AU21" s="11">
-        <v>1503</v>
+        <v>2330</v>
       </c>
       <c r="AV21" s="11">
-        <v>2330</v>
+        <v>2315</v>
       </c>
       <c r="AW21" s="11">
-        <v>2315</v>
+        <v>1504</v>
       </c>
       <c r="AX21" s="11">
-        <v>1504</v>
+        <v>1543</v>
       </c>
       <c r="AY21" s="11">
-        <v>1543</v>
+        <v>1818</v>
       </c>
       <c r="AZ21" s="11">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="BA21" s="11">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="BB21" s="11">
-        <v>1693</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3310,68 +3310,68 @@
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
+      <c r="AH22" s="13">
+        <v>1048</v>
       </c>
       <c r="AI22" s="13">
-        <v>1048</v>
+        <v>490</v>
       </c>
       <c r="AJ22" s="13">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="AK22" s="13">
-        <v>461</v>
+        <v>1127</v>
       </c>
       <c r="AL22" s="13">
-        <v>1127</v>
+        <v>1322</v>
       </c>
       <c r="AM22" s="13">
-        <v>1322</v>
+        <v>572</v>
       </c>
       <c r="AN22" s="13">
-        <v>572</v>
+        <v>351</v>
       </c>
       <c r="AO22" s="13">
-        <v>351</v>
+        <v>693</v>
       </c>
       <c r="AP22" s="13">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AQ22" s="13">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="AR22" s="13">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="AS22" s="13">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="AT22" s="13">
-        <v>397</v>
+        <v>778</v>
       </c>
       <c r="AU22" s="13">
-        <v>778</v>
+        <v>888</v>
       </c>
       <c r="AV22" s="13">
-        <v>888</v>
+        <v>1604</v>
       </c>
       <c r="AW22" s="13">
-        <v>1604</v>
+        <v>204</v>
       </c>
       <c r="AX22" s="13">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AY22" s="13">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="AZ22" s="13">
-        <v>178</v>
+        <v>1466</v>
       </c>
       <c r="BA22" s="13">
-        <v>1466</v>
+        <v>699</v>
       </c>
       <c r="BB22" s="13">
-        <v>699</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3469,68 +3469,68 @@
       <c r="AG23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>58</v>
+      <c r="AH23" s="11">
+        <v>2602</v>
       </c>
       <c r="AI23" s="11">
-        <v>2602</v>
+        <v>1136</v>
       </c>
       <c r="AJ23" s="11">
-        <v>1136</v>
+        <v>2223</v>
       </c>
       <c r="AK23" s="11">
-        <v>2223</v>
+        <v>2885</v>
       </c>
       <c r="AL23" s="11">
-        <v>2885</v>
+        <v>2196</v>
       </c>
       <c r="AM23" s="11">
-        <v>2196</v>
+        <v>1212</v>
       </c>
       <c r="AN23" s="11">
-        <v>1212</v>
+        <v>1271</v>
       </c>
       <c r="AO23" s="11">
-        <v>1271</v>
+        <v>1446</v>
       </c>
       <c r="AP23" s="11">
-        <v>1446</v>
+        <v>1308</v>
       </c>
       <c r="AQ23" s="11">
-        <v>1308</v>
+        <v>1448</v>
       </c>
       <c r="AR23" s="11">
-        <v>1448</v>
+        <v>402</v>
       </c>
       <c r="AS23" s="11">
-        <v>402</v>
+        <v>1855</v>
       </c>
       <c r="AT23" s="11">
-        <v>1855</v>
+        <v>718</v>
       </c>
       <c r="AU23" s="11">
-        <v>718</v>
+        <v>1104</v>
       </c>
       <c r="AV23" s="11">
-        <v>1104</v>
+        <v>1894</v>
       </c>
       <c r="AW23" s="11">
-        <v>1894</v>
+        <v>744</v>
       </c>
       <c r="AX23" s="11">
-        <v>744</v>
+        <v>1108</v>
       </c>
       <c r="AY23" s="11">
-        <v>1108</v>
+        <v>2967</v>
       </c>
       <c r="AZ23" s="11">
-        <v>2967</v>
+        <v>4555</v>
       </c>
       <c r="BA23" s="11">
-        <v>4555</v>
+        <v>3312</v>
       </c>
       <c r="BB23" s="11">
-        <v>3312</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3628,44 +3628,44 @@
       <c r="AG24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="13" t="s">
-        <v>58</v>
+      <c r="AH24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>800</v>
       </c>
       <c r="AK24" s="13">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="13">
         <v>1034</v>
       </c>
-      <c r="AN24" s="13" t="s">
-        <v>58</v>
+      <c r="AM24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN24" s="13">
+        <v>475</v>
       </c>
       <c r="AO24" s="13">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="13">
         <v>494</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AQ24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>0</v>
       </c>
-      <c r="AT24" s="13">
-        <v>0</v>
+      <c r="AT24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU24" s="13" t="s">
         <v>58</v>
@@ -3759,94 +3759,94 @@
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <v>0</v>
+        <v>15039</v>
       </c>
       <c r="Z25" s="15">
-        <v>15039</v>
+        <v>23224</v>
       </c>
       <c r="AA25" s="15">
-        <v>23224</v>
+        <v>20498</v>
       </c>
       <c r="AB25" s="15">
-        <v>20498</v>
+        <v>22774</v>
       </c>
       <c r="AC25" s="15">
-        <v>22774</v>
+        <v>21948</v>
       </c>
       <c r="AD25" s="15">
-        <v>21948</v>
+        <v>21137</v>
       </c>
       <c r="AE25" s="15">
-        <v>21137</v>
+        <v>15411</v>
       </c>
       <c r="AF25" s="15">
-        <v>15411</v>
+        <v>23145</v>
       </c>
       <c r="AG25" s="15">
-        <v>23145</v>
+        <v>20826</v>
       </c>
       <c r="AH25" s="15">
-        <v>20826</v>
+        <v>29182</v>
       </c>
       <c r="AI25" s="15">
-        <v>29182</v>
+        <v>16827</v>
       </c>
       <c r="AJ25" s="15">
-        <v>16827</v>
+        <v>30225</v>
       </c>
       <c r="AK25" s="15">
-        <v>30225</v>
+        <v>35703</v>
       </c>
       <c r="AL25" s="15">
-        <v>35703</v>
+        <v>32882</v>
       </c>
       <c r="AM25" s="15">
-        <v>32882</v>
+        <v>16471</v>
       </c>
       <c r="AN25" s="15">
-        <v>16471</v>
+        <v>23749</v>
       </c>
       <c r="AO25" s="15">
-        <v>23749</v>
+        <v>25695</v>
       </c>
       <c r="AP25" s="15">
-        <v>25695</v>
+        <v>22624</v>
       </c>
       <c r="AQ25" s="15">
-        <v>22624</v>
+        <v>22223</v>
       </c>
       <c r="AR25" s="15">
-        <v>22223</v>
+        <v>23194</v>
       </c>
       <c r="AS25" s="15">
-        <v>23194</v>
+        <v>14575</v>
       </c>
       <c r="AT25" s="15">
-        <v>14575</v>
+        <v>17646</v>
       </c>
       <c r="AU25" s="15">
-        <v>17646</v>
+        <v>18797</v>
       </c>
       <c r="AV25" s="15">
-        <v>18797</v>
+        <v>21559</v>
       </c>
       <c r="AW25" s="15">
-        <v>21559</v>
+        <v>16328</v>
       </c>
       <c r="AX25" s="15">
-        <v>16328</v>
+        <v>22595</v>
       </c>
       <c r="AY25" s="15">
-        <v>22595</v>
+        <v>28195</v>
       </c>
       <c r="AZ25" s="15">
-        <v>28195</v>
+        <v>27674</v>
       </c>
       <c r="BA25" s="15">
-        <v>27674</v>
+        <v>21673</v>
       </c>
       <c r="BB25" s="15">
-        <v>21673</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3974,35 +3974,35 @@
       <c r="X27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="11" t="s">
-        <v>58</v>
+      <c r="Y27" s="11">
+        <v>28664</v>
       </c>
       <c r="Z27" s="11">
-        <v>28664</v>
+        <v>40201</v>
       </c>
       <c r="AA27" s="11">
-        <v>40201</v>
+        <v>34022</v>
       </c>
       <c r="AB27" s="11">
-        <v>34022</v>
+        <v>44815</v>
       </c>
       <c r="AC27" s="11">
-        <v>44815</v>
+        <v>38967</v>
       </c>
       <c r="AD27" s="11">
-        <v>38967</v>
+        <v>36319</v>
       </c>
       <c r="AE27" s="11">
-        <v>36319</v>
+        <v>35970</v>
       </c>
       <c r="AF27" s="11">
-        <v>35970</v>
+        <v>29636</v>
       </c>
       <c r="AG27" s="11">
-        <v>29636</v>
-      </c>
-      <c r="AH27" s="11">
         <v>28049</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>58</v>
@@ -4160,68 +4160,68 @@
       <c r="AG28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH28" s="13" t="s">
-        <v>58</v>
+      <c r="AH28" s="13">
+        <v>19808</v>
       </c>
       <c r="AI28" s="13">
-        <v>19808</v>
+        <v>16697</v>
       </c>
       <c r="AJ28" s="13">
-        <v>16697</v>
+        <v>12377</v>
       </c>
       <c r="AK28" s="13">
-        <v>12377</v>
+        <v>22853</v>
       </c>
       <c r="AL28" s="13">
-        <v>22853</v>
+        <v>14256</v>
       </c>
       <c r="AM28" s="13">
-        <v>14256</v>
+        <v>21977</v>
       </c>
       <c r="AN28" s="13">
-        <v>21977</v>
+        <v>17835</v>
       </c>
       <c r="AO28" s="13">
-        <v>17835</v>
+        <v>24816</v>
       </c>
       <c r="AP28" s="13">
-        <v>24816</v>
+        <v>16846</v>
       </c>
       <c r="AQ28" s="13">
-        <v>16846</v>
+        <v>16772</v>
       </c>
       <c r="AR28" s="13">
-        <v>16772</v>
+        <v>17388</v>
       </c>
       <c r="AS28" s="13">
-        <v>17388</v>
+        <v>20977</v>
       </c>
       <c r="AT28" s="13">
-        <v>20977</v>
+        <v>22174</v>
       </c>
       <c r="AU28" s="13">
-        <v>22174</v>
+        <v>22345</v>
       </c>
       <c r="AV28" s="13">
-        <v>22345</v>
+        <v>21713</v>
       </c>
       <c r="AW28" s="13">
-        <v>21713</v>
+        <v>24845</v>
       </c>
       <c r="AX28" s="13">
-        <v>24845</v>
+        <v>13557</v>
       </c>
       <c r="AY28" s="13">
-        <v>13557</v>
+        <v>9833</v>
       </c>
       <c r="AZ28" s="13">
-        <v>9833</v>
+        <v>16417</v>
       </c>
       <c r="BA28" s="13">
-        <v>16417</v>
+        <v>14837</v>
       </c>
       <c r="BB28" s="13">
-        <v>14837</v>
+        <v>10820</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4319,68 +4319,68 @@
       <c r="AG29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH29" s="11" t="s">
-        <v>58</v>
+      <c r="AH29" s="11">
+        <v>549</v>
       </c>
       <c r="AI29" s="11">
-        <v>549</v>
+        <v>1600</v>
       </c>
       <c r="AJ29" s="11">
-        <v>1600</v>
+        <v>1276</v>
       </c>
       <c r="AK29" s="11">
-        <v>1276</v>
+        <v>510</v>
       </c>
       <c r="AL29" s="11">
-        <v>510</v>
+        <v>1154</v>
       </c>
       <c r="AM29" s="11">
-        <v>1154</v>
+        <v>1236</v>
       </c>
       <c r="AN29" s="11">
-        <v>1236</v>
+        <v>1335</v>
       </c>
       <c r="AO29" s="11">
-        <v>1335</v>
+        <v>1152</v>
       </c>
       <c r="AP29" s="11">
-        <v>1152</v>
+        <v>1867</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1867</v>
+        <v>725</v>
       </c>
       <c r="AR29" s="11">
-        <v>725</v>
+        <v>862</v>
       </c>
       <c r="AS29" s="11">
-        <v>862</v>
+        <v>545</v>
       </c>
       <c r="AT29" s="11">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="AU29" s="11">
-        <v>413</v>
+        <v>1430</v>
       </c>
       <c r="AV29" s="11">
-        <v>1430</v>
+        <v>498</v>
       </c>
       <c r="AW29" s="11">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="AX29" s="11">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="AY29" s="11">
-        <v>457</v>
+        <v>2243</v>
       </c>
       <c r="AZ29" s="11">
-        <v>2243</v>
+        <v>4204</v>
       </c>
       <c r="BA29" s="11">
-        <v>4204</v>
+        <v>2174</v>
       </c>
       <c r="BB29" s="11">
-        <v>2174</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4478,68 +4478,68 @@
       <c r="AG30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH30" s="13" t="s">
-        <v>58</v>
+      <c r="AH30" s="13">
+        <v>1574</v>
       </c>
       <c r="AI30" s="13">
-        <v>1574</v>
+        <v>2715</v>
       </c>
       <c r="AJ30" s="13">
-        <v>2715</v>
+        <v>1654</v>
       </c>
       <c r="AK30" s="13">
-        <v>1654</v>
+        <v>2204</v>
       </c>
       <c r="AL30" s="13">
-        <v>2204</v>
+        <v>2353</v>
       </c>
       <c r="AM30" s="13">
-        <v>2353</v>
+        <v>2789</v>
       </c>
       <c r="AN30" s="13">
-        <v>2789</v>
+        <v>2843</v>
       </c>
       <c r="AO30" s="13">
-        <v>2843</v>
+        <v>2415</v>
       </c>
       <c r="AP30" s="13">
-        <v>2415</v>
+        <v>1805</v>
       </c>
       <c r="AQ30" s="13">
-        <v>1805</v>
+        <v>1672</v>
       </c>
       <c r="AR30" s="13">
-        <v>1672</v>
+        <v>2561</v>
       </c>
       <c r="AS30" s="13">
-        <v>2561</v>
+        <v>1748</v>
       </c>
       <c r="AT30" s="13">
-        <v>1748</v>
+        <v>3506</v>
       </c>
       <c r="AU30" s="13">
-        <v>3506</v>
+        <v>1668</v>
       </c>
       <c r="AV30" s="13">
-        <v>1668</v>
+        <v>668</v>
       </c>
       <c r="AW30" s="13">
-        <v>668</v>
+        <v>1279</v>
       </c>
       <c r="AX30" s="13">
-        <v>1279</v>
+        <v>2975</v>
       </c>
       <c r="AY30" s="13">
-        <v>2975</v>
+        <v>549</v>
       </c>
       <c r="AZ30" s="13">
-        <v>549</v>
+        <v>230</v>
       </c>
       <c r="BA30" s="13">
-        <v>230</v>
+        <v>2308</v>
       </c>
       <c r="BB30" s="13">
-        <v>2308</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4610,35 +4610,35 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>1356</v>
       </c>
       <c r="Z31" s="11">
-        <v>1356</v>
+        <v>4274</v>
       </c>
       <c r="AA31" s="11">
-        <v>4274</v>
+        <v>4182</v>
       </c>
       <c r="AB31" s="11">
-        <v>4182</v>
+        <v>3639</v>
       </c>
       <c r="AC31" s="11">
-        <v>3639</v>
+        <v>3199</v>
       </c>
       <c r="AD31" s="11">
-        <v>3199</v>
+        <v>3661</v>
       </c>
       <c r="AE31" s="11">
-        <v>3661</v>
+        <v>4235</v>
       </c>
       <c r="AF31" s="11">
-        <v>4235</v>
+        <v>3472</v>
       </c>
       <c r="AG31" s="11">
-        <v>3472</v>
-      </c>
-      <c r="AH31" s="11">
         <v>2998</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
@@ -4796,68 +4796,68 @@
       <c r="AG32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI32" s="13">
+      <c r="AH32" s="13">
         <v>289</v>
       </c>
+      <c r="AI32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK32" s="13" t="s">
-        <v>58</v>
+      <c r="AK32" s="13">
+        <v>88</v>
       </c>
       <c r="AL32" s="13">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AM32" s="13">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="AN32" s="13">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="AO32" s="13">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AP32" s="13">
-        <v>74</v>
-      </c>
-      <c r="AQ32" s="13">
         <v>75</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>58</v>
+      <c r="AQ32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>11</v>
       </c>
       <c r="AS32" s="13">
+        <v>27</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>166</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>-13</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>25</v>
+      </c>
+      <c r="AX32" s="13">
         <v>11</v>
-      </c>
-      <c r="AT32" s="13">
-        <v>27</v>
-      </c>
-      <c r="AU32" s="13">
-        <v>166</v>
-      </c>
-      <c r="AV32" s="13">
-        <v>-13</v>
-      </c>
-      <c r="AW32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="13">
-        <v>25</v>
       </c>
       <c r="AY32" s="13">
         <v>11</v>
       </c>
       <c r="AZ32" s="13">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="BA32" s="13">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="BB32" s="13">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4955,68 +4955,68 @@
       <c r="AG33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI33" s="11">
+      <c r="AH33" s="11">
         <v>2157</v>
       </c>
-      <c r="AJ33" s="11" t="s">
-        <v>58</v>
+      <c r="AI33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>1001</v>
       </c>
       <c r="AK33" s="11">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="AL33" s="11">
-        <v>860</v>
+        <v>1494</v>
       </c>
       <c r="AM33" s="11">
-        <v>1494</v>
+        <v>1552</v>
       </c>
       <c r="AN33" s="11">
-        <v>1552</v>
+        <v>638</v>
       </c>
       <c r="AO33" s="11">
-        <v>638</v>
+        <v>993</v>
       </c>
       <c r="AP33" s="11">
-        <v>993</v>
+        <v>660</v>
       </c>
       <c r="AQ33" s="11">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="AR33" s="11">
-        <v>574</v>
+        <v>1008</v>
       </c>
       <c r="AS33" s="11">
-        <v>1008</v>
+        <v>234</v>
       </c>
       <c r="AT33" s="11">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AU33" s="11">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="AV33" s="11">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="AW33" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AX33" s="11">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="AY33" s="11">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="AZ33" s="11">
-        <v>291</v>
+        <v>900</v>
       </c>
       <c r="BA33" s="11">
-        <v>900</v>
+        <v>1936</v>
       </c>
       <c r="BB33" s="11">
-        <v>1936</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -5129,29 +5129,29 @@
       <c r="AL34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN34" s="13">
+      <c r="AM34" s="13">
         <v>43</v>
       </c>
-      <c r="AO34" s="13" t="s">
-        <v>58</v>
+      <c r="AN34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>4</v>
       </c>
       <c r="AP34" s="13">
-        <v>4</v>
-      </c>
-      <c r="AQ34" s="13">
         <v>6</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
+      <c r="AQ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>-2</v>
       </c>
       <c r="AS34" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU34" s="13" t="s">
         <v>58</v>
@@ -5171,11 +5171,11 @@
       <c r="AZ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB34" s="13" t="s">
-        <v>58</v>
+      <c r="BA34" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="13">
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -5273,11 +5273,11 @@
       <c r="AG35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>0</v>
+      <c r="AH35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ35" s="11" t="s">
         <v>58</v>
@@ -5288,29 +5288,29 @@
       <c r="AL35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN35" s="11">
+      <c r="AM35" s="11">
         <v>20</v>
       </c>
-      <c r="AO35" s="11" t="s">
-        <v>58</v>
+      <c r="AN35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO35" s="11">
+        <v>3</v>
       </c>
       <c r="AP35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AQ35" s="11">
         <v>2</v>
       </c>
-      <c r="AR35" s="11" t="s">
-        <v>58</v>
+      <c r="AQ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>0</v>
       </c>
       <c r="AS35" s="11">
         <v>0</v>
       </c>
-      <c r="AT35" s="11">
-        <v>0</v>
+      <c r="AT35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU35" s="11" t="s">
         <v>58</v>
@@ -5324,8 +5324,8 @@
       <c r="AX35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY35" s="11" t="s">
-        <v>58</v>
+      <c r="AY35" s="11">
+        <v>0</v>
       </c>
       <c r="AZ35" s="11">
         <v>0</v>
@@ -5432,68 +5432,68 @@
       <c r="AG36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>58</v>
+      <c r="AH36" s="13">
+        <v>20270</v>
       </c>
       <c r="AI36" s="13">
-        <v>20270</v>
+        <v>8864</v>
       </c>
       <c r="AJ36" s="13">
-        <v>8864</v>
+        <v>19042</v>
       </c>
       <c r="AK36" s="13">
-        <v>19042</v>
+        <v>16552</v>
       </c>
       <c r="AL36" s="13">
-        <v>16552</v>
+        <v>18089</v>
       </c>
       <c r="AM36" s="13">
-        <v>18089</v>
+        <v>19128</v>
       </c>
       <c r="AN36" s="13">
-        <v>19128</v>
+        <v>29285</v>
       </c>
       <c r="AO36" s="13">
-        <v>29285</v>
+        <v>16229</v>
       </c>
       <c r="AP36" s="13">
-        <v>16229</v>
+        <v>14225</v>
       </c>
       <c r="AQ36" s="13">
-        <v>14225</v>
+        <v>13088</v>
       </c>
       <c r="AR36" s="13">
-        <v>13088</v>
+        <v>19758</v>
       </c>
       <c r="AS36" s="13">
-        <v>19758</v>
+        <v>14911</v>
       </c>
       <c r="AT36" s="13">
-        <v>14911</v>
+        <v>16342</v>
       </c>
       <c r="AU36" s="13">
-        <v>16342</v>
+        <v>15942</v>
       </c>
       <c r="AV36" s="13">
-        <v>15942</v>
+        <v>15934</v>
       </c>
       <c r="AW36" s="13">
-        <v>15934</v>
+        <v>14760</v>
       </c>
       <c r="AX36" s="13">
-        <v>14760</v>
+        <v>17072</v>
       </c>
       <c r="AY36" s="13">
-        <v>17072</v>
+        <v>14182</v>
       </c>
       <c r="AZ36" s="13">
-        <v>14182</v>
+        <v>15129</v>
       </c>
       <c r="BA36" s="13">
-        <v>15129</v>
+        <v>18301</v>
       </c>
       <c r="BB36" s="13">
-        <v>18301</v>
+        <v>19552</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5591,11 +5591,11 @@
       <c r="AG37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>0</v>
+      <c r="AH37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
@@ -5606,11 +5606,11 @@
       <c r="AL37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>0</v>
+      <c r="AM37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO37" s="11" t="s">
         <v>58</v>
@@ -5621,14 +5621,14 @@
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>0</v>
       </c>
       <c r="AS37" s="11">
         <v>0</v>
       </c>
-      <c r="AT37" s="11">
-        <v>0</v>
+      <c r="AT37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU37" s="11" t="s">
         <v>58</v>
@@ -5722,94 +5722,94 @@
         <v>0</v>
       </c>
       <c r="Y38" s="17">
-        <v>0</v>
+        <v>30020</v>
       </c>
       <c r="Z38" s="17">
-        <v>30020</v>
+        <v>44475</v>
       </c>
       <c r="AA38" s="17">
-        <v>44475</v>
+        <v>38204</v>
       </c>
       <c r="AB38" s="17">
-        <v>38204</v>
+        <v>48454</v>
       </c>
       <c r="AC38" s="17">
-        <v>48454</v>
+        <v>42166</v>
       </c>
       <c r="AD38" s="17">
-        <v>42166</v>
+        <v>39980</v>
       </c>
       <c r="AE38" s="17">
-        <v>39980</v>
+        <v>40205</v>
       </c>
       <c r="AF38" s="17">
-        <v>40205</v>
+        <v>33108</v>
       </c>
       <c r="AG38" s="17">
-        <v>33108</v>
+        <v>31047</v>
       </c>
       <c r="AH38" s="17">
-        <v>31047</v>
+        <v>44647</v>
       </c>
       <c r="AI38" s="17">
-        <v>44647</v>
+        <v>29876</v>
       </c>
       <c r="AJ38" s="17">
-        <v>29876</v>
+        <v>35350</v>
       </c>
       <c r="AK38" s="17">
-        <v>35350</v>
+        <v>43067</v>
       </c>
       <c r="AL38" s="17">
-        <v>43067</v>
+        <v>37410</v>
       </c>
       <c r="AM38" s="17">
-        <v>37410</v>
+        <v>47072</v>
       </c>
       <c r="AN38" s="17">
-        <v>47072</v>
+        <v>51938</v>
       </c>
       <c r="AO38" s="17">
-        <v>51938</v>
+        <v>45686</v>
       </c>
       <c r="AP38" s="17">
-        <v>45686</v>
+        <v>35486</v>
       </c>
       <c r="AQ38" s="17">
-        <v>35486</v>
+        <v>32831</v>
       </c>
       <c r="AR38" s="17">
-        <v>32831</v>
+        <v>41586</v>
       </c>
       <c r="AS38" s="17">
-        <v>41586</v>
+        <v>38442</v>
       </c>
       <c r="AT38" s="17">
-        <v>38442</v>
+        <v>42869</v>
       </c>
       <c r="AU38" s="17">
-        <v>42869</v>
+        <v>41566</v>
       </c>
       <c r="AV38" s="17">
-        <v>41566</v>
+        <v>38932</v>
       </c>
       <c r="AW38" s="17">
-        <v>38932</v>
+        <v>41113</v>
       </c>
       <c r="AX38" s="17">
-        <v>41113</v>
+        <v>34209</v>
       </c>
       <c r="AY38" s="17">
-        <v>34209</v>
+        <v>27109</v>
       </c>
       <c r="AZ38" s="17">
-        <v>27109</v>
+        <v>36921</v>
       </c>
       <c r="BA38" s="17">
-        <v>36921</v>
+        <v>39649</v>
       </c>
       <c r="BB38" s="17">
-        <v>39649</v>
+        <v>38762</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5935,8 +5935,8 @@
       <c r="X40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="15" t="s">
-        <v>58</v>
+      <c r="Y40" s="15">
+        <v>0</v>
       </c>
       <c r="Z40" s="15">
         <v>0</v>
@@ -6093,94 +6093,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="17">
-        <v>0</v>
+        <v>45059</v>
       </c>
       <c r="Z41" s="17">
-        <v>45059</v>
+        <v>67699</v>
       </c>
       <c r="AA41" s="17">
-        <v>67699</v>
+        <v>58702</v>
       </c>
       <c r="AB41" s="17">
-        <v>58702</v>
+        <v>71228</v>
       </c>
       <c r="AC41" s="17">
-        <v>71228</v>
+        <v>64114</v>
       </c>
       <c r="AD41" s="17">
-        <v>64114</v>
+        <v>61117</v>
       </c>
       <c r="AE41" s="17">
-        <v>61117</v>
+        <v>55616</v>
       </c>
       <c r="AF41" s="17">
-        <v>55616</v>
+        <v>56253</v>
       </c>
       <c r="AG41" s="17">
-        <v>56253</v>
+        <v>51873</v>
       </c>
       <c r="AH41" s="17">
-        <v>51873</v>
+        <v>73829</v>
       </c>
       <c r="AI41" s="17">
-        <v>73829</v>
+        <v>46703</v>
       </c>
       <c r="AJ41" s="17">
-        <v>46703</v>
+        <v>65575</v>
       </c>
       <c r="AK41" s="17">
-        <v>65575</v>
+        <v>78770</v>
       </c>
       <c r="AL41" s="17">
-        <v>78770</v>
+        <v>70292</v>
       </c>
       <c r="AM41" s="17">
-        <v>70292</v>
+        <v>63543</v>
       </c>
       <c r="AN41" s="17">
-        <v>63543</v>
+        <v>75687</v>
       </c>
       <c r="AO41" s="17">
-        <v>75687</v>
+        <v>71381</v>
       </c>
       <c r="AP41" s="17">
-        <v>71381</v>
+        <v>58110</v>
       </c>
       <c r="AQ41" s="17">
-        <v>58110</v>
+        <v>55054</v>
       </c>
       <c r="AR41" s="17">
-        <v>55054</v>
+        <v>64780</v>
       </c>
       <c r="AS41" s="17">
-        <v>64780</v>
+        <v>53017</v>
       </c>
       <c r="AT41" s="17">
-        <v>53017</v>
+        <v>60515</v>
       </c>
       <c r="AU41" s="17">
-        <v>60515</v>
+        <v>60363</v>
       </c>
       <c r="AV41" s="17">
-        <v>60363</v>
+        <v>60491</v>
       </c>
       <c r="AW41" s="17">
-        <v>60491</v>
+        <v>57441</v>
       </c>
       <c r="AX41" s="17">
-        <v>57441</v>
+        <v>56804</v>
       </c>
       <c r="AY41" s="17">
-        <v>56804</v>
+        <v>55304</v>
       </c>
       <c r="AZ41" s="17">
-        <v>55304</v>
+        <v>64595</v>
       </c>
       <c r="BA41" s="17">
-        <v>64595</v>
+        <v>61322</v>
       </c>
       <c r="BB41" s="17">
-        <v>61322</v>
+        <v>62595</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -6685,65 +6685,65 @@
       <c r="X48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>58</v>
+      <c r="Y48" s="11">
+        <v>32</v>
       </c>
       <c r="Z48" s="11">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="AA48" s="11">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="AB48" s="11">
-        <v>527</v>
+        <v>346</v>
       </c>
       <c r="AC48" s="11">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="AD48" s="11">
-        <v>399</v>
+        <v>237</v>
       </c>
       <c r="AE48" s="11">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="AF48" s="11">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="AG48" s="11">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AH48" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI48" s="11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="AJ48" s="11">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="AK48" s="11">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AL48" s="11">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="AM48" s="11">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AN48" s="11">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="AO48" s="11">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="AP48" s="11">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="AQ48" s="11">
-        <v>110</v>
-      </c>
-      <c r="AR48" s="11">
         <v>80</v>
+      </c>
+      <c r="AR48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS48" s="11" t="s">
         <v>58</v>
@@ -6844,35 +6844,35 @@
       <c r="X49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="13" t="s">
-        <v>58</v>
+      <c r="Y49" s="13">
+        <v>17730</v>
       </c>
       <c r="Z49" s="13">
-        <v>17730</v>
+        <v>17885</v>
       </c>
       <c r="AA49" s="13">
-        <v>17885</v>
+        <v>20634</v>
       </c>
       <c r="AB49" s="13">
-        <v>20634</v>
+        <v>19274</v>
       </c>
       <c r="AC49" s="13">
-        <v>19274</v>
+        <v>15894</v>
       </c>
       <c r="AD49" s="13">
-        <v>15894</v>
+        <v>17910</v>
       </c>
       <c r="AE49" s="13">
-        <v>17910</v>
+        <v>17648</v>
       </c>
       <c r="AF49" s="13">
-        <v>17648</v>
+        <v>20763</v>
       </c>
       <c r="AG49" s="13">
-        <v>20763</v>
-      </c>
-      <c r="AH49" s="13">
         <v>19829</v>
+      </c>
+      <c r="AH49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI49" s="13" t="s">
         <v>58</v>
@@ -7030,68 +7030,68 @@
       <c r="AG50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH50" s="11" t="s">
-        <v>58</v>
+      <c r="AH50" s="11">
+        <v>3973</v>
       </c>
       <c r="AI50" s="11">
-        <v>3973</v>
+        <v>4481</v>
       </c>
       <c r="AJ50" s="11">
-        <v>4481</v>
+        <v>9170</v>
       </c>
       <c r="AK50" s="11">
-        <v>9170</v>
+        <v>7474</v>
       </c>
       <c r="AL50" s="11">
-        <v>7474</v>
+        <v>6475</v>
       </c>
       <c r="AM50" s="11">
-        <v>6475</v>
+        <v>7932</v>
       </c>
       <c r="AN50" s="11">
-        <v>7932</v>
+        <v>5965</v>
       </c>
       <c r="AO50" s="11">
-        <v>5965</v>
+        <v>4899</v>
       </c>
       <c r="AP50" s="11">
-        <v>4899</v>
+        <v>10347</v>
       </c>
       <c r="AQ50" s="11">
-        <v>10347</v>
+        <v>5649</v>
       </c>
       <c r="AR50" s="11">
-        <v>5649</v>
+        <v>6452</v>
       </c>
       <c r="AS50" s="11">
-        <v>6452</v>
+        <v>3659</v>
       </c>
       <c r="AT50" s="11">
-        <v>3659</v>
+        <v>1804</v>
       </c>
       <c r="AU50" s="11">
-        <v>1804</v>
+        <v>5309</v>
       </c>
       <c r="AV50" s="11">
-        <v>5309</v>
+        <v>5872</v>
       </c>
       <c r="AW50" s="11">
-        <v>5872</v>
+        <v>5234</v>
       </c>
       <c r="AX50" s="11">
-        <v>5234</v>
+        <v>6437</v>
       </c>
       <c r="AY50" s="11">
-        <v>6437</v>
+        <v>7065</v>
       </c>
       <c r="AZ50" s="11">
-        <v>7065</v>
+        <v>5909</v>
       </c>
       <c r="BA50" s="11">
-        <v>5909</v>
+        <v>4714</v>
       </c>
       <c r="BB50" s="11">
-        <v>4714</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7189,68 +7189,68 @@
       <c r="AG51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH51" s="13" t="s">
-        <v>58</v>
+      <c r="AH51" s="13">
+        <v>841</v>
       </c>
       <c r="AI51" s="13">
-        <v>841</v>
+        <v>784</v>
       </c>
       <c r="AJ51" s="13">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="AK51" s="13">
-        <v>813</v>
+        <v>1811</v>
       </c>
       <c r="AL51" s="13">
-        <v>1811</v>
+        <v>649</v>
       </c>
       <c r="AM51" s="13">
-        <v>649</v>
+        <v>982</v>
       </c>
       <c r="AN51" s="13">
-        <v>982</v>
+        <v>45</v>
       </c>
       <c r="AO51" s="13">
+        <v>593</v>
+      </c>
+      <c r="AP51" s="13">
         <v>45</v>
       </c>
-      <c r="AP51" s="13">
-        <v>593</v>
-      </c>
       <c r="AQ51" s="13">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AR51" s="13">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="13">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="AT51" s="13">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="AU51" s="13">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="AV51" s="13">
-        <v>274</v>
+        <v>526</v>
       </c>
       <c r="AW51" s="13">
-        <v>526</v>
+        <v>708</v>
       </c>
       <c r="AX51" s="13">
-        <v>708</v>
+        <v>321</v>
       </c>
       <c r="AY51" s="13">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="AZ51" s="13">
-        <v>253</v>
+        <v>765</v>
       </c>
       <c r="BA51" s="13">
-        <v>765</v>
+        <v>227</v>
       </c>
       <c r="BB51" s="13">
-        <v>227</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7321,95 +7321,95 @@
       <c r="X52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="11" t="s">
-        <v>58</v>
+      <c r="Y52" s="11">
+        <v>63</v>
       </c>
       <c r="Z52" s="11">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="AA52" s="11">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="AB52" s="11">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="AC52" s="11">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="AD52" s="11">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AE52" s="11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AF52" s="11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AG52" s="11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AH52" s="11">
+        <v>106</v>
+      </c>
+      <c r="AI52" s="11">
+        <v>77</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>150</v>
+      </c>
+      <c r="AK52" s="11">
+        <v>110</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>13</v>
+      </c>
+      <c r="AM52" s="11">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="11">
+        <v>31</v>
+      </c>
+      <c r="AQ52" s="11">
+        <v>40</v>
+      </c>
+      <c r="AR52" s="11">
+        <v>75</v>
+      </c>
+      <c r="AS52" s="11">
+        <v>119</v>
+      </c>
+      <c r="AT52" s="11">
+        <v>14</v>
+      </c>
+      <c r="AU52" s="11">
+        <v>51</v>
+      </c>
+      <c r="AV52" s="11">
         <v>12</v>
       </c>
-      <c r="AI52" s="11">
-        <v>106</v>
-      </c>
-      <c r="AJ52" s="11">
-        <v>77</v>
-      </c>
-      <c r="AK52" s="11">
-        <v>150</v>
-      </c>
-      <c r="AL52" s="11">
-        <v>110</v>
-      </c>
-      <c r="AM52" s="11">
-        <v>13</v>
-      </c>
-      <c r="AN52" s="11">
+      <c r="AW52" s="11">
+        <v>4</v>
+      </c>
+      <c r="AX52" s="11">
         <v>2</v>
       </c>
-      <c r="AO52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="11">
-        <v>31</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>40</v>
-      </c>
-      <c r="AS52" s="11">
-        <v>75</v>
-      </c>
-      <c r="AT52" s="11">
-        <v>119</v>
-      </c>
-      <c r="AU52" s="11">
-        <v>14</v>
-      </c>
-      <c r="AV52" s="11">
-        <v>51</v>
-      </c>
-      <c r="AW52" s="11">
-        <v>12</v>
-      </c>
-      <c r="AX52" s="11">
-        <v>4</v>
-      </c>
       <c r="AY52" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BA52" s="11">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BB52" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7537,38 +7537,38 @@
       <c r="AQ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>58</v>
+      <c r="AR53" s="13">
+        <v>0</v>
       </c>
       <c r="AS53" s="13">
         <v>0</v>
       </c>
       <c r="AT53" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU53" s="13">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AV53" s="13">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="AW53" s="13">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AX53" s="13">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AY53" s="13">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AZ53" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA53" s="13">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="BB53" s="13">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7666,68 +7666,68 @@
       <c r="AG54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH54" s="11" t="s">
-        <v>58</v>
+      <c r="AH54" s="11">
+        <v>570</v>
       </c>
       <c r="AI54" s="11">
-        <v>570</v>
+        <v>1259</v>
       </c>
       <c r="AJ54" s="11">
-        <v>1259</v>
+        <v>2144</v>
       </c>
       <c r="AK54" s="11">
-        <v>2144</v>
+        <v>899</v>
       </c>
       <c r="AL54" s="11">
-        <v>899</v>
+        <v>305</v>
       </c>
       <c r="AM54" s="11">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="AN54" s="11">
-        <v>414</v>
+        <v>928</v>
       </c>
       <c r="AO54" s="11">
-        <v>928</v>
+        <v>1168</v>
       </c>
       <c r="AP54" s="11">
-        <v>1168</v>
+        <v>2161</v>
       </c>
       <c r="AQ54" s="11">
-        <v>2161</v>
+        <v>2118</v>
       </c>
       <c r="AR54" s="11">
-        <v>2118</v>
+        <v>1936</v>
       </c>
       <c r="AS54" s="11">
-        <v>1936</v>
+        <v>1443</v>
       </c>
       <c r="AT54" s="11">
-        <v>1443</v>
+        <v>845</v>
       </c>
       <c r="AU54" s="11">
-        <v>845</v>
+        <v>2247</v>
       </c>
       <c r="AV54" s="11">
-        <v>2247</v>
+        <v>2889</v>
       </c>
       <c r="AW54" s="11">
-        <v>2889</v>
+        <v>2150</v>
       </c>
       <c r="AX54" s="11">
-        <v>2150</v>
+        <v>1299</v>
       </c>
       <c r="AY54" s="11">
-        <v>1299</v>
+        <v>1623</v>
       </c>
       <c r="AZ54" s="11">
-        <v>1623</v>
+        <v>569</v>
       </c>
       <c r="BA54" s="11">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="BB54" s="11">
-        <v>480</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7798,35 +7798,35 @@
       <c r="X55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="13" t="s">
-        <v>58</v>
+      <c r="Y55" s="13">
+        <v>4298</v>
       </c>
       <c r="Z55" s="13">
-        <v>4298</v>
+        <v>2044</v>
       </c>
       <c r="AA55" s="13">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="AB55" s="13">
-        <v>1534</v>
+        <v>1567</v>
       </c>
       <c r="AC55" s="13">
-        <v>1567</v>
+        <v>1742</v>
       </c>
       <c r="AD55" s="13">
-        <v>1742</v>
+        <v>1484</v>
       </c>
       <c r="AE55" s="13">
-        <v>1484</v>
+        <v>2034</v>
       </c>
       <c r="AF55" s="13">
-        <v>2034</v>
+        <v>2302</v>
       </c>
       <c r="AG55" s="13">
-        <v>2302</v>
-      </c>
-      <c r="AH55" s="13">
         <v>1919</v>
+      </c>
+      <c r="AH55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="13" t="s">
         <v>58</v>
@@ -7984,68 +7984,68 @@
       <c r="AG56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH56" s="11" t="s">
-        <v>58</v>
+      <c r="AH56" s="11">
+        <v>4996</v>
       </c>
       <c r="AI56" s="11">
-        <v>4996</v>
+        <v>6577</v>
       </c>
       <c r="AJ56" s="11">
-        <v>6577</v>
+        <v>8009</v>
       </c>
       <c r="AK56" s="11">
-        <v>8009</v>
+        <v>6522</v>
       </c>
       <c r="AL56" s="11">
-        <v>6522</v>
+        <v>5648</v>
       </c>
       <c r="AM56" s="11">
-        <v>5648</v>
+        <v>6202</v>
       </c>
       <c r="AN56" s="11">
-        <v>6202</v>
+        <v>4808</v>
       </c>
       <c r="AO56" s="11">
-        <v>4808</v>
+        <v>4575</v>
       </c>
       <c r="AP56" s="11">
+        <v>4833</v>
+      </c>
+      <c r="AQ56" s="11">
+        <v>4784</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>4510</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>5124</v>
+      </c>
+      <c r="AT56" s="11">
+        <v>1894</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>3620</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>6670</v>
+      </c>
+      <c r="AW56" s="11">
         <v>4575</v>
       </c>
-      <c r="AQ56" s="11">
-        <v>4833</v>
-      </c>
-      <c r="AR56" s="11">
-        <v>4784</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>4510</v>
-      </c>
-      <c r="AT56" s="11">
-        <v>5124</v>
-      </c>
-      <c r="AU56" s="11">
-        <v>1894</v>
-      </c>
-      <c r="AV56" s="11">
-        <v>3620</v>
-      </c>
-      <c r="AW56" s="11">
-        <v>6670</v>
-      </c>
       <c r="AX56" s="11">
-        <v>4575</v>
+        <v>5554</v>
       </c>
       <c r="AY56" s="11">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AZ56" s="11">
-        <v>6887</v>
+        <v>4678</v>
       </c>
       <c r="BA56" s="11">
-        <v>4678</v>
+        <v>5045</v>
       </c>
       <c r="BB56" s="11">
-        <v>5045</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8143,68 +8143,68 @@
       <c r="AG57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH57" s="13" t="s">
-        <v>58</v>
+      <c r="AH57" s="13">
+        <v>4075</v>
       </c>
       <c r="AI57" s="13">
-        <v>4075</v>
+        <v>5072</v>
       </c>
       <c r="AJ57" s="13">
-        <v>5072</v>
+        <v>5346</v>
       </c>
       <c r="AK57" s="13">
-        <v>5346</v>
+        <v>3345</v>
       </c>
       <c r="AL57" s="13">
-        <v>3345</v>
+        <v>3558</v>
       </c>
       <c r="AM57" s="13">
-        <v>3558</v>
+        <v>3458</v>
       </c>
       <c r="AN57" s="13">
-        <v>3458</v>
+        <v>3923</v>
       </c>
       <c r="AO57" s="13">
-        <v>3923</v>
+        <v>4826</v>
       </c>
       <c r="AP57" s="13">
-        <v>4826</v>
+        <v>4709</v>
       </c>
       <c r="AQ57" s="13">
-        <v>4709</v>
+        <v>4764</v>
       </c>
       <c r="AR57" s="13">
-        <v>4764</v>
+        <v>4462</v>
       </c>
       <c r="AS57" s="13">
-        <v>4462</v>
+        <v>4302</v>
       </c>
       <c r="AT57" s="13">
-        <v>4302</v>
+        <v>2123</v>
       </c>
       <c r="AU57" s="13">
-        <v>2123</v>
+        <v>3896</v>
       </c>
       <c r="AV57" s="13">
-        <v>3896</v>
+        <v>4557</v>
       </c>
       <c r="AW57" s="13">
-        <v>4557</v>
+        <v>4095</v>
       </c>
       <c r="AX57" s="13">
-        <v>4095</v>
+        <v>4494</v>
       </c>
       <c r="AY57" s="13">
-        <v>4494</v>
+        <v>6712</v>
       </c>
       <c r="AZ57" s="13">
-        <v>6712</v>
+        <v>4729</v>
       </c>
       <c r="BA57" s="13">
-        <v>4729</v>
+        <v>6089</v>
       </c>
       <c r="BB57" s="13">
-        <v>6089</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8302,68 +8302,68 @@
       <c r="AG58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH58" s="11" t="s">
-        <v>58</v>
+      <c r="AH58" s="11">
+        <v>1700</v>
       </c>
       <c r="AI58" s="11">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AJ58" s="11">
-        <v>2767</v>
+        <v>2447</v>
       </c>
       <c r="AK58" s="11">
-        <v>2447</v>
+        <v>2083</v>
       </c>
       <c r="AL58" s="11">
-        <v>2083</v>
+        <v>1526</v>
       </c>
       <c r="AM58" s="11">
-        <v>1526</v>
+        <v>2760</v>
       </c>
       <c r="AN58" s="11">
-        <v>2760</v>
+        <v>2354</v>
       </c>
       <c r="AO58" s="11">
-        <v>2354</v>
+        <v>1953</v>
       </c>
       <c r="AP58" s="11">
-        <v>1953</v>
+        <v>1754</v>
       </c>
       <c r="AQ58" s="11">
-        <v>1754</v>
+        <v>1623</v>
       </c>
       <c r="AR58" s="11">
-        <v>1623</v>
+        <v>1772</v>
       </c>
       <c r="AS58" s="11">
-        <v>1772</v>
+        <v>2203</v>
       </c>
       <c r="AT58" s="11">
+        <v>1055</v>
+      </c>
+      <c r="AU58" s="11">
         <v>2203</v>
       </c>
-      <c r="AU58" s="11">
-        <v>1055</v>
-      </c>
       <c r="AV58" s="11">
-        <v>2203</v>
+        <v>2498</v>
       </c>
       <c r="AW58" s="11">
-        <v>2498</v>
+        <v>1590</v>
       </c>
       <c r="AX58" s="11">
-        <v>1590</v>
+        <v>1816</v>
       </c>
       <c r="AY58" s="11">
-        <v>1816</v>
+        <v>1628</v>
       </c>
       <c r="AZ58" s="11">
-        <v>1628</v>
+        <v>1351</v>
       </c>
       <c r="BA58" s="11">
-        <v>1351</v>
+        <v>1846</v>
       </c>
       <c r="BB58" s="11">
-        <v>1846</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8461,68 +8461,68 @@
       <c r="AG59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>58</v>
+      <c r="AH59" s="13">
+        <v>790</v>
       </c>
       <c r="AI59" s="13">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="AJ59" s="13">
-        <v>853</v>
+        <v>998</v>
       </c>
       <c r="AK59" s="13">
+        <v>433</v>
+      </c>
+      <c r="AL59" s="13">
+        <v>575</v>
+      </c>
+      <c r="AM59" s="13">
+        <v>826</v>
+      </c>
+      <c r="AN59" s="13">
+        <v>590</v>
+      </c>
+      <c r="AO59" s="13">
+        <v>580</v>
+      </c>
+      <c r="AP59" s="13">
+        <v>816</v>
+      </c>
+      <c r="AQ59" s="13">
+        <v>505</v>
+      </c>
+      <c r="AR59" s="13">
+        <v>577</v>
+      </c>
+      <c r="AS59" s="13">
+        <v>567</v>
+      </c>
+      <c r="AT59" s="13">
+        <v>418</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>979</v>
+      </c>
+      <c r="AV59" s="13">
         <v>998</v>
       </c>
-      <c r="AL59" s="13">
-        <v>433</v>
-      </c>
-      <c r="AM59" s="13">
-        <v>575</v>
-      </c>
-      <c r="AN59" s="13">
-        <v>826</v>
-      </c>
-      <c r="AO59" s="13">
-        <v>590</v>
-      </c>
-      <c r="AP59" s="13">
-        <v>580</v>
-      </c>
-      <c r="AQ59" s="13">
-        <v>816</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>505</v>
-      </c>
-      <c r="AS59" s="13">
-        <v>577</v>
-      </c>
-      <c r="AT59" s="13">
-        <v>567</v>
-      </c>
-      <c r="AU59" s="13">
-        <v>418</v>
-      </c>
-      <c r="AV59" s="13">
-        <v>979</v>
-      </c>
       <c r="AW59" s="13">
-        <v>998</v>
+        <v>346</v>
       </c>
       <c r="AX59" s="13">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="AY59" s="13">
-        <v>267</v>
+        <v>984</v>
       </c>
       <c r="AZ59" s="13">
-        <v>984</v>
+        <v>565</v>
       </c>
       <c r="BA59" s="13">
-        <v>565</v>
+        <v>773</v>
       </c>
       <c r="BB59" s="13">
-        <v>773</v>
+        <v>938</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8620,68 +8620,68 @@
       <c r="AG60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH60" s="11" t="s">
-        <v>58</v>
+      <c r="AH60" s="11">
+        <v>1920</v>
       </c>
       <c r="AI60" s="11">
-        <v>1920</v>
+        <v>2497</v>
       </c>
       <c r="AJ60" s="11">
-        <v>2497</v>
+        <v>2329</v>
       </c>
       <c r="AK60" s="11">
-        <v>2329</v>
+        <v>3156</v>
       </c>
       <c r="AL60" s="11">
-        <v>3156</v>
+        <v>1487</v>
       </c>
       <c r="AM60" s="11">
-        <v>1487</v>
+        <v>722</v>
       </c>
       <c r="AN60" s="11">
-        <v>722</v>
+        <v>679</v>
       </c>
       <c r="AO60" s="11">
-        <v>679</v>
+        <v>1039</v>
       </c>
       <c r="AP60" s="11">
-        <v>1039</v>
+        <v>1731</v>
       </c>
       <c r="AQ60" s="11">
-        <v>1731</v>
+        <v>987</v>
       </c>
       <c r="AR60" s="11">
-        <v>987</v>
+        <v>25</v>
       </c>
       <c r="AS60" s="11">
-        <v>25</v>
+        <v>695</v>
       </c>
       <c r="AT60" s="11">
-        <v>695</v>
+        <v>924</v>
       </c>
       <c r="AU60" s="11">
-        <v>924</v>
+        <v>1355</v>
       </c>
       <c r="AV60" s="11">
-        <v>1355</v>
+        <v>1937</v>
       </c>
       <c r="AW60" s="11">
-        <v>1937</v>
+        <v>798</v>
       </c>
       <c r="AX60" s="11">
-        <v>798</v>
+        <v>883</v>
       </c>
       <c r="AY60" s="11">
-        <v>883</v>
+        <v>3478</v>
       </c>
       <c r="AZ60" s="11">
-        <v>3478</v>
+        <v>4549</v>
       </c>
       <c r="BA60" s="11">
-        <v>4549</v>
+        <v>3758</v>
       </c>
       <c r="BB60" s="11">
-        <v>3758</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8779,44 +8779,44 @@
       <c r="AG61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="13" t="s">
-        <v>58</v>
+      <c r="AH61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ61" s="13">
+        <v>501</v>
       </c>
       <c r="AK61" s="13">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AL61" s="13">
-        <v>483</v>
-      </c>
-      <c r="AM61" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP61" s="13">
-        <v>0</v>
+      <c r="AO61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR61" s="13" t="s">
-        <v>58</v>
+      <c r="AR61" s="13">
+        <v>0</v>
       </c>
       <c r="AS61" s="13">
         <v>0</v>
       </c>
-      <c r="AT61" s="13">
-        <v>0</v>
+      <c r="AT61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU61" s="13" t="s">
         <v>58</v>
@@ -8910,94 +8910,94 @@
         <v>0</v>
       </c>
       <c r="Y62" s="15">
-        <v>0</v>
+        <v>22123</v>
       </c>
       <c r="Z62" s="15">
-        <v>22123</v>
+        <v>20051</v>
       </c>
       <c r="AA62" s="15">
-        <v>20051</v>
+        <v>22854</v>
       </c>
       <c r="AB62" s="15">
-        <v>22854</v>
+        <v>21253</v>
       </c>
       <c r="AC62" s="15">
-        <v>21253</v>
+        <v>18045</v>
       </c>
       <c r="AD62" s="15">
-        <v>18045</v>
+        <v>19677</v>
       </c>
       <c r="AE62" s="15">
-        <v>19677</v>
+        <v>19809</v>
       </c>
       <c r="AF62" s="15">
+        <v>23118</v>
+      </c>
+      <c r="AG62" s="15">
+        <v>21761</v>
+      </c>
+      <c r="AH62" s="15">
+        <v>18977</v>
+      </c>
+      <c r="AI62" s="15">
+        <v>24400</v>
+      </c>
+      <c r="AJ62" s="15">
+        <v>31917</v>
+      </c>
+      <c r="AK62" s="15">
+        <v>26370</v>
+      </c>
+      <c r="AL62" s="15">
+        <v>20381</v>
+      </c>
+      <c r="AM62" s="15">
+        <v>23857</v>
+      </c>
+      <c r="AN62" s="15">
+        <v>19549</v>
+      </c>
+      <c r="AO62" s="15">
+        <v>20044</v>
+      </c>
+      <c r="AP62" s="15">
+        <v>26537</v>
+      </c>
+      <c r="AQ62" s="15">
+        <v>21006</v>
+      </c>
+      <c r="AR62" s="15">
         <v>19809</v>
       </c>
-      <c r="AG62" s="15">
-        <v>23118</v>
-      </c>
-      <c r="AH62" s="15">
-        <v>21761</v>
-      </c>
-      <c r="AI62" s="15">
-        <v>18977</v>
-      </c>
-      <c r="AJ62" s="15">
-        <v>24400</v>
-      </c>
-      <c r="AK62" s="15">
-        <v>31917</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>26370</v>
-      </c>
-      <c r="AM62" s="15">
-        <v>20381</v>
-      </c>
-      <c r="AN62" s="15">
-        <v>23857</v>
-      </c>
-      <c r="AO62" s="15">
-        <v>19549</v>
-      </c>
-      <c r="AP62" s="15">
-        <v>20044</v>
-      </c>
-      <c r="AQ62" s="15">
-        <v>26537</v>
-      </c>
-      <c r="AR62" s="15">
-        <v>21006</v>
-      </c>
       <c r="AS62" s="15">
-        <v>19809</v>
+        <v>18569</v>
       </c>
       <c r="AT62" s="15">
-        <v>18569</v>
+        <v>9435</v>
       </c>
       <c r="AU62" s="15">
-        <v>9435</v>
+        <v>19999</v>
       </c>
       <c r="AV62" s="15">
-        <v>19999</v>
+        <v>26067</v>
       </c>
       <c r="AW62" s="15">
-        <v>26067</v>
+        <v>19820</v>
       </c>
       <c r="AX62" s="15">
-        <v>19820</v>
+        <v>21233</v>
       </c>
       <c r="AY62" s="15">
-        <v>21233</v>
+        <v>28653</v>
       </c>
       <c r="AZ62" s="15">
-        <v>28653</v>
+        <v>23159</v>
       </c>
       <c r="BA62" s="15">
-        <v>23159</v>
+        <v>23026</v>
       </c>
       <c r="BB62" s="15">
-        <v>23026</v>
+        <v>25735</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -9125,35 +9125,35 @@
       <c r="X64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>58</v>
+      <c r="Y64" s="11">
+        <v>41374</v>
       </c>
       <c r="Z64" s="11">
-        <v>41374</v>
+        <v>32304</v>
       </c>
       <c r="AA64" s="11">
-        <v>32304</v>
+        <v>38415</v>
       </c>
       <c r="AB64" s="11">
-        <v>38415</v>
+        <v>42649</v>
       </c>
       <c r="AC64" s="11">
-        <v>42649</v>
+        <v>32087</v>
       </c>
       <c r="AD64" s="11">
-        <v>32087</v>
+        <v>33146</v>
       </c>
       <c r="AE64" s="11">
-        <v>33146</v>
+        <v>45278</v>
       </c>
       <c r="AF64" s="11">
-        <v>45278</v>
+        <v>26689</v>
       </c>
       <c r="AG64" s="11">
-        <v>26689</v>
-      </c>
-      <c r="AH64" s="11">
         <v>30884</v>
+      </c>
+      <c r="AH64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI64" s="11" t="s">
         <v>58</v>
@@ -9311,68 +9311,68 @@
       <c r="AG65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="13" t="s">
-        <v>58</v>
+      <c r="AH65" s="13">
+        <v>13393</v>
       </c>
       <c r="AI65" s="13">
-        <v>13393</v>
+        <v>14362</v>
       </c>
       <c r="AJ65" s="13">
-        <v>14362</v>
+        <v>12542</v>
       </c>
       <c r="AK65" s="13">
-        <v>12542</v>
+        <v>14328</v>
       </c>
       <c r="AL65" s="13">
-        <v>14328</v>
+        <v>18454</v>
       </c>
       <c r="AM65" s="13">
-        <v>18454</v>
+        <v>31133</v>
       </c>
       <c r="AN65" s="13">
-        <v>31133</v>
+        <v>14414</v>
       </c>
       <c r="AO65" s="13">
-        <v>14414</v>
+        <v>11380</v>
       </c>
       <c r="AP65" s="13">
-        <v>11380</v>
+        <v>11246</v>
       </c>
       <c r="AQ65" s="13">
-        <v>11246</v>
+        <v>14541</v>
       </c>
       <c r="AR65" s="13">
-        <v>14541</v>
+        <v>12492</v>
       </c>
       <c r="AS65" s="13">
-        <v>12492</v>
+        <v>23339</v>
       </c>
       <c r="AT65" s="13">
-        <v>23339</v>
+        <v>6104</v>
       </c>
       <c r="AU65" s="13">
-        <v>6104</v>
+        <v>21826</v>
       </c>
       <c r="AV65" s="13">
-        <v>21826</v>
+        <v>36309</v>
       </c>
       <c r="AW65" s="13">
-        <v>36309</v>
+        <v>29178</v>
       </c>
       <c r="AX65" s="13">
-        <v>29178</v>
+        <v>19184</v>
       </c>
       <c r="AY65" s="13">
-        <v>19184</v>
+        <v>15747</v>
       </c>
       <c r="AZ65" s="13">
-        <v>15747</v>
+        <v>10521</v>
       </c>
       <c r="BA65" s="13">
-        <v>10521</v>
+        <v>14913</v>
       </c>
       <c r="BB65" s="13">
-        <v>14913</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -9470,68 +9470,68 @@
       <c r="AG66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH66" s="11" t="s">
-        <v>58</v>
+      <c r="AH66" s="11">
+        <v>198</v>
       </c>
       <c r="AI66" s="11">
-        <v>198</v>
+        <v>1372</v>
       </c>
       <c r="AJ66" s="11">
-        <v>1372</v>
+        <v>1126</v>
       </c>
       <c r="AK66" s="11">
-        <v>1126</v>
+        <v>739</v>
       </c>
       <c r="AL66" s="11">
-        <v>739</v>
+        <v>1960</v>
       </c>
       <c r="AM66" s="11">
-        <v>1960</v>
+        <v>919</v>
       </c>
       <c r="AN66" s="11">
-        <v>919</v>
+        <v>1566</v>
       </c>
       <c r="AO66" s="11">
-        <v>1566</v>
+        <v>769</v>
       </c>
       <c r="AP66" s="11">
-        <v>769</v>
+        <v>2418</v>
       </c>
       <c r="AQ66" s="11">
-        <v>2418</v>
+        <v>1327</v>
       </c>
       <c r="AR66" s="11">
-        <v>1327</v>
+        <v>1243</v>
       </c>
       <c r="AS66" s="11">
-        <v>1243</v>
+        <v>505</v>
       </c>
       <c r="AT66" s="11">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="AU66" s="11">
-        <v>393</v>
+        <v>1412</v>
       </c>
       <c r="AV66" s="11">
-        <v>1412</v>
+        <v>503</v>
       </c>
       <c r="AW66" s="11">
-        <v>503</v>
+        <v>116</v>
       </c>
       <c r="AX66" s="11">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="AY66" s="11">
-        <v>46</v>
+        <v>467</v>
       </c>
       <c r="AZ66" s="11">
-        <v>467</v>
+        <v>1124</v>
       </c>
       <c r="BA66" s="11">
-        <v>1124</v>
+        <v>1247</v>
       </c>
       <c r="BB66" s="11">
-        <v>1247</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9629,68 +9629,68 @@
       <c r="AG67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH67" s="13" t="s">
-        <v>58</v>
+      <c r="AH67" s="13">
+        <v>954</v>
       </c>
       <c r="AI67" s="13">
-        <v>954</v>
+        <v>2522</v>
       </c>
       <c r="AJ67" s="13">
-        <v>2522</v>
+        <v>1967</v>
       </c>
       <c r="AK67" s="13">
-        <v>1967</v>
+        <v>1327</v>
       </c>
       <c r="AL67" s="13">
-        <v>1327</v>
+        <v>3414</v>
       </c>
       <c r="AM67" s="13">
-        <v>3414</v>
+        <v>3654</v>
       </c>
       <c r="AN67" s="13">
-        <v>3654</v>
+        <v>1645</v>
       </c>
       <c r="AO67" s="13">
-        <v>1645</v>
+        <v>2657</v>
       </c>
       <c r="AP67" s="13">
-        <v>2657</v>
+        <v>2096</v>
       </c>
       <c r="AQ67" s="13">
-        <v>2096</v>
+        <v>990</v>
       </c>
       <c r="AR67" s="13">
-        <v>990</v>
+        <v>2519</v>
       </c>
       <c r="AS67" s="13">
-        <v>2519</v>
+        <v>1246</v>
       </c>
       <c r="AT67" s="13">
-        <v>1246</v>
+        <v>1637</v>
       </c>
       <c r="AU67" s="13">
-        <v>1637</v>
+        <v>1805</v>
       </c>
       <c r="AV67" s="13">
-        <v>1805</v>
+        <v>675</v>
       </c>
       <c r="AW67" s="13">
-        <v>675</v>
+        <v>1984</v>
       </c>
       <c r="AX67" s="13">
-        <v>1984</v>
+        <v>3558</v>
       </c>
       <c r="AY67" s="13">
-        <v>3558</v>
+        <v>1682</v>
       </c>
       <c r="AZ67" s="13">
-        <v>1682</v>
+        <v>2214</v>
       </c>
       <c r="BA67" s="13">
-        <v>2214</v>
+        <v>1763</v>
       </c>
       <c r="BB67" s="13">
-        <v>1763</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9761,35 +9761,35 @@
       <c r="X68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>58</v>
+      <c r="Y68" s="11">
+        <v>2593</v>
       </c>
       <c r="Z68" s="11">
-        <v>2593</v>
+        <v>4887</v>
       </c>
       <c r="AA68" s="11">
-        <v>4887</v>
+        <v>4342</v>
       </c>
       <c r="AB68" s="11">
-        <v>4342</v>
+        <v>3175</v>
       </c>
       <c r="AC68" s="11">
-        <v>3175</v>
+        <v>2627</v>
       </c>
       <c r="AD68" s="11">
-        <v>2627</v>
+        <v>3718</v>
       </c>
       <c r="AE68" s="11">
-        <v>3718</v>
+        <v>3825</v>
       </c>
       <c r="AF68" s="11">
-        <v>3825</v>
+        <v>5943</v>
       </c>
       <c r="AG68" s="11">
-        <v>5943</v>
-      </c>
-      <c r="AH68" s="11">
         <v>2479</v>
+      </c>
+      <c r="AH68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI68" s="11" t="s">
         <v>58</v>
@@ -9947,68 +9947,68 @@
       <c r="AG69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI69" s="13">
+      <c r="AH69" s="13">
         <v>222</v>
       </c>
+      <c r="AI69" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK69" s="13" t="s">
-        <v>58</v>
+      <c r="AK69" s="13">
+        <v>44</v>
       </c>
       <c r="AL69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="13">
+        <v>335</v>
+      </c>
+      <c r="AN69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR69" s="13">
+        <v>22</v>
+      </c>
+      <c r="AS69" s="13">
         <v>44</v>
       </c>
-      <c r="AM69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN69" s="13">
-        <v>335</v>
-      </c>
-      <c r="AO69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS69" s="13">
+      <c r="AT69" s="13">
+        <v>157</v>
+      </c>
+      <c r="AU69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="13">
         <v>22</v>
       </c>
-      <c r="AT69" s="13">
+      <c r="AX69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="13">
         <v>44</v>
       </c>
-      <c r="AU69" s="13">
-        <v>157</v>
-      </c>
-      <c r="AV69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX69" s="13">
-        <v>22</v>
-      </c>
-      <c r="AY69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ69" s="13">
-        <v>0</v>
-      </c>
       <c r="BA69" s="13">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="BB69" s="13">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -10106,68 +10106,68 @@
       <c r="AG70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH70" s="11" t="s">
-        <v>58</v>
+      <c r="AH70" s="11">
+        <v>1205</v>
       </c>
       <c r="AI70" s="11">
-        <v>1205</v>
+        <v>863</v>
       </c>
       <c r="AJ70" s="11">
-        <v>863</v>
+        <v>1251</v>
       </c>
       <c r="AK70" s="11">
-        <v>1251</v>
+        <v>367</v>
       </c>
       <c r="AL70" s="11">
-        <v>367</v>
+        <v>1522</v>
       </c>
       <c r="AM70" s="11">
-        <v>1522</v>
+        <v>1896</v>
       </c>
       <c r="AN70" s="11">
-        <v>1896</v>
+        <v>301</v>
       </c>
       <c r="AO70" s="11">
-        <v>301</v>
+        <v>684</v>
       </c>
       <c r="AP70" s="11">
-        <v>684</v>
+        <v>886</v>
       </c>
       <c r="AQ70" s="11">
-        <v>886</v>
+        <v>328</v>
       </c>
       <c r="AR70" s="11">
-        <v>328</v>
+        <v>1042</v>
       </c>
       <c r="AS70" s="11">
-        <v>1042</v>
+        <v>383</v>
       </c>
       <c r="AT70" s="11">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="AU70" s="11">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="AV70" s="11">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AW70" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="AX70" s="11">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="AY70" s="11">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="AZ70" s="11">
-        <v>300</v>
+        <v>786</v>
       </c>
       <c r="BA70" s="11">
-        <v>786</v>
+        <v>1708</v>
       </c>
       <c r="BB70" s="11">
-        <v>1708</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10280,12 +10280,12 @@
       <c r="AL71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN71" s="13">
+      <c r="AM71" s="13">
         <v>43</v>
       </c>
+      <c r="AN71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO71" s="13" t="s">
         <v>58</v>
       </c>
@@ -10295,14 +10295,14 @@
       <c r="AQ71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="13" t="s">
-        <v>58</v>
+      <c r="AR71" s="13">
+        <v>0</v>
       </c>
       <c r="AS71" s="13">
         <v>0</v>
       </c>
-      <c r="AT71" s="13">
-        <v>0</v>
+      <c r="AT71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU71" s="13" t="s">
         <v>58</v>
@@ -10322,11 +10322,11 @@
       <c r="AZ71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB71" s="13" t="s">
-        <v>58</v>
+      <c r="BA71" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="13">
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -10424,11 +10424,11 @@
       <c r="AG72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI72" s="11">
-        <v>0</v>
+      <c r="AH72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ72" s="11" t="s">
         <v>58</v>
@@ -10439,12 +10439,12 @@
       <c r="AL72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN72" s="11">
+      <c r="AM72" s="11">
         <v>22</v>
       </c>
+      <c r="AN72" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO72" s="11" t="s">
         <v>58</v>
       </c>
@@ -10454,14 +10454,14 @@
       <c r="AQ72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="11" t="s">
-        <v>58</v>
+      <c r="AR72" s="11">
+        <v>0</v>
       </c>
       <c r="AS72" s="11">
         <v>0</v>
       </c>
-      <c r="AT72" s="11">
-        <v>0</v>
+      <c r="AT72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU72" s="11" t="s">
         <v>58</v>
@@ -10475,8 +10475,8 @@
       <c r="AX72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY72" s="11" t="s">
-        <v>58</v>
+      <c r="AY72" s="11">
+        <v>0</v>
       </c>
       <c r="AZ72" s="11">
         <v>0</v>
@@ -10583,68 +10583,68 @@
       <c r="AG73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH73" s="13" t="s">
-        <v>58</v>
+      <c r="AH73" s="13">
+        <v>14961</v>
       </c>
       <c r="AI73" s="13">
-        <v>14961</v>
+        <v>19469</v>
       </c>
       <c r="AJ73" s="13">
-        <v>19469</v>
+        <v>20100</v>
       </c>
       <c r="AK73" s="13">
-        <v>20100</v>
+        <v>17935</v>
       </c>
       <c r="AL73" s="13">
-        <v>17935</v>
+        <v>21371</v>
       </c>
       <c r="AM73" s="13">
-        <v>21371</v>
+        <v>15801</v>
       </c>
       <c r="AN73" s="13">
-        <v>15801</v>
+        <v>24325</v>
       </c>
       <c r="AO73" s="13">
-        <v>24325</v>
+        <v>21206</v>
       </c>
       <c r="AP73" s="13">
-        <v>21206</v>
+        <v>14014</v>
       </c>
       <c r="AQ73" s="13">
-        <v>14014</v>
+        <v>7868</v>
       </c>
       <c r="AR73" s="13">
-        <v>7868</v>
+        <v>16559</v>
       </c>
       <c r="AS73" s="13">
-        <v>16559</v>
+        <v>1488</v>
       </c>
       <c r="AT73" s="13">
-        <v>1488</v>
+        <v>21032</v>
       </c>
       <c r="AU73" s="13">
-        <v>21032</v>
+        <v>19345</v>
       </c>
       <c r="AV73" s="13">
-        <v>19345</v>
+        <v>14338</v>
       </c>
       <c r="AW73" s="13">
-        <v>14338</v>
+        <v>16103</v>
       </c>
       <c r="AX73" s="13">
-        <v>16103</v>
+        <v>13982</v>
       </c>
       <c r="AY73" s="13">
-        <v>13982</v>
+        <v>18717</v>
       </c>
       <c r="AZ73" s="13">
-        <v>18717</v>
+        <v>12823</v>
       </c>
       <c r="BA73" s="13">
-        <v>12823</v>
+        <v>21297</v>
       </c>
       <c r="BB73" s="13">
-        <v>21297</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10742,11 +10742,11 @@
       <c r="AG74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI74" s="11">
-        <v>0</v>
+      <c r="AH74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ74" s="11" t="s">
         <v>58</v>
@@ -10757,11 +10757,11 @@
       <c r="AL74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN74" s="11">
-        <v>0</v>
+      <c r="AM74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO74" s="11" t="s">
         <v>58</v>
@@ -10772,14 +10772,14 @@
       <c r="AQ74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="11" t="s">
-        <v>58</v>
+      <c r="AR74" s="11">
+        <v>0</v>
       </c>
       <c r="AS74" s="11">
         <v>0</v>
       </c>
-      <c r="AT74" s="11">
-        <v>0</v>
+      <c r="AT74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU74" s="11" t="s">
         <v>58</v>
@@ -10873,94 +10873,94 @@
         <v>0</v>
       </c>
       <c r="Y75" s="17">
-        <v>0</v>
+        <v>43967</v>
       </c>
       <c r="Z75" s="17">
-        <v>43967</v>
+        <v>37191</v>
       </c>
       <c r="AA75" s="17">
-        <v>37191</v>
+        <v>42757</v>
       </c>
       <c r="AB75" s="17">
-        <v>42757</v>
+        <v>45824</v>
       </c>
       <c r="AC75" s="17">
-        <v>45824</v>
+        <v>34714</v>
       </c>
       <c r="AD75" s="17">
-        <v>34714</v>
+        <v>36864</v>
       </c>
       <c r="AE75" s="17">
-        <v>36864</v>
+        <v>49103</v>
       </c>
       <c r="AF75" s="17">
-        <v>49103</v>
+        <v>32632</v>
       </c>
       <c r="AG75" s="17">
-        <v>32632</v>
+        <v>33363</v>
       </c>
       <c r="AH75" s="17">
-        <v>33363</v>
+        <v>30933</v>
       </c>
       <c r="AI75" s="17">
-        <v>30933</v>
+        <v>38588</v>
       </c>
       <c r="AJ75" s="17">
-        <v>38588</v>
+        <v>36986</v>
       </c>
       <c r="AK75" s="17">
-        <v>36986</v>
+        <v>34740</v>
       </c>
       <c r="AL75" s="17">
-        <v>34740</v>
+        <v>46721</v>
       </c>
       <c r="AM75" s="17">
-        <v>46721</v>
+        <v>53803</v>
       </c>
       <c r="AN75" s="17">
-        <v>53803</v>
+        <v>42251</v>
       </c>
       <c r="AO75" s="17">
-        <v>42251</v>
+        <v>36696</v>
       </c>
       <c r="AP75" s="17">
-        <v>36696</v>
+        <v>30660</v>
       </c>
       <c r="AQ75" s="17">
-        <v>30660</v>
+        <v>25054</v>
       </c>
       <c r="AR75" s="17">
-        <v>25054</v>
+        <v>33877</v>
       </c>
       <c r="AS75" s="17">
-        <v>33877</v>
+        <v>27005</v>
       </c>
       <c r="AT75" s="17">
-        <v>27005</v>
+        <v>29555</v>
       </c>
       <c r="AU75" s="17">
-        <v>29555</v>
+        <v>44574</v>
       </c>
       <c r="AV75" s="17">
-        <v>44574</v>
+        <v>52032</v>
       </c>
       <c r="AW75" s="17">
-        <v>52032</v>
+        <v>47562</v>
       </c>
       <c r="AX75" s="17">
-        <v>47562</v>
+        <v>36792</v>
       </c>
       <c r="AY75" s="17">
-        <v>36792</v>
+        <v>36913</v>
       </c>
       <c r="AZ75" s="17">
-        <v>36913</v>
+        <v>27512</v>
       </c>
       <c r="BA75" s="17">
-        <v>27512</v>
+        <v>41039</v>
       </c>
       <c r="BB75" s="17">
-        <v>41039</v>
+        <v>35060</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -11086,8 +11086,8 @@
       <c r="X77" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="15" t="s">
-        <v>58</v>
+      <c r="Y77" s="15">
+        <v>0</v>
       </c>
       <c r="Z77" s="15">
         <v>0</v>
@@ -11332,53 +11332,53 @@
       <c r="AH79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI79" s="11" t="s">
-        <v>58</v>
+      <c r="AI79" s="11">
+        <v>-4</v>
       </c>
       <c r="AJ79" s="11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AK79" s="11">
-        <v>-6</v>
-      </c>
-      <c r="AL79" s="11">
         <v>-1</v>
       </c>
-      <c r="AM79" s="11" t="s">
-        <v>58</v>
+      <c r="AL79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM79" s="11">
+        <v>-4581</v>
       </c>
       <c r="AN79" s="11">
-        <v>-4581</v>
-      </c>
-      <c r="AO79" s="11">
         <v>-15</v>
       </c>
-      <c r="AP79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ79" s="11">
+      <c r="AO79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP79" s="11">
         <v>-9</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
+      <c r="AQ79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="11">
+        <v>-43</v>
       </c>
       <c r="AS79" s="11">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AT79" s="11">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AU79" s="11">
         <v>0</v>
       </c>
       <c r="AV79" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AW79" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AX79" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY79" s="11" t="s">
         <v>58</v>
@@ -11386,11 +11386,11 @@
       <c r="AZ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA79" s="11" t="s">
-        <v>58</v>
+      <c r="BA79" s="11">
+        <v>-7</v>
       </c>
       <c r="BB79" s="11">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -11461,14 +11461,14 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>-20</v>
       </c>
       <c r="Z80" s="13">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AA80" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="13">
         <v>0</v>
@@ -11477,19 +11477,19 @@
         <v>0</v>
       </c>
       <c r="AD80" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AE80" s="13">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="13">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AG80" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AH80" s="13">
         <v>-8</v>
+      </c>
+      <c r="AH80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI80" s="13" t="s">
         <v>58</v>
@@ -11618,80 +11618,80 @@
       <c r="X81" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="15" t="s">
-        <v>58</v>
+      <c r="Y81" s="15">
+        <v>-20</v>
       </c>
       <c r="Z81" s="15">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AA81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="15">
+        <v>-21</v>
+      </c>
+      <c r="AE81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="15">
+        <v>-23</v>
+      </c>
+      <c r="AG81" s="15">
+        <v>-8</v>
+      </c>
+      <c r="AH81" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AJ81" s="15">
+        <v>-6</v>
+      </c>
+      <c r="AK81" s="15">
         <v>-1</v>
       </c>
-      <c r="AB81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="15">
-        <v>-21</v>
-      </c>
-      <c r="AF81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="15">
-        <v>-23</v>
-      </c>
-      <c r="AH81" s="15">
-        <v>-8</v>
-      </c>
-      <c r="AI81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="15">
-        <v>-4</v>
-      </c>
-      <c r="AK81" s="15">
-        <v>-6</v>
-      </c>
       <c r="AL81" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="15">
-        <v>0</v>
+        <v>-4581</v>
       </c>
       <c r="AN81" s="15">
-        <v>-4581</v>
+        <v>-15</v>
       </c>
       <c r="AO81" s="15">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="15">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AQ81" s="15">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AR81" s="15">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AS81" s="15">
-        <v>-43</v>
+        <v>-75</v>
       </c>
       <c r="AT81" s="15">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="15">
         <v>0</v>
       </c>
       <c r="AV81" s="15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AW81" s="15">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="15">
         <v>0</v>
@@ -11703,10 +11703,10 @@
         <v>0</v>
       </c>
       <c r="BA81" s="15">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="BB81" s="15">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11776,94 +11776,94 @@
         <v>0</v>
       </c>
       <c r="Y82" s="17">
-        <v>0</v>
+        <v>66070</v>
       </c>
       <c r="Z82" s="17">
-        <v>66070</v>
+        <v>57241</v>
       </c>
       <c r="AA82" s="17">
-        <v>57241</v>
+        <v>65611</v>
       </c>
       <c r="AB82" s="17">
-        <v>65611</v>
+        <v>67077</v>
       </c>
       <c r="AC82" s="17">
-        <v>67077</v>
+        <v>52759</v>
       </c>
       <c r="AD82" s="17">
-        <v>52759</v>
+        <v>56520</v>
       </c>
       <c r="AE82" s="17">
-        <v>56520</v>
+        <v>68912</v>
       </c>
       <c r="AF82" s="17">
-        <v>68912</v>
+        <v>55727</v>
       </c>
       <c r="AG82" s="17">
-        <v>55727</v>
+        <v>55116</v>
       </c>
       <c r="AH82" s="17">
-        <v>55116</v>
+        <v>49910</v>
       </c>
       <c r="AI82" s="17">
-        <v>49910</v>
+        <v>62984</v>
       </c>
       <c r="AJ82" s="17">
-        <v>62984</v>
+        <v>68897</v>
       </c>
       <c r="AK82" s="17">
-        <v>68897</v>
+        <v>61109</v>
       </c>
       <c r="AL82" s="17">
-        <v>61109</v>
+        <v>67102</v>
       </c>
       <c r="AM82" s="17">
-        <v>67102</v>
+        <v>73079</v>
       </c>
       <c r="AN82" s="17">
-        <v>73079</v>
+        <v>61785</v>
       </c>
       <c r="AO82" s="17">
-        <v>61785</v>
+        <v>56740</v>
       </c>
       <c r="AP82" s="17">
-        <v>56740</v>
+        <v>57188</v>
       </c>
       <c r="AQ82" s="17">
-        <v>57188</v>
+        <v>46060</v>
       </c>
       <c r="AR82" s="17">
-        <v>46060</v>
+        <v>53643</v>
       </c>
       <c r="AS82" s="17">
-        <v>53643</v>
+        <v>45499</v>
       </c>
       <c r="AT82" s="17">
-        <v>45499</v>
+        <v>38990</v>
       </c>
       <c r="AU82" s="17">
-        <v>38990</v>
+        <v>64573</v>
       </c>
       <c r="AV82" s="17">
-        <v>64573</v>
+        <v>78094</v>
       </c>
       <c r="AW82" s="17">
-        <v>78094</v>
+        <v>67382</v>
       </c>
       <c r="AX82" s="17">
-        <v>67382</v>
+        <v>58025</v>
       </c>
       <c r="AY82" s="17">
-        <v>58025</v>
+        <v>65566</v>
       </c>
       <c r="AZ82" s="17">
-        <v>65566</v>
+        <v>50671</v>
       </c>
       <c r="BA82" s="17">
-        <v>50671</v>
+        <v>64058</v>
       </c>
       <c r="BB82" s="17">
-        <v>64058</v>
+        <v>60795</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -12368,65 +12368,65 @@
       <c r="X89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="11" t="s">
-        <v>58</v>
+      <c r="Y89" s="11">
+        <v>3411</v>
       </c>
       <c r="Z89" s="11">
-        <v>3411</v>
+        <v>21870</v>
       </c>
       <c r="AA89" s="11">
-        <v>21870</v>
+        <v>83823</v>
       </c>
       <c r="AB89" s="11">
-        <v>83823</v>
+        <v>75112</v>
       </c>
       <c r="AC89" s="11">
-        <v>75112</v>
+        <v>84816</v>
       </c>
       <c r="AD89" s="11">
-        <v>84816</v>
+        <v>52123</v>
       </c>
       <c r="AE89" s="11">
-        <v>52123</v>
+        <v>23993</v>
       </c>
       <c r="AF89" s="11">
-        <v>23993</v>
+        <v>5966</v>
       </c>
       <c r="AG89" s="11">
-        <v>5966</v>
+        <v>140</v>
       </c>
       <c r="AH89" s="11">
-        <v>140</v>
+        <v>1181</v>
       </c>
       <c r="AI89" s="11">
-        <v>1181</v>
+        <v>7063</v>
       </c>
       <c r="AJ89" s="11">
-        <v>7063</v>
+        <v>2041</v>
       </c>
       <c r="AK89" s="11">
-        <v>2041</v>
+        <v>18102</v>
       </c>
       <c r="AL89" s="11">
-        <v>18102</v>
+        <v>51274</v>
       </c>
       <c r="AM89" s="11">
-        <v>51274</v>
+        <v>202979</v>
       </c>
       <c r="AN89" s="11">
-        <v>202979</v>
+        <v>85758</v>
       </c>
       <c r="AO89" s="11">
-        <v>85758</v>
+        <v>155250</v>
       </c>
       <c r="AP89" s="11">
-        <v>155250</v>
+        <v>42358</v>
       </c>
       <c r="AQ89" s="11">
-        <v>42358</v>
-      </c>
-      <c r="AR89" s="11">
         <v>30972</v>
+      </c>
+      <c r="AR89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS89" s="11" t="s">
         <v>58</v>
@@ -12527,35 +12527,35 @@
       <c r="X90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="13" t="s">
-        <v>58</v>
+      <c r="Y90" s="13">
+        <v>2006308</v>
       </c>
       <c r="Z90" s="13">
-        <v>2006308</v>
+        <v>1902720</v>
       </c>
       <c r="AA90" s="13">
-        <v>1902720</v>
+        <v>2200480</v>
       </c>
       <c r="AB90" s="13">
-        <v>2200480</v>
+        <v>2197493</v>
       </c>
       <c r="AC90" s="13">
-        <v>2197493</v>
+        <v>2191834</v>
       </c>
       <c r="AD90" s="13">
-        <v>2191834</v>
+        <v>3218373</v>
       </c>
       <c r="AE90" s="13">
-        <v>3218373</v>
+        <v>3267423</v>
       </c>
       <c r="AF90" s="13">
-        <v>3267423</v>
+        <v>3731400</v>
       </c>
       <c r="AG90" s="13">
-        <v>3731400</v>
-      </c>
-      <c r="AH90" s="13">
         <v>3716998</v>
+      </c>
+      <c r="AH90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI90" s="13" t="s">
         <v>58</v>
@@ -12713,68 +12713,68 @@
       <c r="AG91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH91" s="11" t="s">
-        <v>58</v>
+      <c r="AH91" s="11">
+        <v>798907</v>
       </c>
       <c r="AI91" s="11">
-        <v>798907</v>
+        <v>1027952</v>
       </c>
       <c r="AJ91" s="11">
-        <v>1027952</v>
+        <v>1905166</v>
       </c>
       <c r="AK91" s="11">
-        <v>1905166</v>
+        <v>1450632</v>
       </c>
       <c r="AL91" s="11">
-        <v>1450632</v>
+        <v>1271771</v>
       </c>
       <c r="AM91" s="11">
-        <v>1271771</v>
+        <v>1735887</v>
       </c>
       <c r="AN91" s="11">
-        <v>1735887</v>
+        <v>1368106</v>
       </c>
       <c r="AO91" s="11">
-        <v>1368106</v>
+        <v>1138728</v>
       </c>
       <c r="AP91" s="11">
-        <v>1138728</v>
+        <v>2227221</v>
       </c>
       <c r="AQ91" s="11">
-        <v>2227221</v>
+        <v>1282602</v>
       </c>
       <c r="AR91" s="11">
-        <v>1282602</v>
+        <v>1502739</v>
       </c>
       <c r="AS91" s="11">
-        <v>1502739</v>
+        <v>901407</v>
       </c>
       <c r="AT91" s="11">
-        <v>901407</v>
+        <v>499882</v>
       </c>
       <c r="AU91" s="11">
-        <v>499882</v>
+        <v>1463831</v>
       </c>
       <c r="AV91" s="11">
-        <v>1463831</v>
+        <v>1749063</v>
       </c>
       <c r="AW91" s="11">
-        <v>1749063</v>
+        <v>1746146</v>
       </c>
       <c r="AX91" s="11">
-        <v>1746146</v>
+        <v>2098019</v>
       </c>
       <c r="AY91" s="11">
-        <v>2098019</v>
+        <v>1938946</v>
       </c>
       <c r="AZ91" s="11">
-        <v>1938946</v>
+        <v>1501683</v>
       </c>
       <c r="BA91" s="11">
-        <v>1501683</v>
+        <v>1218369</v>
       </c>
       <c r="BB91" s="11">
-        <v>1218369</v>
+        <v>2154230</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12872,68 +12872,68 @@
       <c r="AG92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH92" s="13" t="s">
-        <v>58</v>
+      <c r="AH92" s="13">
+        <v>118873</v>
       </c>
       <c r="AI92" s="13">
-        <v>118873</v>
+        <v>119544</v>
       </c>
       <c r="AJ92" s="13">
-        <v>119544</v>
+        <v>136697</v>
       </c>
       <c r="AK92" s="13">
-        <v>136697</v>
+        <v>289636</v>
       </c>
       <c r="AL92" s="13">
-        <v>289636</v>
+        <v>142026</v>
       </c>
       <c r="AM92" s="13">
-        <v>142026</v>
+        <v>194039</v>
       </c>
       <c r="AN92" s="13">
-        <v>194039</v>
+        <v>8890</v>
       </c>
       <c r="AO92" s="13">
-        <v>8890</v>
+        <v>142363</v>
       </c>
       <c r="AP92" s="13">
-        <v>142363</v>
+        <v>11487</v>
       </c>
       <c r="AQ92" s="13">
-        <v>11487</v>
+        <v>127553</v>
       </c>
       <c r="AR92" s="13">
-        <v>127553</v>
+        <v>0</v>
       </c>
       <c r="AS92" s="13">
-        <v>0</v>
+        <v>127263</v>
       </c>
       <c r="AT92" s="13">
-        <v>127263</v>
+        <v>111447</v>
       </c>
       <c r="AU92" s="13">
-        <v>111447</v>
+        <v>79359</v>
       </c>
       <c r="AV92" s="13">
-        <v>79359</v>
+        <v>169836</v>
       </c>
       <c r="AW92" s="13">
-        <v>169836</v>
+        <v>227364</v>
       </c>
       <c r="AX92" s="13">
-        <v>227364</v>
+        <v>100161</v>
       </c>
       <c r="AY92" s="13">
-        <v>100161</v>
+        <v>56647</v>
       </c>
       <c r="AZ92" s="13">
-        <v>56647</v>
+        <v>162933</v>
       </c>
       <c r="BA92" s="13">
-        <v>162933</v>
+        <v>45360</v>
       </c>
       <c r="BB92" s="13">
-        <v>45360</v>
+        <v>117036</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -13004,95 +13004,95 @@
       <c r="X93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
+      <c r="Y93" s="11">
+        <v>6113</v>
       </c>
       <c r="Z93" s="11">
-        <v>6113</v>
+        <v>2348</v>
       </c>
       <c r="AA93" s="11">
-        <v>2348</v>
+        <v>17001</v>
       </c>
       <c r="AB93" s="11">
-        <v>17001</v>
+        <v>8003</v>
       </c>
       <c r="AC93" s="11">
-        <v>8003</v>
+        <v>1572</v>
       </c>
       <c r="AD93" s="11">
-        <v>1572</v>
+        <v>10035</v>
       </c>
       <c r="AE93" s="11">
-        <v>10035</v>
+        <v>3491</v>
       </c>
       <c r="AF93" s="11">
-        <v>3491</v>
+        <v>5748</v>
       </c>
       <c r="AG93" s="11">
-        <v>5748</v>
+        <v>2326</v>
       </c>
       <c r="AH93" s="11">
-        <v>2326</v>
+        <v>19239</v>
       </c>
       <c r="AI93" s="11">
-        <v>19239</v>
+        <v>16987</v>
       </c>
       <c r="AJ93" s="11">
-        <v>16987</v>
+        <v>33160</v>
       </c>
       <c r="AK93" s="11">
-        <v>33160</v>
+        <v>24910</v>
       </c>
       <c r="AL93" s="11">
-        <v>24910</v>
+        <v>2995</v>
       </c>
       <c r="AM93" s="11">
-        <v>2995</v>
+        <v>410</v>
       </c>
       <c r="AN93" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="11">
         <v>0</v>
       </c>
       <c r="AP93" s="11">
-        <v>0</v>
+        <v>8537</v>
       </c>
       <c r="AQ93" s="11">
-        <v>8537</v>
+        <v>10739</v>
       </c>
       <c r="AR93" s="11">
-        <v>10739</v>
+        <v>20053</v>
       </c>
       <c r="AS93" s="11">
-        <v>20053</v>
+        <v>32684</v>
       </c>
       <c r="AT93" s="11">
-        <v>32684</v>
+        <v>5468</v>
       </c>
       <c r="AU93" s="11">
-        <v>5468</v>
+        <v>20647</v>
       </c>
       <c r="AV93" s="11">
-        <v>20647</v>
+        <v>6018</v>
       </c>
       <c r="AW93" s="11">
-        <v>6018</v>
+        <v>1494</v>
       </c>
       <c r="AX93" s="11">
-        <v>1494</v>
+        <v>1429</v>
       </c>
       <c r="AY93" s="11">
-        <v>1429</v>
+        <v>65</v>
       </c>
       <c r="AZ93" s="11">
-        <v>65</v>
+        <v>6157</v>
       </c>
       <c r="BA93" s="11">
-        <v>6157</v>
+        <v>11770</v>
       </c>
       <c r="BB93" s="11">
-        <v>11770</v>
+        <v>48802</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13220,38 +13220,38 @@
       <c r="AQ94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>58</v>
+      <c r="AR94" s="13">
+        <v>0</v>
       </c>
       <c r="AS94" s="13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AT94" s="13">
-        <v>73</v>
+        <v>5787</v>
       </c>
       <c r="AU94" s="13">
-        <v>5787</v>
+        <v>22723</v>
       </c>
       <c r="AV94" s="13">
-        <v>22723</v>
+        <v>49385</v>
       </c>
       <c r="AW94" s="13">
-        <v>49385</v>
+        <v>174435</v>
       </c>
       <c r="AX94" s="13">
-        <v>174435</v>
+        <v>95500</v>
       </c>
       <c r="AY94" s="13">
-        <v>95500</v>
+        <v>7652</v>
       </c>
       <c r="AZ94" s="13">
-        <v>7652</v>
+        <v>12005</v>
       </c>
       <c r="BA94" s="13">
-        <v>12005</v>
+        <v>25647</v>
       </c>
       <c r="BB94" s="13">
-        <v>25648</v>
+        <v>18337</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13349,68 +13349,68 @@
       <c r="AG95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH95" s="11" t="s">
-        <v>58</v>
+      <c r="AH95" s="11">
+        <v>86706</v>
       </c>
       <c r="AI95" s="11">
-        <v>86706</v>
+        <v>189795</v>
       </c>
       <c r="AJ95" s="11">
-        <v>189795</v>
+        <v>306838</v>
       </c>
       <c r="AK95" s="11">
-        <v>306838</v>
+        <v>153510</v>
       </c>
       <c r="AL95" s="11">
-        <v>153510</v>
+        <v>60192</v>
       </c>
       <c r="AM95" s="11">
-        <v>60192</v>
+        <v>93674</v>
       </c>
       <c r="AN95" s="11">
-        <v>93674</v>
+        <v>228603</v>
       </c>
       <c r="AO95" s="11">
-        <v>228603</v>
+        <v>312174</v>
       </c>
       <c r="AP95" s="11">
-        <v>312174</v>
+        <v>516691</v>
       </c>
       <c r="AQ95" s="11">
-        <v>516691</v>
+        <v>491045</v>
       </c>
       <c r="AR95" s="11">
-        <v>491045</v>
+        <v>488373</v>
       </c>
       <c r="AS95" s="11">
-        <v>488373</v>
+        <v>367993</v>
       </c>
       <c r="AT95" s="11">
-        <v>367993</v>
+        <v>226698</v>
       </c>
       <c r="AU95" s="11">
-        <v>226698</v>
+        <v>584850</v>
       </c>
       <c r="AV95" s="11">
-        <v>584850</v>
+        <v>751179</v>
       </c>
       <c r="AW95" s="11">
-        <v>751179</v>
+        <v>559005</v>
       </c>
       <c r="AX95" s="11">
-        <v>559005</v>
+        <v>314314</v>
       </c>
       <c r="AY95" s="11">
-        <v>314314</v>
+        <v>332749</v>
       </c>
       <c r="AZ95" s="11">
-        <v>332749</v>
+        <v>111253</v>
       </c>
       <c r="BA95" s="11">
-        <v>111253</v>
+        <v>139409</v>
       </c>
       <c r="BB95" s="11">
-        <v>139409</v>
+        <v>195631</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -13481,35 +13481,35 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>210405</v>
       </c>
       <c r="Z96" s="13">
-        <v>210405</v>
+        <v>180424</v>
       </c>
       <c r="AA96" s="13">
-        <v>180424</v>
+        <v>155322</v>
       </c>
       <c r="AB96" s="13">
-        <v>155322</v>
+        <v>196290</v>
       </c>
       <c r="AC96" s="13">
-        <v>196290</v>
+        <v>241156</v>
       </c>
       <c r="AD96" s="13">
-        <v>241156</v>
+        <v>194194</v>
       </c>
       <c r="AE96" s="13">
-        <v>194194</v>
+        <v>281191</v>
       </c>
       <c r="AF96" s="13">
-        <v>281191</v>
+        <v>301233</v>
       </c>
       <c r="AG96" s="13">
-        <v>301233</v>
-      </c>
-      <c r="AH96" s="13">
         <v>277804</v>
+      </c>
+      <c r="AH96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI96" s="13" t="s">
         <v>58</v>
@@ -13667,68 +13667,68 @@
       <c r="AG97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH97" s="11" t="s">
-        <v>58</v>
+      <c r="AH97" s="11">
+        <v>961797</v>
       </c>
       <c r="AI97" s="11">
-        <v>961797</v>
+        <v>1222296</v>
       </c>
       <c r="AJ97" s="11">
-        <v>1222296</v>
+        <v>1534794</v>
       </c>
       <c r="AK97" s="11">
-        <v>1534794</v>
+        <v>1348348</v>
       </c>
       <c r="AL97" s="11">
-        <v>1348348</v>
+        <v>1505517</v>
       </c>
       <c r="AM97" s="11">
-        <v>1505517</v>
+        <v>1716580</v>
       </c>
       <c r="AN97" s="11">
-        <v>1716580</v>
+        <v>1363783</v>
       </c>
       <c r="AO97" s="11">
-        <v>1363783</v>
+        <v>1273493</v>
       </c>
       <c r="AP97" s="11">
-        <v>1273493</v>
+        <v>1441869</v>
       </c>
       <c r="AQ97" s="11">
-        <v>1441869</v>
+        <v>1361011</v>
       </c>
       <c r="AR97" s="11">
-        <v>1361011</v>
+        <v>1240558</v>
       </c>
       <c r="AS97" s="11">
-        <v>1240558</v>
+        <v>1473870</v>
       </c>
       <c r="AT97" s="11">
-        <v>1473870</v>
+        <v>580310</v>
       </c>
       <c r="AU97" s="11">
-        <v>580310</v>
+        <v>1078203</v>
       </c>
       <c r="AV97" s="11">
-        <v>1078203</v>
+        <v>2182482</v>
       </c>
       <c r="AW97" s="11">
-        <v>2182482</v>
+        <v>1597982</v>
       </c>
       <c r="AX97" s="11">
-        <v>1597982</v>
+        <v>2016372</v>
       </c>
       <c r="AY97" s="11">
-        <v>2016372</v>
+        <v>2419135</v>
       </c>
       <c r="AZ97" s="11">
-        <v>2419135</v>
+        <v>1644801</v>
       </c>
       <c r="BA97" s="11">
-        <v>1644801</v>
+        <v>1771268</v>
       </c>
       <c r="BB97" s="11">
-        <v>1771268</v>
+        <v>1731324</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13826,68 +13826,68 @@
       <c r="AG98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH98" s="13" t="s">
-        <v>58</v>
+      <c r="AH98" s="13">
+        <v>1001312</v>
       </c>
       <c r="AI98" s="13">
-        <v>1001312</v>
+        <v>1186065</v>
       </c>
       <c r="AJ98" s="13">
-        <v>1186065</v>
+        <v>1364742</v>
       </c>
       <c r="AK98" s="13">
-        <v>1364742</v>
+        <v>920625</v>
       </c>
       <c r="AL98" s="13">
-        <v>920625</v>
+        <v>1435907</v>
       </c>
       <c r="AM98" s="13">
-        <v>1435907</v>
+        <v>1322678</v>
       </c>
       <c r="AN98" s="13">
-        <v>1322678</v>
+        <v>1501849</v>
       </c>
       <c r="AO98" s="13">
-        <v>1501849</v>
+        <v>1726354</v>
       </c>
       <c r="AP98" s="13">
-        <v>1726354</v>
+        <v>1734352</v>
       </c>
       <c r="AQ98" s="13">
-        <v>1734352</v>
+        <v>1866318</v>
       </c>
       <c r="AR98" s="13">
-        <v>1866318</v>
+        <v>1636011</v>
       </c>
       <c r="AS98" s="13">
-        <v>1636011</v>
+        <v>1677017</v>
       </c>
       <c r="AT98" s="13">
-        <v>1677017</v>
+        <v>898133</v>
       </c>
       <c r="AU98" s="13">
-        <v>898133</v>
+        <v>1709335</v>
       </c>
       <c r="AV98" s="13">
-        <v>1709335</v>
+        <v>2157671</v>
       </c>
       <c r="AW98" s="13">
-        <v>2157671</v>
+        <v>2203048</v>
       </c>
       <c r="AX98" s="13">
-        <v>2203048</v>
+        <v>2323437</v>
       </c>
       <c r="AY98" s="13">
-        <v>2323437</v>
+        <v>3312235</v>
       </c>
       <c r="AZ98" s="13">
-        <v>3312235</v>
+        <v>2252944</v>
       </c>
       <c r="BA98" s="13">
-        <v>2252944</v>
+        <v>2897003</v>
       </c>
       <c r="BB98" s="13">
-        <v>2897003</v>
+        <v>2914212</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13985,68 +13985,68 @@
       <c r="AG99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH99" s="11" t="s">
-        <v>58</v>
+      <c r="AH99" s="11">
+        <v>414689</v>
       </c>
       <c r="AI99" s="11">
-        <v>414689</v>
+        <v>701807</v>
       </c>
       <c r="AJ99" s="11">
-        <v>701807</v>
+        <v>630462</v>
       </c>
       <c r="AK99" s="11">
-        <v>630462</v>
+        <v>548203</v>
       </c>
       <c r="AL99" s="11">
-        <v>548203</v>
+        <v>403964</v>
       </c>
       <c r="AM99" s="11">
-        <v>403964</v>
+        <v>775106</v>
       </c>
       <c r="AN99" s="11">
-        <v>775106</v>
+        <v>649521</v>
       </c>
       <c r="AO99" s="11">
-        <v>649521</v>
+        <v>632332</v>
       </c>
       <c r="AP99" s="11">
-        <v>632332</v>
+        <v>617866</v>
       </c>
       <c r="AQ99" s="11">
-        <v>617866</v>
+        <v>528351</v>
       </c>
       <c r="AR99" s="11">
-        <v>528351</v>
+        <v>586166</v>
       </c>
       <c r="AS99" s="11">
-        <v>586166</v>
+        <v>754586</v>
       </c>
       <c r="AT99" s="11">
-        <v>754586</v>
+        <v>397241</v>
       </c>
       <c r="AU99" s="11">
-        <v>397241</v>
+        <v>924724</v>
       </c>
       <c r="AV99" s="11">
-        <v>924724</v>
+        <v>1062554</v>
       </c>
       <c r="AW99" s="11">
-        <v>1062554</v>
+        <v>648397</v>
       </c>
       <c r="AX99" s="11">
-        <v>648397</v>
+        <v>755556</v>
       </c>
       <c r="AY99" s="11">
-        <v>755556</v>
+        <v>706033</v>
       </c>
       <c r="AZ99" s="11">
-        <v>706033</v>
+        <v>560827</v>
       </c>
       <c r="BA99" s="11">
-        <v>560827</v>
+        <v>773745</v>
       </c>
       <c r="BB99" s="11">
-        <v>773745</v>
+        <v>695713</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -14144,68 +14144,68 @@
       <c r="AG100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH100" s="13" t="s">
-        <v>58</v>
+      <c r="AH100" s="13">
+        <v>193824</v>
       </c>
       <c r="AI100" s="13">
-        <v>193824</v>
+        <v>216114</v>
       </c>
       <c r="AJ100" s="13">
-        <v>216114</v>
+        <v>307272</v>
       </c>
       <c r="AK100" s="13">
-        <v>307272</v>
+        <v>134029</v>
       </c>
       <c r="AL100" s="13">
-        <v>134029</v>
+        <v>183420</v>
       </c>
       <c r="AM100" s="13">
-        <v>183420</v>
+        <v>248190</v>
       </c>
       <c r="AN100" s="13">
-        <v>248190</v>
+        <v>217942</v>
       </c>
       <c r="AO100" s="13">
-        <v>217942</v>
+        <v>224292</v>
       </c>
       <c r="AP100" s="13">
-        <v>224292</v>
+        <v>309289</v>
       </c>
       <c r="AQ100" s="13">
-        <v>309289</v>
+        <v>181043</v>
       </c>
       <c r="AR100" s="13">
-        <v>181043</v>
+        <v>184352</v>
       </c>
       <c r="AS100" s="13">
-        <v>184352</v>
+        <v>212206</v>
       </c>
       <c r="AT100" s="13">
-        <v>212206</v>
+        <v>198259</v>
       </c>
       <c r="AU100" s="13">
-        <v>198259</v>
+        <v>426184</v>
       </c>
       <c r="AV100" s="13">
-        <v>426184</v>
+        <v>444298</v>
       </c>
       <c r="AW100" s="13">
-        <v>444298</v>
+        <v>188180</v>
       </c>
       <c r="AX100" s="13">
-        <v>188180</v>
+        <v>162272</v>
       </c>
       <c r="AY100" s="13">
-        <v>162272</v>
+        <v>463428</v>
       </c>
       <c r="AZ100" s="13">
-        <v>463428</v>
+        <v>258955</v>
       </c>
       <c r="BA100" s="13">
-        <v>258955</v>
+        <v>363486</v>
       </c>
       <c r="BB100" s="13">
-        <v>363486</v>
+        <v>400273</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14303,68 +14303,68 @@
       <c r="AG101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH101" s="11" t="s">
-        <v>58</v>
+      <c r="AH101" s="11">
+        <v>150004</v>
       </c>
       <c r="AI101" s="11">
-        <v>150004</v>
+        <v>180250</v>
       </c>
       <c r="AJ101" s="11">
-        <v>180250</v>
+        <v>151501</v>
       </c>
       <c r="AK101" s="11">
-        <v>151501</v>
+        <v>218055</v>
       </c>
       <c r="AL101" s="11">
-        <v>218055</v>
+        <v>111482</v>
       </c>
       <c r="AM101" s="11">
-        <v>111482</v>
+        <v>55333</v>
       </c>
       <c r="AN101" s="11">
-        <v>55333</v>
+        <v>59249</v>
       </c>
       <c r="AO101" s="11">
-        <v>59249</v>
+        <v>102468</v>
       </c>
       <c r="AP101" s="11">
-        <v>102468</v>
+        <v>165410</v>
       </c>
       <c r="AQ101" s="11">
-        <v>165410</v>
+        <v>99340</v>
       </c>
       <c r="AR101" s="11">
-        <v>99340</v>
+        <v>2573</v>
       </c>
       <c r="AS101" s="11">
-        <v>2573</v>
+        <v>81372</v>
       </c>
       <c r="AT101" s="11">
-        <v>81372</v>
+        <v>130645</v>
       </c>
       <c r="AU101" s="11">
-        <v>130645</v>
+        <v>204121</v>
       </c>
       <c r="AV101" s="11">
-        <v>204121</v>
+        <v>296301</v>
       </c>
       <c r="AW101" s="11">
-        <v>296301</v>
+        <v>119760</v>
       </c>
       <c r="AX101" s="11">
-        <v>119760</v>
+        <v>131528</v>
       </c>
       <c r="AY101" s="11">
-        <v>131528</v>
+        <v>378443</v>
       </c>
       <c r="AZ101" s="11">
-        <v>378443</v>
+        <v>480428</v>
       </c>
       <c r="BA101" s="11">
-        <v>480428</v>
+        <v>373045</v>
       </c>
       <c r="BB101" s="11">
-        <v>373045</v>
+        <v>170802</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -14462,20 +14462,20 @@
       <c r="AG102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH102" s="13" t="s">
-        <v>58</v>
+      <c r="AH102" s="13">
+        <v>0</v>
       </c>
       <c r="AI102" s="13">
         <v>0</v>
       </c>
       <c r="AJ102" s="13">
-        <v>0</v>
+        <v>65173</v>
       </c>
       <c r="AK102" s="13">
-        <v>65173</v>
+        <v>62725</v>
       </c>
       <c r="AL102" s="13">
-        <v>62725</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="13">
         <v>0</v>
@@ -14498,8 +14498,8 @@
       <c r="AS102" s="13">
         <v>0</v>
       </c>
-      <c r="AT102" s="13">
-        <v>0</v>
+      <c r="AT102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU102" s="13" t="s">
         <v>58</v>
@@ -14593,94 +14593,94 @@
         <v>0</v>
       </c>
       <c r="Y103" s="15">
-        <v>0</v>
+        <v>2226237</v>
       </c>
       <c r="Z103" s="15">
-        <v>2226237</v>
+        <v>2107362</v>
       </c>
       <c r="AA103" s="15">
-        <v>2107362</v>
+        <v>2456626</v>
       </c>
       <c r="AB103" s="15">
-        <v>2456626</v>
+        <v>2476898</v>
       </c>
       <c r="AC103" s="15">
-        <v>2476898</v>
+        <v>2519378</v>
       </c>
       <c r="AD103" s="15">
-        <v>2519378</v>
+        <v>3474725</v>
       </c>
       <c r="AE103" s="15">
-        <v>3474725</v>
+        <v>3576098</v>
       </c>
       <c r="AF103" s="15">
-        <v>3576098</v>
+        <v>4044347</v>
       </c>
       <c r="AG103" s="15">
-        <v>4044347</v>
+        <v>3997268</v>
       </c>
       <c r="AH103" s="15">
-        <v>3997268</v>
+        <v>3746532</v>
       </c>
       <c r="AI103" s="15">
-        <v>3746532</v>
+        <v>4867873</v>
       </c>
       <c r="AJ103" s="15">
-        <v>4867873</v>
+        <v>6437846</v>
       </c>
       <c r="AK103" s="15">
-        <v>6437846</v>
+        <v>5168775</v>
       </c>
       <c r="AL103" s="15">
-        <v>5168775</v>
+        <v>5168548</v>
       </c>
       <c r="AM103" s="15">
-        <v>5168548</v>
+        <v>6344876</v>
       </c>
       <c r="AN103" s="15">
-        <v>6344876</v>
+        <v>5483701</v>
       </c>
       <c r="AO103" s="15">
-        <v>5483701</v>
+        <v>5707454</v>
       </c>
       <c r="AP103" s="15">
-        <v>5707454</v>
+        <v>7075080</v>
       </c>
       <c r="AQ103" s="15">
-        <v>7075080</v>
+        <v>5978974</v>
       </c>
       <c r="AR103" s="15">
-        <v>5978974</v>
+        <v>5660825</v>
       </c>
       <c r="AS103" s="15">
-        <v>5660825</v>
+        <v>5628471</v>
       </c>
       <c r="AT103" s="15">
-        <v>5628471</v>
+        <v>3053870</v>
       </c>
       <c r="AU103" s="15">
-        <v>3053870</v>
+        <v>6513977</v>
       </c>
       <c r="AV103" s="15">
-        <v>6513977</v>
+        <v>8868787</v>
       </c>
       <c r="AW103" s="15">
-        <v>8868787</v>
+        <v>7465811</v>
       </c>
       <c r="AX103" s="15">
-        <v>7465811</v>
+        <v>7998588</v>
       </c>
       <c r="AY103" s="15">
-        <v>7998588</v>
+        <v>9615333</v>
       </c>
       <c r="AZ103" s="15">
-        <v>9615333</v>
+        <v>6991986</v>
       </c>
       <c r="BA103" s="15">
-        <v>6991986</v>
+        <v>7619102</v>
       </c>
       <c r="BB103" s="15">
-        <v>7619103</v>
+        <v>8446360</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -14808,35 +14808,35 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>2649272</v>
       </c>
       <c r="Z105" s="11">
-        <v>2649272</v>
+        <v>2380622</v>
       </c>
       <c r="AA105" s="11">
-        <v>2380622</v>
+        <v>3067050</v>
       </c>
       <c r="AB105" s="11">
-        <v>3067050</v>
+        <v>4532165</v>
       </c>
       <c r="AC105" s="11">
-        <v>4532165</v>
+        <v>3970304</v>
       </c>
       <c r="AD105" s="11">
-        <v>3970304</v>
+        <v>4085110</v>
       </c>
       <c r="AE105" s="11">
-        <v>4085110</v>
+        <v>4822750</v>
       </c>
       <c r="AF105" s="11">
-        <v>4822750</v>
+        <v>3569784</v>
       </c>
       <c r="AG105" s="11">
-        <v>3569784</v>
-      </c>
-      <c r="AH105" s="11">
         <v>4125637</v>
+      </c>
+      <c r="AH105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI105" s="11" t="s">
         <v>58</v>
@@ -14994,68 +14994,68 @@
       <c r="AG106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH106" s="13" t="s">
-        <v>58</v>
+      <c r="AH106" s="13">
+        <v>2403391</v>
       </c>
       <c r="AI106" s="13">
-        <v>2403391</v>
+        <v>2740400</v>
       </c>
       <c r="AJ106" s="13">
-        <v>2740400</v>
+        <v>2629580</v>
       </c>
       <c r="AK106" s="13">
-        <v>2629580</v>
+        <v>3143343</v>
       </c>
       <c r="AL106" s="13">
-        <v>3143343</v>
+        <v>4116018</v>
       </c>
       <c r="AM106" s="13">
-        <v>4116018</v>
+        <v>6891361</v>
       </c>
       <c r="AN106" s="13">
-        <v>6891361</v>
+        <v>3269018</v>
       </c>
       <c r="AO106" s="13">
-        <v>3269018</v>
+        <v>2468673</v>
       </c>
       <c r="AP106" s="13">
-        <v>2468673</v>
+        <v>2410165</v>
       </c>
       <c r="AQ106" s="13">
-        <v>2410165</v>
+        <v>3027855</v>
       </c>
       <c r="AR106" s="13">
-        <v>3027855</v>
+        <v>2494192</v>
       </c>
       <c r="AS106" s="13">
-        <v>2494192</v>
+        <v>4707047</v>
       </c>
       <c r="AT106" s="13">
-        <v>4707047</v>
+        <v>1699662</v>
       </c>
       <c r="AU106" s="13">
-        <v>1699662</v>
+        <v>5575024</v>
       </c>
       <c r="AV106" s="13">
-        <v>5575024</v>
+        <v>9567094</v>
       </c>
       <c r="AW106" s="13">
-        <v>9567094</v>
+        <v>8543265</v>
       </c>
       <c r="AX106" s="13">
-        <v>8543265</v>
+        <v>5718954</v>
       </c>
       <c r="AY106" s="13">
-        <v>5718954</v>
+        <v>4164872</v>
       </c>
       <c r="AZ106" s="13">
-        <v>4164872</v>
+        <v>2840623</v>
       </c>
       <c r="BA106" s="13">
-        <v>2840623</v>
+        <v>4095317</v>
       </c>
       <c r="BB106" s="13">
-        <v>4095318</v>
+        <v>2730850</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15153,68 +15153,68 @@
       <c r="AG107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH107" s="11" t="s">
-        <v>58</v>
+      <c r="AH107" s="11">
+        <v>24717</v>
       </c>
       <c r="AI107" s="11">
-        <v>24717</v>
+        <v>159482</v>
       </c>
       <c r="AJ107" s="11">
-        <v>159482</v>
+        <v>141233</v>
       </c>
       <c r="AK107" s="11">
-        <v>141233</v>
+        <v>119851</v>
       </c>
       <c r="AL107" s="11">
-        <v>119851</v>
+        <v>293321</v>
       </c>
       <c r="AM107" s="11">
-        <v>293321</v>
+        <v>138759</v>
       </c>
       <c r="AN107" s="11">
-        <v>138759</v>
+        <v>302149</v>
       </c>
       <c r="AO107" s="11">
-        <v>302149</v>
+        <v>151483</v>
       </c>
       <c r="AP107" s="11">
-        <v>151483</v>
+        <v>563138</v>
       </c>
       <c r="AQ107" s="11">
-        <v>563138</v>
+        <v>325102</v>
       </c>
       <c r="AR107" s="11">
-        <v>325102</v>
+        <v>277470</v>
       </c>
       <c r="AS107" s="11">
-        <v>277470</v>
+        <v>114495</v>
       </c>
       <c r="AT107" s="11">
-        <v>114495</v>
+        <v>115041</v>
       </c>
       <c r="AU107" s="11">
-        <v>115041</v>
+        <v>384503</v>
       </c>
       <c r="AV107" s="11">
-        <v>384503</v>
+        <v>138700</v>
       </c>
       <c r="AW107" s="11">
-        <v>138700</v>
+        <v>34336</v>
       </c>
       <c r="AX107" s="11">
-        <v>34336</v>
+        <v>12822</v>
       </c>
       <c r="AY107" s="11">
-        <v>12822</v>
+        <v>107753</v>
       </c>
       <c r="AZ107" s="11">
-        <v>107753</v>
+        <v>249954</v>
       </c>
       <c r="BA107" s="11">
-        <v>249954</v>
+        <v>287519</v>
       </c>
       <c r="BB107" s="11">
-        <v>287521</v>
+        <v>417575</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -15312,68 +15312,68 @@
       <c r="AG108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH108" s="13" t="s">
-        <v>58</v>
+      <c r="AH108" s="13">
+        <v>117278</v>
       </c>
       <c r="AI108" s="13">
-        <v>117278</v>
+        <v>339022</v>
       </c>
       <c r="AJ108" s="13">
-        <v>339022</v>
+        <v>265628</v>
       </c>
       <c r="AK108" s="13">
-        <v>265628</v>
+        <v>210656</v>
       </c>
       <c r="AL108" s="13">
-        <v>210656</v>
+        <v>590499</v>
       </c>
       <c r="AM108" s="13">
-        <v>590499</v>
+        <v>737891</v>
       </c>
       <c r="AN108" s="13">
-        <v>737891</v>
+        <v>345389</v>
       </c>
       <c r="AO108" s="13">
-        <v>345389</v>
+        <v>631956</v>
       </c>
       <c r="AP108" s="13">
-        <v>631956</v>
+        <v>539628</v>
       </c>
       <c r="AQ108" s="13">
-        <v>539628</v>
+        <v>278117</v>
       </c>
       <c r="AR108" s="13">
-        <v>278117</v>
+        <v>693225</v>
       </c>
       <c r="AS108" s="13">
-        <v>693225</v>
+        <v>286154</v>
       </c>
       <c r="AT108" s="13">
-        <v>286154</v>
+        <v>536396</v>
       </c>
       <c r="AU108" s="13">
-        <v>536396</v>
+        <v>584829</v>
       </c>
       <c r="AV108" s="13">
-        <v>584829</v>
+        <v>214459</v>
       </c>
       <c r="AW108" s="13">
-        <v>214459</v>
+        <v>579347</v>
       </c>
       <c r="AX108" s="13">
-        <v>579347</v>
+        <v>1069922</v>
       </c>
       <c r="AY108" s="13">
-        <v>1069922</v>
+        <v>481936</v>
       </c>
       <c r="AZ108" s="13">
-        <v>481936</v>
+        <v>566918</v>
       </c>
       <c r="BA108" s="13">
-        <v>566918</v>
+        <v>461425</v>
       </c>
       <c r="BB108" s="13">
-        <v>461425</v>
+        <v>316515</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -15444,35 +15444,35 @@
       <c r="X109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="11" t="s">
-        <v>58</v>
+      <c r="Y109" s="11">
+        <v>232100</v>
       </c>
       <c r="Z109" s="11">
-        <v>232100</v>
+        <v>389650</v>
       </c>
       <c r="AA109" s="11">
-        <v>389650</v>
+        <v>445775</v>
       </c>
       <c r="AB109" s="11">
-        <v>445775</v>
+        <v>415533</v>
       </c>
       <c r="AC109" s="11">
-        <v>415533</v>
+        <v>327247</v>
       </c>
       <c r="AD109" s="11">
-        <v>327247</v>
+        <v>463433</v>
       </c>
       <c r="AE109" s="11">
-        <v>463433</v>
+        <v>506472</v>
       </c>
       <c r="AF109" s="11">
-        <v>506472</v>
+        <v>836614</v>
       </c>
       <c r="AG109" s="11">
-        <v>836614</v>
-      </c>
-      <c r="AH109" s="11">
         <v>328938</v>
+      </c>
+      <c r="AH109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI109" s="11" t="s">
         <v>58</v>
@@ -15630,26 +15630,26 @@
       <c r="AG110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH110" s="13" t="s">
-        <v>58</v>
+      <c r="AH110" s="13">
+        <v>50697</v>
       </c>
       <c r="AI110" s="13">
-        <v>50697</v>
+        <v>0</v>
       </c>
       <c r="AJ110" s="13">
         <v>0</v>
       </c>
       <c r="AK110" s="13">
-        <v>0</v>
+        <v>11041</v>
       </c>
       <c r="AL110" s="13">
-        <v>11041</v>
+        <v>0</v>
       </c>
       <c r="AM110" s="13">
-        <v>0</v>
+        <v>92893</v>
       </c>
       <c r="AN110" s="13">
-        <v>92893</v>
+        <v>0</v>
       </c>
       <c r="AO110" s="13">
         <v>0</v>
@@ -15661,37 +15661,37 @@
         <v>0</v>
       </c>
       <c r="AR110" s="13">
-        <v>0</v>
+        <v>5977</v>
       </c>
       <c r="AS110" s="13">
-        <v>5977</v>
+        <v>11992</v>
       </c>
       <c r="AT110" s="13">
-        <v>11992</v>
+        <v>49823</v>
       </c>
       <c r="AU110" s="13">
-        <v>49823</v>
+        <v>0</v>
       </c>
       <c r="AV110" s="13">
         <v>0</v>
       </c>
       <c r="AW110" s="13">
-        <v>0</v>
+        <v>7960</v>
       </c>
       <c r="AX110" s="13">
-        <v>7960</v>
+        <v>0</v>
       </c>
       <c r="AY110" s="13">
         <v>0</v>
       </c>
       <c r="AZ110" s="13">
-        <v>0</v>
+        <v>14295</v>
       </c>
       <c r="BA110" s="13">
-        <v>14295</v>
+        <v>36031</v>
       </c>
       <c r="BB110" s="13">
-        <v>36031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15789,68 +15789,68 @@
       <c r="AG111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH111" s="11" t="s">
-        <v>58</v>
+      <c r="AH111" s="11">
+        <v>223296</v>
       </c>
       <c r="AI111" s="11">
-        <v>223296</v>
+        <v>151976</v>
       </c>
       <c r="AJ111" s="11">
-        <v>151976</v>
+        <v>228558</v>
       </c>
       <c r="AK111" s="11">
-        <v>228558</v>
+        <v>85354</v>
       </c>
       <c r="AL111" s="11">
-        <v>85354</v>
+        <v>316291</v>
       </c>
       <c r="AM111" s="11">
-        <v>316291</v>
+        <v>441790</v>
       </c>
       <c r="AN111" s="11">
-        <v>441790</v>
+        <v>78823</v>
       </c>
       <c r="AO111" s="11">
-        <v>78823</v>
+        <v>179267</v>
       </c>
       <c r="AP111" s="11">
-        <v>179267</v>
+        <v>238442</v>
       </c>
       <c r="AQ111" s="11">
-        <v>238442</v>
+        <v>93444</v>
       </c>
       <c r="AR111" s="11">
-        <v>93444</v>
+        <v>275482</v>
       </c>
       <c r="AS111" s="11">
-        <v>275482</v>
+        <v>104993</v>
       </c>
       <c r="AT111" s="11">
-        <v>104993</v>
+        <v>69223</v>
       </c>
       <c r="AU111" s="11">
-        <v>69223</v>
+        <v>56843</v>
       </c>
       <c r="AV111" s="11">
-        <v>56843</v>
+        <v>66833</v>
       </c>
       <c r="AW111" s="11">
-        <v>66833</v>
+        <v>52398</v>
       </c>
       <c r="AX111" s="11">
-        <v>52398</v>
+        <v>8911</v>
       </c>
       <c r="AY111" s="11">
-        <v>8911</v>
+        <v>101804</v>
       </c>
       <c r="AZ111" s="11">
-        <v>101804</v>
+        <v>241861</v>
       </c>
       <c r="BA111" s="11">
-        <v>241861</v>
+        <v>447446</v>
       </c>
       <c r="BB111" s="11">
-        <v>447446</v>
+        <v>1055882</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15963,11 +15963,11 @@
       <c r="AL112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM112" s="13" t="s">
-        <v>58</v>
+      <c r="AM112" s="13">
+        <v>10895</v>
       </c>
       <c r="AN112" s="13">
-        <v>10895</v>
+        <v>0</v>
       </c>
       <c r="AO112" s="13">
         <v>0</v>
@@ -15984,8 +15984,8 @@
       <c r="AS112" s="13">
         <v>0</v>
       </c>
-      <c r="AT112" s="13">
-        <v>0</v>
+      <c r="AT112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU112" s="13" t="s">
         <v>58</v>
@@ -16005,11 +16005,11 @@
       <c r="AZ112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB112" s="13" t="s">
-        <v>58</v>
+      <c r="BA112" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="13">
+        <v>96820</v>
       </c>
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.3">
@@ -16107,8 +16107,8 @@
       <c r="AG113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH113" s="11" t="s">
-        <v>58</v>
+      <c r="AH113" s="11">
+        <v>0</v>
       </c>
       <c r="AI113" s="11">
         <v>0</v>
@@ -16123,10 +16123,10 @@
         <v>0</v>
       </c>
       <c r="AM113" s="11">
-        <v>0</v>
+        <v>5443</v>
       </c>
       <c r="AN113" s="11">
-        <v>5443</v>
+        <v>0</v>
       </c>
       <c r="AO113" s="11">
         <v>0</v>
@@ -16143,8 +16143,8 @@
       <c r="AS113" s="11">
         <v>0</v>
       </c>
-      <c r="AT113" s="11">
-        <v>0</v>
+      <c r="AT113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU113" s="11" t="s">
         <v>58</v>
@@ -16158,8 +16158,8 @@
       <c r="AX113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY113" s="11" t="s">
-        <v>58</v>
+      <c r="AY113" s="11">
+        <v>0</v>
       </c>
       <c r="AZ113" s="11">
         <v>0</v>
@@ -16266,68 +16266,68 @@
       <c r="AG114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH114" s="13" t="s">
-        <v>58</v>
+      <c r="AH114" s="13">
+        <v>985765</v>
       </c>
       <c r="AI114" s="13">
-        <v>985765</v>
+        <v>1319977</v>
       </c>
       <c r="AJ114" s="13">
-        <v>1319977</v>
+        <v>1382703</v>
       </c>
       <c r="AK114" s="13">
-        <v>1382703</v>
+        <v>1370069</v>
       </c>
       <c r="AL114" s="13">
-        <v>1370069</v>
+        <v>1594481</v>
       </c>
       <c r="AM114" s="13">
-        <v>1594481</v>
+        <v>1323649</v>
       </c>
       <c r="AN114" s="13">
-        <v>1323649</v>
+        <v>2306240</v>
       </c>
       <c r="AO114" s="13">
-        <v>2306240</v>
+        <v>1914762</v>
       </c>
       <c r="AP114" s="13">
-        <v>1914762</v>
+        <v>1288154</v>
       </c>
       <c r="AQ114" s="13">
-        <v>1288154</v>
+        <v>768633</v>
       </c>
       <c r="AR114" s="13">
-        <v>768633</v>
+        <v>1781475</v>
       </c>
       <c r="AS114" s="13">
-        <v>1781475</v>
+        <v>168168</v>
       </c>
       <c r="AT114" s="13">
-        <v>168168</v>
+        <v>3148058</v>
       </c>
       <c r="AU114" s="13">
-        <v>3148058</v>
+        <v>2682384</v>
       </c>
       <c r="AV114" s="13">
-        <v>2682384</v>
+        <v>1990059</v>
       </c>
       <c r="AW114" s="13">
-        <v>1990059</v>
+        <v>1934285</v>
       </c>
       <c r="AX114" s="13">
-        <v>1934285</v>
+        <v>1619667</v>
       </c>
       <c r="AY114" s="13">
-        <v>1619667</v>
+        <v>1664246</v>
       </c>
       <c r="AZ114" s="13">
-        <v>1664246</v>
+        <v>1132691</v>
       </c>
       <c r="BA114" s="13">
-        <v>1132691</v>
+        <v>1936538</v>
       </c>
       <c r="BB114" s="13">
-        <v>1936538</v>
+        <v>1405624</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -16425,8 +16425,8 @@
       <c r="AG115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH115" s="11" t="s">
-        <v>58</v>
+      <c r="AH115" s="11">
+        <v>0</v>
       </c>
       <c r="AI115" s="11">
         <v>0</v>
@@ -16461,8 +16461,8 @@
       <c r="AS115" s="11">
         <v>0</v>
       </c>
-      <c r="AT115" s="11">
-        <v>0</v>
+      <c r="AT115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU115" s="11" t="s">
         <v>58</v>
@@ -16556,94 +16556,94 @@
         <v>0</v>
       </c>
       <c r="Y116" s="17">
-        <v>0</v>
+        <v>2881372</v>
       </c>
       <c r="Z116" s="17">
-        <v>2881372</v>
+        <v>2770272</v>
       </c>
       <c r="AA116" s="17">
-        <v>2770272</v>
+        <v>3512825</v>
       </c>
       <c r="AB116" s="17">
-        <v>3512825</v>
+        <v>4947698</v>
       </c>
       <c r="AC116" s="17">
-        <v>4947698</v>
+        <v>4297551</v>
       </c>
       <c r="AD116" s="17">
-        <v>4297551</v>
+        <v>4548543</v>
       </c>
       <c r="AE116" s="17">
-        <v>4548543</v>
+        <v>5329222</v>
       </c>
       <c r="AF116" s="17">
-        <v>5329222</v>
+        <v>4406398</v>
       </c>
       <c r="AG116" s="17">
-        <v>4406398</v>
+        <v>4454575</v>
       </c>
       <c r="AH116" s="17">
-        <v>4454575</v>
+        <v>3805144</v>
       </c>
       <c r="AI116" s="17">
-        <v>3805144</v>
+        <v>4710857</v>
       </c>
       <c r="AJ116" s="17">
-        <v>4710857</v>
+        <v>4647702</v>
       </c>
       <c r="AK116" s="17">
-        <v>4647702</v>
+        <v>4940314</v>
       </c>
       <c r="AL116" s="17">
-        <v>4940314</v>
+        <v>6910610</v>
       </c>
       <c r="AM116" s="17">
-        <v>6910610</v>
+        <v>9642681</v>
       </c>
       <c r="AN116" s="17">
-        <v>9642681</v>
+        <v>6301619</v>
       </c>
       <c r="AO116" s="17">
-        <v>6301619</v>
+        <v>5346141</v>
       </c>
       <c r="AP116" s="17">
-        <v>5346141</v>
+        <v>5039527</v>
       </c>
       <c r="AQ116" s="17">
-        <v>5039527</v>
+        <v>4493151</v>
       </c>
       <c r="AR116" s="17">
-        <v>4493151</v>
+        <v>5527821</v>
       </c>
       <c r="AS116" s="17">
-        <v>5527821</v>
+        <v>5392849</v>
       </c>
       <c r="AT116" s="17">
-        <v>5392849</v>
+        <v>5618203</v>
       </c>
       <c r="AU116" s="17">
-        <v>5618203</v>
+        <v>9283583</v>
       </c>
       <c r="AV116" s="17">
-        <v>9283583</v>
+        <v>11977145</v>
       </c>
       <c r="AW116" s="17">
-        <v>11977145</v>
+        <v>11151591</v>
       </c>
       <c r="AX116" s="17">
-        <v>11151591</v>
+        <v>8430276</v>
       </c>
       <c r="AY116" s="17">
-        <v>8430276</v>
+        <v>6520611</v>
       </c>
       <c r="AZ116" s="17">
-        <v>6520611</v>
+        <v>5046342</v>
       </c>
       <c r="BA116" s="17">
-        <v>5046342</v>
+        <v>7264276</v>
       </c>
       <c r="BB116" s="17">
-        <v>7264279</v>
+        <v>6023266</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -16771,8 +16771,8 @@
       <c r="X118" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="15" t="s">
-        <v>58</v>
+      <c r="Y118" s="15">
+        <v>0</v>
       </c>
       <c r="Z118" s="15">
         <v>0</v>
@@ -17017,53 +17017,53 @@
       <c r="AH120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI120" s="11" t="s">
-        <v>58</v>
+      <c r="AI120" s="11">
+        <v>-1096</v>
       </c>
       <c r="AJ120" s="11">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AK120" s="11">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AL120" s="11">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AM120" s="11">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AN120" s="11">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AO120" s="11">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AP120" s="11">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AQ120" s="11">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AR120" s="11">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AS120" s="11">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AT120" s="11">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AU120" s="11">
         <v>0</v>
       </c>
       <c r="AV120" s="11">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AW120" s="11">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AX120" s="11">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AY120" s="11">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         <v>0</v>
       </c>
       <c r="BA120" s="11">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="BB120" s="11">
-        <v>-4380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -17146,14 +17146,14 @@
       <c r="X121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y121" s="13" t="s">
-        <v>58</v>
+      <c r="Y121" s="13">
+        <v>-3871</v>
       </c>
       <c r="Z121" s="13">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AA121" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AB121" s="13">
         <v>0</v>
@@ -17162,19 +17162,19 @@
         <v>0</v>
       </c>
       <c r="AD121" s="13">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AE121" s="13">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AF121" s="13">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AG121" s="13">
-        <v>-1208</v>
-      </c>
-      <c r="AH121" s="13">
         <v>-530</v>
+      </c>
+      <c r="AH121" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI121" s="13" t="s">
         <v>58</v>
@@ -17305,14 +17305,14 @@
       <c r="X122" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" s="15" t="s">
-        <v>58</v>
+      <c r="Y122" s="15">
+        <v>-3871</v>
       </c>
       <c r="Z122" s="15">
-        <v>-3871</v>
+        <v>-55</v>
       </c>
       <c r="AA122" s="15">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AB122" s="15">
         <v>0</v>
@@ -17321,67 +17321,67 @@
         <v>0</v>
       </c>
       <c r="AD122" s="15">
-        <v>0</v>
+        <v>-1428</v>
       </c>
       <c r="AE122" s="15">
-        <v>-1428</v>
+        <v>0</v>
       </c>
       <c r="AF122" s="15">
-        <v>0</v>
+        <v>-1208</v>
       </c>
       <c r="AG122" s="15">
-        <v>-1208</v>
+        <v>-530</v>
       </c>
       <c r="AH122" s="15">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AI122" s="15">
-        <v>0</v>
+        <v>-1096</v>
       </c>
       <c r="AJ122" s="15">
-        <v>-1096</v>
+        <v>-1597</v>
       </c>
       <c r="AK122" s="15">
-        <v>-1597</v>
+        <v>-133</v>
       </c>
       <c r="AL122" s="15">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="AM122" s="15">
-        <v>0</v>
+        <v>-356143</v>
       </c>
       <c r="AN122" s="15">
-        <v>-356143</v>
+        <v>-4243</v>
       </c>
       <c r="AO122" s="15">
-        <v>-4243</v>
+        <v>0</v>
       </c>
       <c r="AP122" s="15">
-        <v>0</v>
+        <v>-4072</v>
       </c>
       <c r="AQ122" s="15">
-        <v>-4072</v>
+        <v>0</v>
       </c>
       <c r="AR122" s="15">
-        <v>0</v>
+        <v>-7758</v>
       </c>
       <c r="AS122" s="15">
-        <v>-7758</v>
+        <v>-34371</v>
       </c>
       <c r="AT122" s="15">
-        <v>-34371</v>
+        <v>0</v>
       </c>
       <c r="AU122" s="15">
         <v>0</v>
       </c>
       <c r="AV122" s="15">
-        <v>0</v>
+        <v>-1606</v>
       </c>
       <c r="AW122" s="15">
-        <v>-1606</v>
+        <v>1244</v>
       </c>
       <c r="AX122" s="15">
-        <v>1244</v>
+        <v>0</v>
       </c>
       <c r="AY122" s="15">
         <v>0</v>
@@ -17390,10 +17390,10 @@
         <v>0</v>
       </c>
       <c r="BA122" s="15">
-        <v>0</v>
+        <v>-4380</v>
       </c>
       <c r="BB122" s="15">
-        <v>-4380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:54" x14ac:dyDescent="0.3">
@@ -17521,95 +17521,95 @@
       <c r="X124" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y124" s="11" t="s">
-        <v>58</v>
+      <c r="Y124" s="11">
+        <v>-99965</v>
       </c>
       <c r="Z124" s="11">
-        <v>-99965</v>
+        <v>-63046</v>
       </c>
       <c r="AA124" s="11">
-        <v>-63046</v>
+        <v>-121319</v>
       </c>
       <c r="AB124" s="11">
-        <v>-121319</v>
+        <v>-104481</v>
       </c>
       <c r="AC124" s="11">
-        <v>-104481</v>
+        <v>-33470</v>
       </c>
       <c r="AD124" s="11">
-        <v>-33470</v>
+        <v>-108786</v>
       </c>
       <c r="AE124" s="11">
-        <v>-108786</v>
+        <v>-194709</v>
       </c>
       <c r="AF124" s="11">
-        <v>-194709</v>
+        <v>-160422</v>
       </c>
       <c r="AG124" s="11">
-        <v>-160422</v>
+        <v>-147739</v>
       </c>
       <c r="AH124" s="11">
-        <v>-147739</v>
+        <v>-82901</v>
       </c>
       <c r="AI124" s="11">
-        <v>-82901</v>
+        <v>-70815</v>
       </c>
       <c r="AJ124" s="11">
-        <v>-70815</v>
+        <v>-55936</v>
       </c>
       <c r="AK124" s="11">
-        <v>-55936</v>
+        <v>-166034</v>
       </c>
       <c r="AL124" s="11">
-        <v>-166034</v>
+        <v>-162714</v>
       </c>
       <c r="AM124" s="11">
-        <v>-162714</v>
+        <v>-146494</v>
       </c>
       <c r="AN124" s="11">
-        <v>-146494</v>
+        <v>-107065</v>
       </c>
       <c r="AO124" s="11">
-        <v>-107065</v>
+        <v>-178470</v>
       </c>
       <c r="AP124" s="11">
-        <v>-178470</v>
+        <v>-99431</v>
       </c>
       <c r="AQ124" s="11">
-        <v>-99431</v>
+        <v>-117236</v>
       </c>
       <c r="AR124" s="11">
-        <v>-117236</v>
+        <v>-72470</v>
       </c>
       <c r="AS124" s="11">
-        <v>-72470</v>
+        <v>-98358</v>
       </c>
       <c r="AT124" s="11">
-        <v>-98358</v>
+        <v>-36205</v>
       </c>
       <c r="AU124" s="11">
-        <v>-36205</v>
+        <v>-46431</v>
       </c>
       <c r="AV124" s="11">
-        <v>-46431</v>
+        <v>-24993</v>
       </c>
       <c r="AW124" s="11">
-        <v>-24993</v>
+        <v>-16300</v>
       </c>
       <c r="AX124" s="11">
-        <v>-16300</v>
+        <v>-18418</v>
       </c>
       <c r="AY124" s="11">
-        <v>-18418</v>
+        <v>-838864</v>
       </c>
       <c r="AZ124" s="11">
-        <v>-838864</v>
+        <v>-263408</v>
       </c>
       <c r="BA124" s="11">
-        <v>-263408</v>
+        <v>-281255</v>
       </c>
       <c r="BB124" s="11">
-        <v>-281259</v>
+        <v>-751621</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17679,94 +17679,94 @@
         <v>0</v>
       </c>
       <c r="Y125" s="17">
-        <v>0</v>
+        <v>5003773</v>
       </c>
       <c r="Z125" s="17">
-        <v>5003773</v>
+        <v>4814533</v>
       </c>
       <c r="AA125" s="17">
-        <v>4814533</v>
+        <v>5848132</v>
       </c>
       <c r="AB125" s="17">
-        <v>5848132</v>
+        <v>7320115</v>
       </c>
       <c r="AC125" s="17">
-        <v>7320115</v>
+        <v>6783459</v>
       </c>
       <c r="AD125" s="17">
-        <v>6783459</v>
+        <v>7913054</v>
       </c>
       <c r="AE125" s="17">
-        <v>7913054</v>
+        <v>8710611</v>
       </c>
       <c r="AF125" s="17">
-        <v>8710611</v>
+        <v>8289115</v>
       </c>
       <c r="AG125" s="17">
-        <v>8289115</v>
+        <v>8303574</v>
       </c>
       <c r="AH125" s="17">
-        <v>8303574</v>
+        <v>7468775</v>
       </c>
       <c r="AI125" s="17">
-        <v>7468775</v>
+        <v>9506819</v>
       </c>
       <c r="AJ125" s="17">
-        <v>9506819</v>
+        <v>11028015</v>
       </c>
       <c r="AK125" s="17">
-        <v>11028015</v>
+        <v>9942922</v>
       </c>
       <c r="AL125" s="17">
-        <v>9942922</v>
+        <v>11916444</v>
       </c>
       <c r="AM125" s="17">
-        <v>11916444</v>
+        <v>15484920</v>
       </c>
       <c r="AN125" s="17">
-        <v>15484920</v>
+        <v>11674012</v>
       </c>
       <c r="AO125" s="17">
-        <v>11674012</v>
+        <v>10875125</v>
       </c>
       <c r="AP125" s="17">
-        <v>10875125</v>
+        <v>12011104</v>
       </c>
       <c r="AQ125" s="17">
-        <v>12011104</v>
+        <v>10354889</v>
       </c>
       <c r="AR125" s="17">
-        <v>10354889</v>
+        <v>11108418</v>
       </c>
       <c r="AS125" s="17">
-        <v>11108418</v>
+        <v>10888591</v>
       </c>
       <c r="AT125" s="17">
-        <v>10888591</v>
+        <v>8635868</v>
       </c>
       <c r="AU125" s="17">
-        <v>8635868</v>
+        <v>15751129</v>
       </c>
       <c r="AV125" s="17">
-        <v>15751129</v>
+        <v>20819333</v>
       </c>
       <c r="AW125" s="17">
-        <v>20819333</v>
+        <v>18602346</v>
       </c>
       <c r="AX125" s="17">
-        <v>18602346</v>
+        <v>16410446</v>
       </c>
       <c r="AY125" s="17">
-        <v>16410446</v>
+        <v>15297080</v>
       </c>
       <c r="AZ125" s="17">
-        <v>15297080</v>
+        <v>11774920</v>
       </c>
       <c r="BA125" s="17">
-        <v>11774920</v>
+        <v>14597743</v>
       </c>
       <c r="BB125" s="17">
-        <v>14597743</v>
+        <v>13718005</v>
       </c>
     </row>
     <row r="126" spans="2:54" x14ac:dyDescent="0.3">
@@ -18271,65 +18271,65 @@
       <c r="X132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y132" s="11" t="s">
-        <v>58</v>
+      <c r="Y132" s="11">
+        <v>106593750</v>
       </c>
       <c r="Z132" s="11">
-        <v>106593750</v>
+        <v>210288462</v>
       </c>
       <c r="AA132" s="11">
-        <v>210288462</v>
+        <v>159056926</v>
       </c>
       <c r="AB132" s="11">
-        <v>159056926</v>
+        <v>217086705</v>
       </c>
       <c r="AC132" s="11">
-        <v>217086705</v>
+        <v>212571429</v>
       </c>
       <c r="AD132" s="11">
-        <v>212571429</v>
+        <v>219928270</v>
       </c>
       <c r="AE132" s="11">
-        <v>219928270</v>
+        <v>216153153</v>
       </c>
       <c r="AF132" s="11">
-        <v>216153153</v>
+        <v>238640000</v>
       </c>
       <c r="AG132" s="11">
-        <v>238640000</v>
+        <v>140000000</v>
       </c>
       <c r="AH132" s="11">
-        <v>140000000</v>
+        <v>196833333</v>
       </c>
       <c r="AI132" s="11">
-        <v>196833333</v>
+        <v>214030303</v>
       </c>
       <c r="AJ132" s="11">
-        <v>214030303</v>
+        <v>204100000</v>
       </c>
       <c r="AK132" s="11">
-        <v>204100000</v>
+        <v>335222222</v>
       </c>
       <c r="AL132" s="11">
-        <v>335222222</v>
+        <v>353613793</v>
       </c>
       <c r="AM132" s="11">
-        <v>353613793</v>
+        <v>363110912</v>
       </c>
       <c r="AN132" s="11">
-        <v>363110912</v>
+        <v>333688716</v>
       </c>
       <c r="AO132" s="11">
-        <v>333688716</v>
+        <v>377737226</v>
       </c>
       <c r="AP132" s="11">
-        <v>377737226</v>
+        <v>385072727</v>
       </c>
       <c r="AQ132" s="11">
-        <v>385072727</v>
-      </c>
-      <c r="AR132" s="11">
         <v>387150000</v>
+      </c>
+      <c r="AR132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS132" s="11" t="s">
         <v>58</v>
@@ -18430,35 +18430,35 @@
       <c r="X133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y133" s="13" t="s">
-        <v>58</v>
+      <c r="Y133" s="13">
+        <v>113158940</v>
       </c>
       <c r="Z133" s="13">
-        <v>113158940</v>
+        <v>106386357</v>
       </c>
       <c r="AA133" s="13">
-        <v>106386357</v>
+        <v>106643404</v>
       </c>
       <c r="AB133" s="13">
-        <v>106643404</v>
+        <v>114013334</v>
       </c>
       <c r="AC133" s="13">
-        <v>114013334</v>
+        <v>137903234</v>
       </c>
       <c r="AD133" s="13">
-        <v>137903234</v>
+        <v>179696985</v>
       </c>
       <c r="AE133" s="13">
-        <v>179696985</v>
+        <v>185144096</v>
       </c>
       <c r="AF133" s="13">
-        <v>185144096</v>
+        <v>179713914</v>
       </c>
       <c r="AG133" s="13">
-        <v>179713914</v>
-      </c>
-      <c r="AH133" s="13">
         <v>187452620</v>
+      </c>
+      <c r="AH133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI133" s="13" t="s">
         <v>58</v>
@@ -18616,68 +18616,68 @@
       <c r="AG134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH134" s="11" t="s">
-        <v>58</v>
+      <c r="AH134" s="11">
+        <v>201084067</v>
       </c>
       <c r="AI134" s="11">
-        <v>201084067</v>
+        <v>229402366</v>
       </c>
       <c r="AJ134" s="11">
-        <v>229402366</v>
+        <v>207760742</v>
       </c>
       <c r="AK134" s="11">
-        <v>207760742</v>
+        <v>194090447</v>
       </c>
       <c r="AL134" s="11">
-        <v>194090447</v>
+        <v>196412510</v>
       </c>
       <c r="AM134" s="11">
-        <v>196412510</v>
+        <v>218846067</v>
       </c>
       <c r="AN134" s="11">
-        <v>218846067</v>
+        <v>229355574</v>
       </c>
       <c r="AO134" s="11">
-        <v>229355574</v>
+        <v>232440906</v>
       </c>
       <c r="AP134" s="11">
-        <v>232440906</v>
+        <v>215252827</v>
       </c>
       <c r="AQ134" s="11">
-        <v>215252827</v>
+        <v>227049389</v>
       </c>
       <c r="AR134" s="11">
-        <v>227049389</v>
+        <v>232877438</v>
       </c>
       <c r="AS134" s="11">
-        <v>232877438</v>
+        <v>246353375</v>
       </c>
       <c r="AT134" s="11">
-        <v>246353375</v>
+        <v>277096452</v>
       </c>
       <c r="AU134" s="11">
-        <v>277096452</v>
+        <v>275726314</v>
       </c>
       <c r="AV134" s="11">
-        <v>275726314</v>
+        <v>297864952</v>
       </c>
       <c r="AW134" s="11">
-        <v>297864952</v>
+        <v>333615972</v>
       </c>
       <c r="AX134" s="11">
-        <v>333615972</v>
+        <v>325931179</v>
       </c>
       <c r="AY134" s="11">
-        <v>325931179</v>
+        <v>274443878</v>
       </c>
       <c r="AZ134" s="11">
-        <v>274443878</v>
+        <v>254134879</v>
       </c>
       <c r="BA134" s="11">
-        <v>254134879</v>
+        <v>258457573</v>
       </c>
       <c r="BB134" s="11">
-        <v>258457573</v>
+        <v>245860534</v>
       </c>
     </row>
     <row r="135" spans="2:54" x14ac:dyDescent="0.3">
@@ -18775,68 +18775,68 @@
       <c r="AG135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH135" s="13" t="s">
-        <v>58</v>
+      <c r="AH135" s="13">
+        <v>141347206</v>
       </c>
       <c r="AI135" s="13">
-        <v>141347206</v>
+        <v>152479592</v>
       </c>
       <c r="AJ135" s="13">
-        <v>152479592</v>
+        <v>168138991</v>
       </c>
       <c r="AK135" s="13">
-        <v>168138991</v>
+        <v>159931530</v>
       </c>
       <c r="AL135" s="13">
-        <v>159931530</v>
+        <v>218838213</v>
       </c>
       <c r="AM135" s="13">
-        <v>218838213</v>
+        <v>197595723</v>
       </c>
       <c r="AN135" s="13">
-        <v>197595723</v>
+        <v>197555556</v>
       </c>
       <c r="AO135" s="13">
-        <v>197555556</v>
+        <v>240072513</v>
       </c>
       <c r="AP135" s="13">
-        <v>240072513</v>
+        <v>255266667</v>
       </c>
       <c r="AQ135" s="13">
-        <v>255266667</v>
+        <v>279721491</v>
       </c>
       <c r="AR135" s="13">
-        <v>279721491</v>
+        <v>0</v>
       </c>
       <c r="AS135" s="13">
-        <v>0</v>
+        <v>278474836</v>
       </c>
       <c r="AT135" s="13">
-        <v>278474836</v>
+        <v>324918367</v>
       </c>
       <c r="AU135" s="13">
-        <v>324918367</v>
+        <v>289631387</v>
       </c>
       <c r="AV135" s="13">
-        <v>289631387</v>
+        <v>322882129</v>
       </c>
       <c r="AW135" s="13">
-        <v>322882129</v>
+        <v>321135593</v>
       </c>
       <c r="AX135" s="13">
-        <v>321135593</v>
+        <v>312028037</v>
       </c>
       <c r="AY135" s="13">
-        <v>312028037</v>
+        <v>223901186</v>
       </c>
       <c r="AZ135" s="13">
-        <v>223901186</v>
+        <v>212984314</v>
       </c>
       <c r="BA135" s="13">
-        <v>212984314</v>
+        <v>199823789</v>
       </c>
       <c r="BB135" s="13">
-        <v>199823789</v>
+        <v>233139442</v>
       </c>
     </row>
     <row r="136" spans="2:54" x14ac:dyDescent="0.3">
@@ -18907,95 +18907,95 @@
       <c r="X136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y136" s="11" t="s">
-        <v>58</v>
+      <c r="Y136" s="11">
+        <v>97031746</v>
       </c>
       <c r="Z136" s="11">
-        <v>97031746</v>
+        <v>130444444</v>
       </c>
       <c r="AA136" s="11">
-        <v>130444444</v>
+        <v>106924528</v>
       </c>
       <c r="AB136" s="11">
-        <v>106924528</v>
+        <v>121257576</v>
       </c>
       <c r="AC136" s="11">
-        <v>121257576</v>
+        <v>157200000</v>
       </c>
       <c r="AD136" s="11">
-        <v>157200000</v>
+        <v>218152174</v>
       </c>
       <c r="AE136" s="11">
-        <v>218152174</v>
+        <v>218187500</v>
       </c>
       <c r="AF136" s="11">
-        <v>218187500</v>
+        <v>205285714</v>
       </c>
       <c r="AG136" s="11">
-        <v>205285714</v>
+        <v>193833333</v>
       </c>
       <c r="AH136" s="11">
-        <v>193833333</v>
+        <v>181500000</v>
       </c>
       <c r="AI136" s="11">
-        <v>181500000</v>
+        <v>220610390</v>
       </c>
       <c r="AJ136" s="11">
-        <v>220610390</v>
+        <v>221066667</v>
       </c>
       <c r="AK136" s="11">
-        <v>221066667</v>
+        <v>226454545</v>
       </c>
       <c r="AL136" s="11">
-        <v>226454545</v>
+        <v>230384615</v>
       </c>
       <c r="AM136" s="11">
-        <v>230384615</v>
-      </c>
-      <c r="AN136" s="11">
         <v>205000000</v>
       </c>
+      <c r="AN136" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP136" s="11" t="s">
-        <v>58</v>
+      <c r="AP136" s="11">
+        <v>275387097</v>
       </c>
       <c r="AQ136" s="11">
-        <v>275387097</v>
+        <v>268475000</v>
       </c>
       <c r="AR136" s="11">
-        <v>268475000</v>
+        <v>267373333</v>
       </c>
       <c r="AS136" s="11">
-        <v>267373333</v>
+        <v>274655462</v>
       </c>
       <c r="AT136" s="11">
-        <v>274655462</v>
+        <v>390571429</v>
       </c>
       <c r="AU136" s="11">
-        <v>390571429</v>
+        <v>404843137</v>
       </c>
       <c r="AV136" s="11">
-        <v>404843137</v>
+        <v>501500000</v>
       </c>
       <c r="AW136" s="11">
-        <v>501500000</v>
+        <v>373500000</v>
       </c>
       <c r="AX136" s="11">
-        <v>373500000</v>
-      </c>
-      <c r="AY136" s="11">
         <v>714500000</v>
       </c>
-      <c r="AZ136" s="11" t="s">
-        <v>58</v>
+      <c r="AY136" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ136" s="11">
+        <v>362176471</v>
       </c>
       <c r="BA136" s="11">
-        <v>362176471</v>
+        <v>367812500</v>
       </c>
       <c r="BB136" s="11">
-        <v>367812500</v>
+        <v>508354167</v>
       </c>
     </row>
     <row r="137" spans="2:54" x14ac:dyDescent="0.3">
@@ -19123,38 +19123,38 @@
       <c r="AQ137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR137" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS137" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT137" s="13" t="s">
-        <v>58</v>
+      <c r="AR137" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT137" s="13">
+        <v>385800000</v>
       </c>
       <c r="AU137" s="13">
-        <v>385800000</v>
+        <v>349584615</v>
       </c>
       <c r="AV137" s="13">
-        <v>349584615</v>
+        <v>457268519</v>
       </c>
       <c r="AW137" s="13">
-        <v>457268519</v>
+        <v>545109375</v>
       </c>
       <c r="AX137" s="13">
-        <v>545109375</v>
+        <v>596875000</v>
       </c>
       <c r="AY137" s="13">
-        <v>596875000</v>
+        <v>332695652</v>
       </c>
       <c r="AZ137" s="13">
-        <v>332695652</v>
+        <v>444629630</v>
       </c>
       <c r="BA137" s="13">
-        <v>444629630</v>
+        <v>413661290</v>
       </c>
       <c r="BB137" s="13">
-        <v>413677419</v>
+        <v>374224490</v>
       </c>
     </row>
     <row r="138" spans="2:54" x14ac:dyDescent="0.3">
@@ -19252,68 +19252,68 @@
       <c r="AG138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH138" s="11" t="s">
-        <v>58</v>
+      <c r="AH138" s="11">
+        <v>152115789</v>
       </c>
       <c r="AI138" s="11">
-        <v>152115789</v>
+        <v>150750596</v>
       </c>
       <c r="AJ138" s="11">
-        <v>150750596</v>
+        <v>143114739</v>
       </c>
       <c r="AK138" s="11">
-        <v>143114739</v>
+        <v>170756396</v>
       </c>
       <c r="AL138" s="11">
-        <v>170756396</v>
+        <v>197350820</v>
       </c>
       <c r="AM138" s="11">
-        <v>197350820</v>
+        <v>226265700</v>
       </c>
       <c r="AN138" s="11">
-        <v>226265700</v>
+        <v>246339440</v>
       </c>
       <c r="AO138" s="11">
-        <v>246339440</v>
+        <v>267272260</v>
       </c>
       <c r="AP138" s="11">
-        <v>267272260</v>
+        <v>239098103</v>
       </c>
       <c r="AQ138" s="11">
-        <v>239098103</v>
+        <v>231843720</v>
       </c>
       <c r="AR138" s="11">
-        <v>231843720</v>
+        <v>252258781</v>
       </c>
       <c r="AS138" s="11">
-        <v>252258781</v>
+        <v>255019404</v>
       </c>
       <c r="AT138" s="11">
-        <v>255019404</v>
+        <v>268281657</v>
       </c>
       <c r="AU138" s="11">
-        <v>268281657</v>
+        <v>260280374</v>
       </c>
       <c r="AV138" s="11">
-        <v>260280374</v>
+        <v>260013499</v>
       </c>
       <c r="AW138" s="11">
-        <v>260013499</v>
+        <v>260002326</v>
       </c>
       <c r="AX138" s="11">
-        <v>260002326</v>
+        <v>241966128</v>
       </c>
       <c r="AY138" s="11">
-        <v>241966128</v>
+        <v>205020949</v>
       </c>
       <c r="AZ138" s="11">
-        <v>205020949</v>
+        <v>195523726</v>
       </c>
       <c r="BA138" s="11">
-        <v>195523726</v>
+        <v>290435417</v>
       </c>
       <c r="BB138" s="11">
-        <v>290435417</v>
+        <v>275536620</v>
       </c>
     </row>
     <row r="139" spans="2:54" x14ac:dyDescent="0.3">
@@ -19384,35 +19384,35 @@
       <c r="X139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y139" s="13" t="s">
-        <v>58</v>
+      <c r="Y139" s="13">
+        <v>48954165</v>
       </c>
       <c r="Z139" s="13">
-        <v>48954165</v>
+        <v>88270059</v>
       </c>
       <c r="AA139" s="13">
-        <v>88270059</v>
+        <v>101252934</v>
       </c>
       <c r="AB139" s="13">
-        <v>101252934</v>
+        <v>125264837</v>
       </c>
       <c r="AC139" s="13">
-        <v>125264837</v>
+        <v>138436280</v>
       </c>
       <c r="AD139" s="13">
-        <v>138436280</v>
+        <v>130858491</v>
       </c>
       <c r="AE139" s="13">
-        <v>130858491</v>
+        <v>138245329</v>
       </c>
       <c r="AF139" s="13">
-        <v>138245329</v>
+        <v>130857081</v>
       </c>
       <c r="AG139" s="13">
-        <v>130857081</v>
-      </c>
-      <c r="AH139" s="13">
         <v>144764982</v>
+      </c>
+      <c r="AH139" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI139" s="13" t="s">
         <v>58</v>
@@ -19570,68 +19570,68 @@
       <c r="AG140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH140" s="11" t="s">
-        <v>58</v>
+      <c r="AH140" s="11">
+        <v>192513411</v>
       </c>
       <c r="AI140" s="11">
-        <v>192513411</v>
+        <v>185844002</v>
       </c>
       <c r="AJ140" s="11">
-        <v>185844002</v>
+        <v>191633662</v>
       </c>
       <c r="AK140" s="11">
-        <v>191633662</v>
+        <v>206738424</v>
       </c>
       <c r="AL140" s="11">
-        <v>206738424</v>
+        <v>266557542</v>
       </c>
       <c r="AM140" s="11">
-        <v>266557542</v>
+        <v>276778459</v>
       </c>
       <c r="AN140" s="11">
-        <v>276778459</v>
+        <v>283648710</v>
       </c>
       <c r="AO140" s="11">
-        <v>283648710</v>
+        <v>278359126</v>
       </c>
       <c r="AP140" s="11">
-        <v>278359126</v>
+        <v>298338299</v>
       </c>
       <c r="AQ140" s="11">
-        <v>298338299</v>
+        <v>284492266</v>
       </c>
       <c r="AR140" s="11">
-        <v>284492266</v>
+        <v>275068293</v>
       </c>
       <c r="AS140" s="11">
-        <v>275068293</v>
+        <v>287640515</v>
       </c>
       <c r="AT140" s="11">
-        <v>287640515</v>
+        <v>306393875</v>
       </c>
       <c r="AU140" s="11">
-        <v>306393875</v>
+        <v>297846133</v>
       </c>
       <c r="AV140" s="11">
-        <v>297846133</v>
+        <v>327208696</v>
       </c>
       <c r="AW140" s="11">
-        <v>327208696</v>
+        <v>349285683</v>
       </c>
       <c r="AX140" s="11">
-        <v>349285683</v>
+        <v>363048614</v>
       </c>
       <c r="AY140" s="11">
-        <v>363048614</v>
+        <v>351261072</v>
       </c>
       <c r="AZ140" s="11">
-        <v>351261072</v>
+        <v>351603463</v>
       </c>
       <c r="BA140" s="11">
-        <v>351603463</v>
+        <v>351093756</v>
       </c>
       <c r="BB140" s="11">
-        <v>351093756</v>
+        <v>350967768</v>
       </c>
     </row>
     <row r="141" spans="2:54" x14ac:dyDescent="0.3">
@@ -19729,68 +19729,68 @@
       <c r="AG141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH141" s="13" t="s">
-        <v>58</v>
+      <c r="AH141" s="13">
+        <v>245720736</v>
       </c>
       <c r="AI141" s="13">
-        <v>245720736</v>
+        <v>233845623</v>
       </c>
       <c r="AJ141" s="13">
-        <v>233845623</v>
+        <v>255282828</v>
       </c>
       <c r="AK141" s="13">
-        <v>255282828</v>
+        <v>275224215</v>
       </c>
       <c r="AL141" s="13">
-        <v>275224215</v>
+        <v>403571388</v>
       </c>
       <c r="AM141" s="13">
-        <v>403571388</v>
+        <v>382497976</v>
       </c>
       <c r="AN141" s="13">
-        <v>382497976</v>
+        <v>382831761</v>
       </c>
       <c r="AO141" s="13">
-        <v>382831761</v>
+        <v>357719436</v>
       </c>
       <c r="AP141" s="13">
-        <v>357719436</v>
+        <v>368305797</v>
       </c>
       <c r="AQ141" s="13">
-        <v>368305797</v>
+        <v>391754408</v>
       </c>
       <c r="AR141" s="13">
-        <v>391754408</v>
+        <v>366654191</v>
       </c>
       <c r="AS141" s="13">
-        <v>366654191</v>
+        <v>389822641</v>
       </c>
       <c r="AT141" s="13">
-        <v>389822641</v>
+        <v>423048987</v>
       </c>
       <c r="AU141" s="13">
-        <v>423048987</v>
+        <v>438741016</v>
       </c>
       <c r="AV141" s="13">
-        <v>438741016</v>
+        <v>473484968</v>
       </c>
       <c r="AW141" s="13">
-        <v>473484968</v>
+        <v>537984860</v>
       </c>
       <c r="AX141" s="13">
-        <v>537984860</v>
+        <v>517008678</v>
       </c>
       <c r="AY141" s="13">
-        <v>517008678</v>
+        <v>493479589</v>
       </c>
       <c r="AZ141" s="13">
-        <v>493479589</v>
+        <v>476410235</v>
       </c>
       <c r="BA141" s="13">
-        <v>476410235</v>
+        <v>475776482</v>
       </c>
       <c r="BB141" s="13">
-        <v>475776482</v>
+        <v>457059598</v>
       </c>
     </row>
     <row r="142" spans="2:54" x14ac:dyDescent="0.3">
@@ -19888,68 +19888,68 @@
       <c r="AG142" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH142" s="11" t="s">
-        <v>58</v>
+      <c r="AH142" s="11">
+        <v>243934706</v>
       </c>
       <c r="AI142" s="11">
-        <v>243934706</v>
+        <v>253634622</v>
       </c>
       <c r="AJ142" s="11">
-        <v>253634622</v>
+        <v>257646915</v>
       </c>
       <c r="AK142" s="11">
-        <v>257646915</v>
+        <v>263179549</v>
       </c>
       <c r="AL142" s="11">
-        <v>263179549</v>
+        <v>264720839</v>
       </c>
       <c r="AM142" s="11">
-        <v>264720839</v>
+        <v>280835507</v>
       </c>
       <c r="AN142" s="11">
-        <v>280835507</v>
+        <v>275922260</v>
       </c>
       <c r="AO142" s="11">
-        <v>275922260</v>
+        <v>323774706</v>
       </c>
       <c r="AP142" s="11">
-        <v>323774706</v>
+        <v>352261117</v>
       </c>
       <c r="AQ142" s="11">
-        <v>352261117</v>
+        <v>325539741</v>
       </c>
       <c r="AR142" s="11">
-        <v>325539741</v>
+        <v>330793454</v>
       </c>
       <c r="AS142" s="11">
-        <v>330793454</v>
+        <v>342526555</v>
       </c>
       <c r="AT142" s="11">
-        <v>342526555</v>
+        <v>376531754</v>
       </c>
       <c r="AU142" s="11">
-        <v>376531754</v>
+        <v>419756695</v>
       </c>
       <c r="AV142" s="11">
-        <v>419756695</v>
+        <v>425361890</v>
       </c>
       <c r="AW142" s="11">
-        <v>425361890</v>
+        <v>407796855</v>
       </c>
       <c r="AX142" s="11">
-        <v>407796855</v>
+        <v>416055066</v>
       </c>
       <c r="AY142" s="11">
-        <v>416055066</v>
+        <v>433681204</v>
       </c>
       <c r="AZ142" s="11">
-        <v>433681204</v>
+        <v>415119911</v>
       </c>
       <c r="BA142" s="11">
-        <v>415119911</v>
+        <v>419146804</v>
       </c>
       <c r="BB142" s="11">
-        <v>419146804</v>
+        <v>413376708</v>
       </c>
     </row>
     <row r="143" spans="2:54" x14ac:dyDescent="0.3">
@@ -20047,68 +20047,68 @@
       <c r="AG143" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH143" s="13" t="s">
-        <v>58</v>
+      <c r="AH143" s="13">
+        <v>245346835</v>
       </c>
       <c r="AI143" s="13">
-        <v>245346835</v>
+        <v>253357562</v>
       </c>
       <c r="AJ143" s="13">
-        <v>253357562</v>
+        <v>307887776</v>
       </c>
       <c r="AK143" s="13">
-        <v>307887776</v>
+        <v>309535797</v>
       </c>
       <c r="AL143" s="13">
-        <v>309535797</v>
+        <v>318991304</v>
       </c>
       <c r="AM143" s="13">
-        <v>318991304</v>
+        <v>300472155</v>
       </c>
       <c r="AN143" s="13">
-        <v>300472155</v>
+        <v>369393220</v>
       </c>
       <c r="AO143" s="13">
-        <v>369393220</v>
+        <v>386710345</v>
       </c>
       <c r="AP143" s="13">
-        <v>386710345</v>
+        <v>379030637</v>
       </c>
       <c r="AQ143" s="13">
-        <v>379030637</v>
+        <v>358500990</v>
       </c>
       <c r="AR143" s="13">
-        <v>358500990</v>
+        <v>319500867</v>
       </c>
       <c r="AS143" s="13">
-        <v>319500867</v>
+        <v>374261023</v>
       </c>
       <c r="AT143" s="13">
-        <v>374261023</v>
+        <v>474303828</v>
       </c>
       <c r="AU143" s="13">
-        <v>474303828</v>
+        <v>435325843</v>
       </c>
       <c r="AV143" s="13">
-        <v>435325843</v>
+        <v>445188377</v>
       </c>
       <c r="AW143" s="13">
-        <v>445188377</v>
+        <v>543872832</v>
       </c>
       <c r="AX143" s="13">
-        <v>543872832</v>
+        <v>607760300</v>
       </c>
       <c r="AY143" s="13">
-        <v>607760300</v>
+        <v>470963415</v>
       </c>
       <c r="AZ143" s="13">
-        <v>470963415</v>
+        <v>458327434</v>
       </c>
       <c r="BA143" s="13">
-        <v>458327434</v>
+        <v>470227684</v>
       </c>
       <c r="BB143" s="13">
-        <v>470227684</v>
+        <v>426730277</v>
       </c>
     </row>
     <row r="144" spans="2:54" x14ac:dyDescent="0.3">
@@ -20206,68 +20206,68 @@
       <c r="AG144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH144" s="11" t="s">
-        <v>58</v>
+      <c r="AH144" s="11">
+        <v>78127083</v>
       </c>
       <c r="AI144" s="11">
-        <v>78127083</v>
+        <v>72186624</v>
       </c>
       <c r="AJ144" s="11">
-        <v>72186624</v>
+        <v>65049807</v>
       </c>
       <c r="AK144" s="11">
-        <v>65049807</v>
+        <v>69092205</v>
       </c>
       <c r="AL144" s="11">
-        <v>69092205</v>
+        <v>74971083</v>
       </c>
       <c r="AM144" s="11">
-        <v>74971083</v>
+        <v>76638504</v>
       </c>
       <c r="AN144" s="11">
-        <v>76638504</v>
+        <v>87259205</v>
       </c>
       <c r="AO144" s="11">
-        <v>87259205</v>
+        <v>98621752</v>
       </c>
       <c r="AP144" s="11">
-        <v>98621752</v>
+        <v>95557481</v>
       </c>
       <c r="AQ144" s="11">
-        <v>95557481</v>
+        <v>100648430</v>
       </c>
       <c r="AR144" s="11">
-        <v>100648430</v>
+        <v>102920000</v>
       </c>
       <c r="AS144" s="11">
-        <v>102920000</v>
+        <v>117082014</v>
       </c>
       <c r="AT144" s="11">
-        <v>117082014</v>
+        <v>141390693</v>
       </c>
       <c r="AU144" s="11">
-        <v>141390693</v>
+        <v>150642804</v>
       </c>
       <c r="AV144" s="11">
-        <v>150642804</v>
+        <v>152969024</v>
       </c>
       <c r="AW144" s="11">
-        <v>152969024</v>
+        <v>150075188</v>
       </c>
       <c r="AX144" s="11">
-        <v>150075188</v>
+        <v>148955832</v>
       </c>
       <c r="AY144" s="11">
-        <v>148955832</v>
+        <v>108810523</v>
       </c>
       <c r="AZ144" s="11">
-        <v>108810523</v>
+        <v>105611783</v>
       </c>
       <c r="BA144" s="11">
-        <v>105611783</v>
+        <v>99266897</v>
       </c>
       <c r="BB144" s="11">
-        <v>99266897</v>
+        <v>101306050</v>
       </c>
     </row>
     <row r="145" spans="2:54" x14ac:dyDescent="0.3">
@@ -20371,15 +20371,15 @@
       <c r="AI145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ145" s="13" t="s">
-        <v>58</v>
+      <c r="AJ145" s="13">
+        <v>130085828</v>
       </c>
       <c r="AK145" s="13">
-        <v>130085828</v>
-      </c>
-      <c r="AL145" s="13">
         <v>129865424</v>
       </c>
+      <c r="AL145" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM145" s="13" t="s">
         <v>58</v>
       </c>
@@ -20395,11 +20395,11 @@
       <c r="AQ145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR145" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS145" s="13">
-        <v>0</v>
+      <c r="AR145" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS145" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT145" s="13" t="s">
         <v>58</v>
@@ -20554,35 +20554,35 @@
       <c r="X147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y147" s="11" t="s">
-        <v>58</v>
+      <c r="Y147" s="11">
+        <v>64032291</v>
       </c>
       <c r="Z147" s="11">
-        <v>64032291</v>
+        <v>73694341</v>
       </c>
       <c r="AA147" s="11">
-        <v>73694341</v>
+        <v>79839906</v>
       </c>
       <c r="AB147" s="11">
-        <v>79839906</v>
+        <v>106266618</v>
       </c>
       <c r="AC147" s="11">
-        <v>106266618</v>
+        <v>123735594</v>
       </c>
       <c r="AD147" s="11">
-        <v>123735594</v>
+        <v>123245942</v>
       </c>
       <c r="AE147" s="11">
-        <v>123245942</v>
+        <v>106514201</v>
       </c>
       <c r="AF147" s="11">
-        <v>106514201</v>
+        <v>133754880</v>
       </c>
       <c r="AG147" s="11">
-        <v>133754880</v>
-      </c>
-      <c r="AH147" s="11">
         <v>133584931</v>
+      </c>
+      <c r="AH147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI147" s="11" t="s">
         <v>58</v>
@@ -20740,68 +20740,68 @@
       <c r="AG148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH148" s="13" t="s">
-        <v>58</v>
+      <c r="AH148" s="13">
+        <v>179451281</v>
       </c>
       <c r="AI148" s="13">
-        <v>179451281</v>
+        <v>190809080</v>
       </c>
       <c r="AJ148" s="13">
-        <v>190809080</v>
+        <v>209661936</v>
       </c>
       <c r="AK148" s="13">
-        <v>209661936</v>
+        <v>219384631</v>
       </c>
       <c r="AL148" s="13">
-        <v>219384631</v>
+        <v>223042051</v>
       </c>
       <c r="AM148" s="13">
-        <v>223042051</v>
+        <v>221352295</v>
       </c>
       <c r="AN148" s="13">
-        <v>221352295</v>
+        <v>226794644</v>
       </c>
       <c r="AO148" s="13">
-        <v>226794644</v>
+        <v>216930844</v>
       </c>
       <c r="AP148" s="13">
-        <v>216930844</v>
+        <v>214313089</v>
       </c>
       <c r="AQ148" s="13">
-        <v>214313089</v>
+        <v>208228801</v>
       </c>
       <c r="AR148" s="13">
-        <v>208228801</v>
+        <v>199795139</v>
       </c>
       <c r="AS148" s="13">
-        <v>199795139</v>
+        <v>201681606</v>
       </c>
       <c r="AT148" s="13">
-        <v>201681606</v>
+        <v>278450524</v>
       </c>
       <c r="AU148" s="13">
-        <v>278450524</v>
+        <v>255430404</v>
       </c>
       <c r="AV148" s="13">
-        <v>255430404</v>
+        <v>263490980</v>
       </c>
       <c r="AW148" s="13">
-        <v>263490980</v>
+        <v>292798170</v>
       </c>
       <c r="AX148" s="13">
-        <v>292798170</v>
+        <v>298110613</v>
       </c>
       <c r="AY148" s="13">
-        <v>298110613</v>
+        <v>264486696</v>
       </c>
       <c r="AZ148" s="13">
-        <v>264486696</v>
+        <v>269995533</v>
       </c>
       <c r="BA148" s="13">
-        <v>269995533</v>
+        <v>274613894</v>
       </c>
       <c r="BB148" s="13">
-        <v>274613961</v>
+        <v>255362820</v>
       </c>
     </row>
     <row r="149" spans="2:54" x14ac:dyDescent="0.3">
@@ -20899,68 +20899,68 @@
       <c r="AG149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH149" s="11" t="s">
-        <v>58</v>
+      <c r="AH149" s="11">
+        <v>124833333</v>
       </c>
       <c r="AI149" s="11">
-        <v>124833333</v>
+        <v>116240525</v>
       </c>
       <c r="AJ149" s="11">
-        <v>116240525</v>
+        <v>125428952</v>
       </c>
       <c r="AK149" s="11">
-        <v>125428952</v>
+        <v>162179973</v>
       </c>
       <c r="AL149" s="11">
-        <v>162179973</v>
+        <v>149653571</v>
       </c>
       <c r="AM149" s="11">
-        <v>149653571</v>
+        <v>150989119</v>
       </c>
       <c r="AN149" s="11">
-        <v>150989119</v>
+        <v>192943167</v>
       </c>
       <c r="AO149" s="11">
-        <v>192943167</v>
+        <v>196986996</v>
       </c>
       <c r="AP149" s="11">
-        <v>196986996</v>
+        <v>232894127</v>
       </c>
       <c r="AQ149" s="11">
-        <v>232894127</v>
+        <v>244990203</v>
       </c>
       <c r="AR149" s="11">
-        <v>244990203</v>
+        <v>223226066</v>
       </c>
       <c r="AS149" s="11">
-        <v>223226066</v>
+        <v>226722772</v>
       </c>
       <c r="AT149" s="11">
-        <v>226722772</v>
+        <v>292725191</v>
       </c>
       <c r="AU149" s="11">
-        <v>292725191</v>
+        <v>272310907</v>
       </c>
       <c r="AV149" s="11">
-        <v>272310907</v>
+        <v>275745527</v>
       </c>
       <c r="AW149" s="11">
-        <v>275745527</v>
+        <v>296000000</v>
       </c>
       <c r="AX149" s="11">
-        <v>296000000</v>
+        <v>278739130</v>
       </c>
       <c r="AY149" s="11">
-        <v>278739130</v>
+        <v>230734475</v>
       </c>
       <c r="AZ149" s="11">
-        <v>230734475</v>
+        <v>222379004</v>
       </c>
       <c r="BA149" s="11">
-        <v>222379004</v>
+        <v>230568565</v>
       </c>
       <c r="BB149" s="11">
-        <v>230570168</v>
+        <v>228307818</v>
       </c>
     </row>
     <row r="150" spans="2:54" x14ac:dyDescent="0.3">
@@ -21058,68 +21058,68 @@
       <c r="AG150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH150" s="13" t="s">
-        <v>58</v>
+      <c r="AH150" s="13">
+        <v>122932914</v>
       </c>
       <c r="AI150" s="13">
-        <v>122932914</v>
+        <v>134425853</v>
       </c>
       <c r="AJ150" s="13">
-        <v>134425853</v>
+        <v>135042196</v>
       </c>
       <c r="AK150" s="13">
-        <v>135042196</v>
+        <v>158746044</v>
       </c>
       <c r="AL150" s="13">
-        <v>158746044</v>
+        <v>172963972</v>
       </c>
       <c r="AM150" s="13">
-        <v>172963972</v>
+        <v>201940613</v>
       </c>
       <c r="AN150" s="13">
-        <v>201940613</v>
+        <v>209962918</v>
       </c>
       <c r="AO150" s="13">
-        <v>209962918</v>
+        <v>237845691</v>
       </c>
       <c r="AP150" s="13">
-        <v>237845691</v>
+        <v>257456107</v>
       </c>
       <c r="AQ150" s="13">
-        <v>257456107</v>
+        <v>280926263</v>
       </c>
       <c r="AR150" s="13">
-        <v>280926263</v>
+        <v>275198491</v>
       </c>
       <c r="AS150" s="13">
-        <v>275198491</v>
+        <v>229658106</v>
       </c>
       <c r="AT150" s="13">
-        <v>229658106</v>
+        <v>327670128</v>
       </c>
       <c r="AU150" s="13">
-        <v>327670128</v>
+        <v>324004986</v>
       </c>
       <c r="AV150" s="13">
-        <v>324004986</v>
+        <v>317717037</v>
       </c>
       <c r="AW150" s="13">
-        <v>317717037</v>
+        <v>292009577</v>
       </c>
       <c r="AX150" s="13">
-        <v>292009577</v>
+        <v>300708825</v>
       </c>
       <c r="AY150" s="13">
-        <v>300708825</v>
+        <v>286525565</v>
       </c>
       <c r="AZ150" s="13">
-        <v>286525565</v>
+        <v>256060524</v>
       </c>
       <c r="BA150" s="13">
-        <v>256060524</v>
+        <v>261727170</v>
       </c>
       <c r="BB150" s="13">
-        <v>261727170</v>
+        <v>231370614</v>
       </c>
     </row>
     <row r="151" spans="2:54" x14ac:dyDescent="0.3">
@@ -21190,35 +21190,35 @@
       <c r="X151" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y151" s="11" t="s">
-        <v>58</v>
+      <c r="Y151" s="11">
+        <v>89510220</v>
       </c>
       <c r="Z151" s="11">
-        <v>89510220</v>
+        <v>79731942</v>
       </c>
       <c r="AA151" s="11">
-        <v>79731942</v>
+        <v>102665822</v>
       </c>
       <c r="AB151" s="11">
-        <v>102665822</v>
+        <v>130876535</v>
       </c>
       <c r="AC151" s="11">
-        <v>130876535</v>
+        <v>124570613</v>
       </c>
       <c r="AD151" s="11">
-        <v>124570613</v>
+        <v>124645777</v>
       </c>
       <c r="AE151" s="11">
-        <v>124645777</v>
+        <v>132410980</v>
       </c>
       <c r="AF151" s="11">
-        <v>132410980</v>
+        <v>140773010</v>
       </c>
       <c r="AG151" s="11">
-        <v>140773010</v>
-      </c>
-      <c r="AH151" s="11">
         <v>132689794</v>
+      </c>
+      <c r="AH151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI151" s="11" t="s">
         <v>58</v>
@@ -21376,27 +21376,27 @@
       <c r="AG152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI152" s="13">
+      <c r="AH152" s="13">
         <v>228364865</v>
       </c>
+      <c r="AI152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL152" s="13">
+      <c r="AK152" s="13">
         <v>250931818</v>
       </c>
-      <c r="AM152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN152" s="13">
+      <c r="AL152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM152" s="13">
         <v>277292537</v>
       </c>
+      <c r="AN152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO152" s="13" t="s">
         <v>58</v>
       </c>
@@ -21406,38 +21406,38 @@
       <c r="AQ152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR152" s="13" t="s">
-        <v>58</v>
+      <c r="AR152" s="13">
+        <v>271681818</v>
       </c>
       <c r="AS152" s="13">
-        <v>271681818</v>
+        <v>272545455</v>
       </c>
       <c r="AT152" s="13">
-        <v>272545455</v>
+        <v>317343949</v>
       </c>
       <c r="AU152" s="13">
-        <v>317343949</v>
-      </c>
-      <c r="AV152" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX152" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW152" s="13">
         <v>361818182</v>
       </c>
+      <c r="AX152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ152" s="13" t="s">
-        <v>58</v>
+      <c r="AZ152" s="13">
+        <v>324886364</v>
       </c>
       <c r="BA152" s="13">
-        <v>324886364</v>
-      </c>
-      <c r="BB152" s="13">
         <v>324603604</v>
+      </c>
+      <c r="BB152" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="2:54" x14ac:dyDescent="0.3">
@@ -21535,68 +21535,68 @@
       <c r="AG153" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH153" s="11" t="s">
-        <v>58</v>
+      <c r="AH153" s="11">
+        <v>185307884</v>
       </c>
       <c r="AI153" s="11">
-        <v>185307884</v>
+        <v>176101970</v>
       </c>
       <c r="AJ153" s="11">
-        <v>176101970</v>
+        <v>182700240</v>
       </c>
       <c r="AK153" s="11">
-        <v>182700240</v>
+        <v>232572207</v>
       </c>
       <c r="AL153" s="11">
-        <v>232572207</v>
+        <v>207812746</v>
       </c>
       <c r="AM153" s="11">
-        <v>207812746</v>
+        <v>233011603</v>
       </c>
       <c r="AN153" s="11">
-        <v>233011603</v>
+        <v>261870432</v>
       </c>
       <c r="AO153" s="11">
-        <v>261870432</v>
+        <v>262086257</v>
       </c>
       <c r="AP153" s="11">
-        <v>262086257</v>
+        <v>269121896</v>
       </c>
       <c r="AQ153" s="11">
-        <v>269121896</v>
+        <v>284890244</v>
       </c>
       <c r="AR153" s="11">
-        <v>284890244</v>
+        <v>264378119</v>
       </c>
       <c r="AS153" s="11">
-        <v>264378119</v>
+        <v>274133159</v>
       </c>
       <c r="AT153" s="11">
-        <v>274133159</v>
+        <v>298375000</v>
       </c>
       <c r="AU153" s="11">
-        <v>298375000</v>
+        <v>305607527</v>
       </c>
       <c r="AV153" s="11">
-        <v>305607527</v>
+        <v>322864734</v>
       </c>
       <c r="AW153" s="11">
-        <v>322864734</v>
+        <v>329547170</v>
       </c>
       <c r="AX153" s="11">
-        <v>329547170</v>
+        <v>405045455</v>
       </c>
       <c r="AY153" s="11">
-        <v>405045455</v>
+        <v>339346667</v>
       </c>
       <c r="AZ153" s="11">
-        <v>339346667</v>
+        <v>307711196</v>
       </c>
       <c r="BA153" s="11">
-        <v>307711196</v>
+        <v>261970726</v>
       </c>
       <c r="BB153" s="11">
-        <v>261970726</v>
+        <v>261486379</v>
       </c>
     </row>
     <row r="154" spans="2:54" x14ac:dyDescent="0.3">
@@ -21709,12 +21709,12 @@
       <c r="AL154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN154" s="13">
+      <c r="AM154" s="13">
         <v>253372093</v>
       </c>
+      <c r="AN154" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO154" s="13" t="s">
         <v>58</v>
       </c>
@@ -21724,11 +21724,11 @@
       <c r="AQ154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS154" s="13">
-        <v>0</v>
+      <c r="AR154" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS154" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT154" s="13" t="s">
         <v>58</v>
@@ -21754,8 +21754,8 @@
       <c r="BA154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB154" s="13" t="s">
-        <v>58</v>
+      <c r="BB154" s="13">
+        <v>247621483</v>
       </c>
     </row>
     <row r="155" spans="2:54" x14ac:dyDescent="0.3">
@@ -21868,12 +21868,12 @@
       <c r="AL155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN155" s="11">
+      <c r="AM155" s="11">
         <v>247409091</v>
       </c>
+      <c r="AN155" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO155" s="11" t="s">
         <v>58</v>
       </c>
@@ -21883,11 +21883,11 @@
       <c r="AQ155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS155" s="11">
-        <v>0</v>
+      <c r="AR155" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS155" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT155" s="11" t="s">
         <v>58</v>
@@ -22012,68 +22012,68 @@
       <c r="AG156" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH156" s="13" t="s">
-        <v>58</v>
+      <c r="AH156" s="13">
+        <v>65888978</v>
       </c>
       <c r="AI156" s="13">
-        <v>65888978</v>
+        <v>67798911</v>
       </c>
       <c r="AJ156" s="13">
-        <v>67798911</v>
+        <v>68791194</v>
       </c>
       <c r="AK156" s="13">
-        <v>68791194</v>
+        <v>76390800</v>
       </c>
       <c r="AL156" s="13">
-        <v>76390800</v>
+        <v>74609564</v>
       </c>
       <c r="AM156" s="13">
-        <v>74609564</v>
+        <v>83769951</v>
       </c>
       <c r="AN156" s="13">
-        <v>83769951</v>
+        <v>94809455</v>
       </c>
       <c r="AO156" s="13">
-        <v>94809455</v>
+        <v>90293408</v>
       </c>
       <c r="AP156" s="13">
-        <v>90293408</v>
+        <v>91919081</v>
       </c>
       <c r="AQ156" s="13">
-        <v>91919081</v>
+        <v>97691027</v>
       </c>
       <c r="AR156" s="13">
-        <v>97691027</v>
+        <v>106190546</v>
       </c>
       <c r="AS156" s="13">
-        <v>106190546</v>
+        <v>113016129</v>
       </c>
       <c r="AT156" s="13">
-        <v>113016129</v>
+        <v>149679441</v>
       </c>
       <c r="AU156" s="13">
-        <v>149679441</v>
+        <v>138660326</v>
       </c>
       <c r="AV156" s="13">
-        <v>138660326</v>
+        <v>138796136</v>
       </c>
       <c r="AW156" s="13">
-        <v>138796136</v>
+        <v>120119543</v>
       </c>
       <c r="AX156" s="13">
-        <v>120119543</v>
+        <v>115839436</v>
       </c>
       <c r="AY156" s="13">
-        <v>115839436</v>
+        <v>88916279</v>
       </c>
       <c r="AZ156" s="13">
-        <v>88916279</v>
+        <v>88332761</v>
       </c>
       <c r="BA156" s="13">
-        <v>88332761</v>
+        <v>90930084</v>
       </c>
       <c r="BB156" s="13">
-        <v>90930084</v>
+        <v>83967981</v>
       </c>
     </row>
   </sheetData>
